--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\Договоренности актуальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444A8C18-5A7B-4350-B2BD-1B1E220ED1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A5AC7A-3DDB-4AFC-B539-37048646BEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,13 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$B$1:$B$421</definedName>
+  </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="874">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -853,13 +856,7 @@
     <t>Хочет заказать карту и уточняет что ему нет 18 лет, но не говорит какую именно карту</t>
   </si>
   <si>
-    <t>УВ Заказ новой карты</t>
-  </si>
-  <si>
     <t>Восстановить приложение</t>
-  </si>
-  <si>
-    <t>Вместо консультации / Без вопроса</t>
   </si>
   <si>
     <t xml:space="preserve">Такие фразы, как: списали/сняли     - без моего ведома
@@ -892,9 +889,6 @@
 </t>
   </si>
   <si>
-    <t>Вместо консультации оператора</t>
-  </si>
-  <si>
     <t xml:space="preserve">Все фразы, которые касаются курьерской доставки, в том числе, когда нужно поменять способ доставки карты с курьерской на отделение или наоборот.
 заказать доставку карты курьером Alfa_General_Express_Delivery
 а вы карту доставляете на работу Alfa_General_Express_Delivery
@@ -925,9 +919,6 @@
   </si>
   <si>
     <t>Позвонить, дозвониться</t>
-  </si>
-  <si>
-    <t>Не открывается ссылка, которую вы направили / не открывается ссылка (без всякого уточнения)</t>
   </si>
   <si>
     <t>Премиальный клиент я или нет</t>
@@ -1882,9 +1873,6 @@
     <t>Изменить / отключить / увеличить / уменьшить лимиты на переводы</t>
   </si>
   <si>
-    <t>Вместо консультации</t>
-  </si>
-  <si>
     <t>какой статус кредитки</t>
   </si>
   <si>
@@ -2092,9 +2080,6 @@
 Не готов
 Не помню
 Не пробовала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Готовность карт (CardReadiness) </t>
   </si>
   <si>
     <t>статус дебетовой карты</t>
@@ -2320,9 +2305,6 @@
     <t>Карта не работает ( General_Cardnotworking)</t>
   </si>
   <si>
-    <t>Мошенничество_UNI ( General_Fraud_UNI)</t>
-  </si>
-  <si>
     <t>Без вопроса ( General_Whithout_Question)</t>
   </si>
   <si>
@@ -2539,9 +2521,6 @@
     <t>Не правильные начисления ( Local_Incorrect_Accrual)</t>
   </si>
   <si>
-    <t>Мошенничество ( General_Fraud)</t>
-  </si>
-  <si>
     <t>Мошенничество ( Local_Fraud)</t>
   </si>
   <si>
@@ -2557,10 +2536,6 @@
     <t>Что такое секретный код ( General_About_Secret_Code)</t>
   </si>
   <si>
-    <t xml:space="preserve">Статус ( Local_Status)
-</t>
-  </si>
-  <si>
     <t>Узнать статус обращения ( Local_Claim_Status)</t>
   </si>
   <si>
@@ -2579,15 +2554,9 @@
     <t>Как оформить ( Local_How_To_Create)</t>
   </si>
   <si>
-    <t>( General_Fraud) Мошенничество ( Local_Fraud)</t>
-  </si>
-  <si>
     <t>Зарплатный (счет/ карта) ( Local_Salary)</t>
   </si>
   <si>
-    <t xml:space="preserve"> смарт ( Local_Smart)</t>
-  </si>
-  <si>
     <t>Подписки ( Local_Podpiski)</t>
   </si>
   <si>
@@ -2733,12 +2702,6 @@
   </si>
   <si>
     <t>General Досрочка УКД ( General_DOSROCHKA_UKD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Мошенничество </t>
-  </si>
-  <si>
-    <t>General_-Смарт ( General_-Smart)</t>
   </si>
   <si>
     <t>General Подписки ( General_Podpiski)</t>
@@ -2821,6 +2784,18 @@
   </si>
   <si>
     <t>УВ_ Странные операции (UV_ Strange_operation)</t>
+  </si>
+  <si>
+    <t>Не открывается ссылка (без всякого уточнения)</t>
+  </si>
+  <si>
+    <t>Не открывается ссылка которую вы направили</t>
+  </si>
+  <si>
+    <t>General_Смарт ( General_-Smart)</t>
+  </si>
+  <si>
+    <t>смарт ( Local_Smart)</t>
   </si>
 </sst>
 </file>
@@ -3382,6 +3357,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3392,12 +3383,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,16 +3391,6 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3454,7 +3429,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>126155</xdr:rowOff>
+      <xdr:rowOff>126154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3543,13 +3518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>126155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3591,13 +3566,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>126155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3639,13 +3614,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>312419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3687,13 +3662,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3735,13 +3710,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3783,14 +3758,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>126150</xdr:rowOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>126151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3831,7 +3806,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="312419"/>
@@ -3874,7 +3849,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="312419"/>
@@ -4192,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4212,30 +4187,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -4244,13 +4219,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -4258,13 +4233,13 @@
     </row>
     <row r="4" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -4276,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -4288,7 +4263,7 @@
         <v>230</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -4300,10 +4275,10 @@
         <v>253</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
@@ -4327,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="89"/>
@@ -4339,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
@@ -4348,10 +4323,10 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="89"/>
@@ -4372,22 +4347,22 @@
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -4399,7 +4374,7 @@
         <v>229</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
@@ -4408,10 +4383,10 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
@@ -4420,7 +4395,7 @@
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>177</v>
@@ -4435,7 +4410,7 @@
         <v>183</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>250</v>
@@ -4449,10 +4424,10 @@
         <v>184</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -4487,7 +4462,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
@@ -4499,7 +4474,7 @@
         <v>188</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -4511,7 +4486,7 @@
         <v>189</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
@@ -4532,7 +4507,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B26" s="89" t="s">
         <v>177</v>
@@ -4547,7 +4522,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="89"/>
@@ -4556,13 +4531,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
@@ -4570,10 +4545,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
@@ -4582,7 +4557,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="89" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B30" s="89" t="s">
         <v>177</v>
@@ -4594,13 +4569,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="89" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B31" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
@@ -4608,10 +4583,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="89"/>
@@ -4620,10 +4595,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="89" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="89"/>
@@ -4635,7 +4610,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
@@ -4647,10 +4622,10 @@
         <v>182</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
@@ -4658,10 +4633,10 @@
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="89" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C36" s="89"/>
       <c r="D36" s="89"/>
@@ -4673,10 +4648,10 @@
         <v>180</v>
       </c>
       <c r="B37" s="89" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
@@ -4684,13 +4659,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="89" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B38" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
@@ -4710,13 +4685,13 @@
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="89" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B40" s="89" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D40" s="89"/>
       <c r="E40" s="89"/>
@@ -4724,10 +4699,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="89" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -4751,10 +4726,10 @@
         <v>193</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D43" s="89"/>
       <c r="E43" s="89"/>
@@ -4777,7 +4752,7 @@
         <v>195</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C45" s="89"/>
       <c r="D45" s="89"/>
@@ -4789,10 +4764,10 @@
         <v>196</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
@@ -4803,7 +4778,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C47" s="89"/>
       <c r="D47" s="89"/>
@@ -4815,19 +4790,19 @@
         <v>105</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="89"/>
       <c r="E48" s="89"/>
       <c r="F48" s="89"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="89" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="89"/>
@@ -4839,10 +4814,10 @@
         <v>179</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
@@ -4865,10 +4840,10 @@
         <v>197</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
@@ -4900,10 +4875,10 @@
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="89" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C55" s="89"/>
       <c r="D55" s="89"/>
@@ -4918,7 +4893,7 @@
         <v>251</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
@@ -4941,7 +4916,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C58" s="89"/>
       <c r="D58" s="89"/>
@@ -4962,10 +4937,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="89" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C60" s="89"/>
       <c r="D60" s="89"/>
@@ -4977,7 +4952,7 @@
         <v>203</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
@@ -4990,10 +4965,10 @@
         <v>117</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D62" s="89"/>
       <c r="E62" s="89"/>
@@ -5016,10 +4991,10 @@
         <v>204</v>
       </c>
       <c r="B64" s="89" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D64" s="89"/>
       <c r="E64" s="89"/>
@@ -5030,7 +5005,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C65" s="89"/>
       <c r="D65" s="89"/>
@@ -5042,10 +5017,10 @@
         <v>206</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="89"/>
@@ -5056,7 +5031,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C67" s="89"/>
       <c r="D67" s="89"/>
@@ -5068,10 +5043,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="89" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C68" s="89" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D68" s="89"/>
       <c r="E68" s="89"/>
@@ -5094,10 +5069,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C70" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D70" s="89"/>
       <c r="E70" s="89"/>
@@ -5108,10 +5083,10 @@
         <v>211</v>
       </c>
       <c r="B71" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C71" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
@@ -5119,13 +5094,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="89" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B72" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C72" s="89" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D72" s="89"/>
       <c r="E72" s="89"/>
@@ -5133,10 +5108,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="89" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B73" s="89" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C73" s="89"/>
       <c r="D73" s="89"/>
@@ -5145,13 +5120,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="89" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B74" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C74" s="89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D74" s="89"/>
       <c r="E74" s="89"/>
@@ -5162,10 +5137,10 @@
         <v>221</v>
       </c>
       <c r="B75" s="89" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C75" s="89" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="89"/>
@@ -5188,7 +5163,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="89" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C77" s="89"/>
       <c r="D77" s="89"/>
@@ -5203,7 +5178,7 @@
         <v>251</v>
       </c>
       <c r="C78" s="89" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
@@ -5217,13 +5192,13 @@
         <v>256</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E79" s="89" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F79" s="89"/>
     </row>
@@ -5244,7 +5219,7 @@
         <v>215</v>
       </c>
       <c r="B81" s="89" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C81" s="89"/>
       <c r="D81" s="89"/>
@@ -5253,7 +5228,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="89" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B82" s="89" t="s">
         <v>177</v>
@@ -5265,7 +5240,7 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="89" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B83" s="89" t="s">
         <v>177</v>
@@ -5280,7 +5255,7 @@
         <v>214</v>
       </c>
       <c r="B84" s="89" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C84" s="89"/>
       <c r="D84" s="89"/>
@@ -5292,7 +5267,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="89" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C85" s="89"/>
       <c r="D85" s="89"/>
@@ -5301,7 +5276,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="89" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B86" s="89" t="s">
         <v>177</v>
@@ -5313,7 +5288,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="89" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B87" s="89" t="s">
         <v>177</v>
@@ -5353,7 +5328,7 @@
         <v>226</v>
       </c>
       <c r="B90" s="89" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="C90" s="89"/>
       <c r="D90" s="89"/>
@@ -5377,7 +5352,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="89" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C92" s="89"/>
       <c r="D92" s="89"/>
@@ -5392,7 +5367,7 @@
         <v>250</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D93" s="89"/>
       <c r="E93" s="89"/>
@@ -5403,7 +5378,7 @@
         <v>159</v>
       </c>
       <c r="B94" s="89" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C94" s="89"/>
       <c r="D94" s="89"/>
@@ -5415,7 +5390,7 @@
         <v>223</v>
       </c>
       <c r="B95" s="89" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="C95" s="89"/>
       <c r="D95" s="89"/>
@@ -5430,7 +5405,7 @@
         <v>250</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D96" s="89"/>
       <c r="E96" s="89"/>
@@ -5477,10 +5452,10 @@
         <v>238</v>
       </c>
       <c r="B100" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C100" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D100" s="89"/>
       <c r="E100" s="89"/>
@@ -5539,7 +5514,7 @@
         <v>243</v>
       </c>
       <c r="B105" s="89" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C105" s="89"/>
       <c r="D105" s="89"/>
@@ -5551,10 +5526,10 @@
         <v>244</v>
       </c>
       <c r="B106" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D106" s="89"/>
       <c r="E106" s="89"/>
@@ -5565,10 +5540,10 @@
         <v>231</v>
       </c>
       <c r="B107" s="89" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C107" s="89" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D107" s="89"/>
       <c r="E107" s="89"/>
@@ -5579,7 +5554,7 @@
         <v>232</v>
       </c>
       <c r="B108" s="89" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="C108" s="89"/>
       <c r="D108" s="89"/>
@@ -5591,7 +5566,7 @@
         <v>245</v>
       </c>
       <c r="B109" s="89" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C109" s="89"/>
       <c r="D109" s="89"/>
@@ -5615,7 +5590,7 @@
         <v>247</v>
       </c>
       <c r="B111" s="89" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C111" s="89"/>
       <c r="D111" s="89"/>
@@ -5639,10 +5614,10 @@
         <v>233</v>
       </c>
       <c r="B113" s="89" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C113" s="89" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D113" s="89"/>
       <c r="E113" s="89"/>
@@ -5653,7 +5628,7 @@
         <v>234</v>
       </c>
       <c r="B114" s="89" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="C114" s="89"/>
       <c r="D114" s="89"/>
@@ -5662,10 +5637,10 @@
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="89" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B115" s="89" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C115" s="89"/>
       <c r="D115" s="89"/>
@@ -5677,7 +5652,7 @@
         <v>262</v>
       </c>
       <c r="B116" s="89" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C116" s="89"/>
       <c r="D116" s="89"/>
@@ -5689,10 +5664,10 @@
         <v>263</v>
       </c>
       <c r="B117" s="89" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="C117" s="89" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D117" s="89"/>
       <c r="E117" s="89"/>
@@ -5703,10 +5678,10 @@
         <v>265</v>
       </c>
       <c r="B118" s="89" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C118" s="89" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D118" s="89"/>
       <c r="E118" s="89"/>
@@ -5714,10 +5689,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="89" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B119" s="89" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="C119" s="89"/>
       <c r="D119" s="89"/>
@@ -5729,10 +5704,10 @@
         <v>266</v>
       </c>
       <c r="B120" s="89" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="C120" s="89" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="D120" s="89"/>
       <c r="E120" s="89"/>
@@ -5743,10 +5718,10 @@
         <v>267</v>
       </c>
       <c r="B121" s="89" t="s">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="C121" s="89" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="D121" s="89"/>
       <c r="E121" s="89"/>
@@ -5754,13 +5729,13 @@
     </row>
     <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="89" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C122" s="90" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D122" s="89"/>
       <c r="E122" s="89"/>
@@ -5768,10 +5743,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" s="89" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C123" s="89"/>
       <c r="D123" s="89"/>
@@ -5780,22 +5755,22 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="89" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B124" s="89" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C124" s="89"/>
       <c r="D124" s="89"/>
       <c r="E124" s="89"/>
       <c r="F124" s="89"/>
     </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="89" t="s">
-        <v>283</v>
+        <v>871</v>
       </c>
       <c r="B125" s="89" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="C125" s="89"/>
       <c r="D125" s="89"/>
@@ -5804,92 +5779,92 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="89" t="s">
+        <v>870</v>
+      </c>
+      <c r="B126" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="B126" s="89" t="s">
-        <v>827</v>
       </c>
       <c r="C126" s="89"/>
       <c r="D126" s="89"/>
       <c r="E126" s="89"/>
       <c r="F126" s="89"/>
     </row>
-    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="89" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B127" s="89" t="s">
-        <v>756</v>
-      </c>
-      <c r="C127" s="89" t="s">
-        <v>757</v>
-      </c>
-      <c r="D127" s="89" t="s">
-        <v>823</v>
-      </c>
-      <c r="E127" s="89" t="s">
-        <v>758</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
       <c r="F127" s="89"/>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="89" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B128" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
+        <v>749</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="D128" s="89" t="s">
+        <v>812</v>
+      </c>
+      <c r="E128" s="89" t="s">
+        <v>751</v>
+      </c>
       <c r="F128" s="89"/>
     </row>
-    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B129" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C129" s="89" t="s">
-        <v>746</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C129" s="89"/>
       <c r="D129" s="89"/>
       <c r="E129" s="89"/>
       <c r="F129" s="89"/>
     </row>
-    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="B130" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C130" s="90" t="s">
-        <v>754</v>
+      <c r="B130" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130" s="89" t="s">
+        <v>739</v>
       </c>
       <c r="D130" s="89"/>
       <c r="E130" s="89"/>
       <c r="F130" s="89"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="89" t="s">
-        <v>278</v>
-      </c>
-      <c r="B131" s="89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C131" s="89"/>
+        <v>273</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C131" s="90" t="s">
+        <v>747</v>
+      </c>
       <c r="D131" s="89"/>
       <c r="E131" s="89"/>
       <c r="F131" s="89"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B132" s="89" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="C132" s="89"/>
       <c r="D132" s="89"/>
@@ -5898,10 +5873,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="89" t="s">
-        <v>698</v>
+        <v>274</v>
       </c>
       <c r="B133" s="89" t="s">
-        <v>717</v>
+        <v>177</v>
       </c>
       <c r="C133" s="89"/>
       <c r="D133" s="89"/>
@@ -5910,48 +5885,48 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="89" t="s">
-        <v>523</v>
+        <v>692</v>
       </c>
       <c r="B134" s="89" t="s">
-        <v>274</v>
+        <v>710</v>
       </c>
       <c r="C134" s="89"/>
       <c r="D134" s="89"/>
       <c r="E134" s="89"/>
       <c r="F134" s="89"/>
     </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="89" t="s">
-        <v>291</v>
+        <v>519</v>
       </c>
       <c r="B135" s="89" t="s">
-        <v>736</v>
-      </c>
-      <c r="C135" s="89" t="s">
-        <v>472</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C135" s="89"/>
       <c r="D135" s="89"/>
       <c r="E135" s="89"/>
       <c r="F135" s="89"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="89" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B136" s="89" t="s">
-        <v>754</v>
-      </c>
-      <c r="C136" s="89"/>
+        <v>729</v>
+      </c>
+      <c r="C136" s="89" t="s">
+        <v>468</v>
+      </c>
       <c r="D136" s="89"/>
       <c r="E136" s="89"/>
       <c r="F136" s="89"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="89" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B137" s="89" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C137" s="89"/>
       <c r="D137" s="89"/>
@@ -5960,10 +5935,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B138" s="89" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="C138" s="89"/>
       <c r="D138" s="89"/>
@@ -5972,39 +5947,37 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="89" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B139" s="89" t="s">
-        <v>754</v>
+        <v>719</v>
       </c>
       <c r="C139" s="89"/>
       <c r="D139" s="89"/>
       <c r="E139" s="89"/>
       <c r="F139" s="89"/>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="B140" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C140" s="90" t="s">
-        <v>754</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B140" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C140" s="89"/>
       <c r="D140" s="89"/>
       <c r="E140" s="89"/>
       <c r="F140" s="89"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="89" t="s">
-        <v>875</v>
-      </c>
-      <c r="B141" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C141" s="89" t="s">
-        <v>725</v>
+        <v>292</v>
+      </c>
+      <c r="B141" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C141" s="90" t="s">
+        <v>747</v>
       </c>
       <c r="D141" s="89"/>
       <c r="E141" s="89"/>
@@ -6012,72 +5985,74 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="89" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B142" s="89" t="s">
-        <v>666</v>
-      </c>
-      <c r="C142" s="89"/>
+        <v>251</v>
+      </c>
+      <c r="C142" s="89" t="s">
+        <v>718</v>
+      </c>
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
       <c r="F142" s="89"/>
     </row>
-    <row r="143" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="89" t="s">
-        <v>476</v>
+        <v>861</v>
       </c>
       <c r="B143" s="89" t="s">
-        <v>882</v>
+        <v>660</v>
       </c>
       <c r="C143" s="89"/>
       <c r="D143" s="89"/>
       <c r="E143" s="89"/>
       <c r="F143" s="89"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="89" t="s">
-        <v>298</v>
+        <v>472</v>
       </c>
       <c r="B144" s="89" t="s">
-        <v>274</v>
+        <v>869</v>
       </c>
       <c r="C144" s="89"/>
       <c r="D144" s="89"/>
       <c r="E144" s="89"/>
       <c r="F144" s="89"/>
     </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="89" t="s">
-        <v>876</v>
+        <v>294</v>
       </c>
       <c r="B145" s="89" t="s">
-        <v>824</v>
-      </c>
-      <c r="C145" s="89" t="s">
-        <v>752</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C145" s="89"/>
       <c r="D145" s="89"/>
       <c r="E145" s="89"/>
       <c r="F145" s="89"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="89" t="s">
-        <v>299</v>
+        <v>863</v>
       </c>
       <c r="B146" s="89" t="s">
-        <v>723</v>
-      </c>
-      <c r="C146" s="89"/>
+        <v>813</v>
+      </c>
+      <c r="C146" s="89" t="s">
+        <v>745</v>
+      </c>
       <c r="D146" s="89"/>
       <c r="E146" s="89"/>
       <c r="F146" s="89"/>
     </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="89" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B147" s="89" t="s">
-        <v>828</v>
+        <v>716</v>
       </c>
       <c r="C147" s="89"/>
       <c r="D147" s="89"/>
@@ -6086,22 +6061,22 @@
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="89" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B148" s="89" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C148" s="89"/>
       <c r="D148" s="89"/>
       <c r="E148" s="89"/>
       <c r="F148" s="89"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="89" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B149" s="89" t="s">
-        <v>177</v>
+        <v>817</v>
       </c>
       <c r="C149" s="89"/>
       <c r="D149" s="89"/>
@@ -6110,10 +6085,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="89" t="s">
-        <v>492</v>
+        <v>297</v>
       </c>
       <c r="B150" s="89" t="s">
-        <v>760</v>
+        <v>177</v>
       </c>
       <c r="C150" s="89"/>
       <c r="D150" s="89"/>
@@ -6122,10 +6097,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="89" t="s">
-        <v>303</v>
+        <v>488</v>
       </c>
       <c r="B151" s="89" t="s">
-        <v>177</v>
+        <v>753</v>
       </c>
       <c r="C151" s="89"/>
       <c r="D151" s="89"/>
@@ -6134,39 +6109,37 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="89" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B152" s="89" t="s">
-        <v>754</v>
+        <v>177</v>
       </c>
       <c r="C152" s="89"/>
       <c r="D152" s="89"/>
       <c r="E152" s="89"/>
       <c r="F152" s="89"/>
     </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="89" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B153" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="C153" s="90" t="s">
-        <v>761</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="C153" s="89"/>
       <c r="D153" s="89"/>
       <c r="E153" s="89"/>
       <c r="F153" s="89"/>
     </row>
     <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="89" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B154" s="89" t="s">
-        <v>744</v>
-      </c>
-      <c r="C154" s="89" t="s">
-        <v>745</v>
+        <v>818</v>
+      </c>
+      <c r="C154" s="90" t="s">
+        <v>754</v>
       </c>
       <c r="D154" s="89"/>
       <c r="E154" s="89"/>
@@ -6174,13 +6147,13 @@
     </row>
     <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="89" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B155" s="89" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="C155" s="89" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="D155" s="89"/>
       <c r="E155" s="89"/>
@@ -6188,39 +6161,39 @@
     </row>
     <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="89" t="s">
-        <v>699</v>
+        <v>306</v>
       </c>
       <c r="B156" s="89" t="s">
-        <v>882</v>
-      </c>
-      <c r="C156" s="89"/>
+        <v>737</v>
+      </c>
+      <c r="C156" s="89" t="s">
+        <v>738</v>
+      </c>
       <c r="D156" s="89"/>
       <c r="E156" s="89"/>
       <c r="F156" s="89"/>
     </row>
     <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="89" t="s">
-        <v>422</v>
+        <v>693</v>
       </c>
       <c r="B157" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="C157" s="90" t="s">
-        <v>761</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="C157" s="89"/>
       <c r="D157" s="89"/>
       <c r="E157" s="89"/>
       <c r="F157" s="89"/>
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="89" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="B158" s="89" t="s">
-        <v>739</v>
-      </c>
-      <c r="C158" s="89" t="s">
-        <v>740</v>
+        <v>818</v>
+      </c>
+      <c r="C158" s="90" t="s">
+        <v>754</v>
       </c>
       <c r="D158" s="89"/>
       <c r="E158" s="89"/>
@@ -6228,134 +6201,136 @@
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="89" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B159" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="C159" s="89"/>
+        <v>732</v>
+      </c>
+      <c r="C159" s="89" t="s">
+        <v>733</v>
+      </c>
       <c r="D159" s="89"/>
       <c r="E159" s="89"/>
       <c r="F159" s="89"/>
     </row>
     <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="89" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B160" s="89" t="s">
-        <v>749</v>
+        <v>817</v>
       </c>
       <c r="C160" s="89"/>
       <c r="D160" s="89"/>
       <c r="E160" s="89"/>
       <c r="F160" s="89"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="89" t="s">
-        <v>700</v>
+        <v>305</v>
       </c>
       <c r="B161" s="89" t="s">
-        <v>286</v>
+        <v>742</v>
       </c>
       <c r="C161" s="89"/>
       <c r="D161" s="89"/>
       <c r="E161" s="89"/>
       <c r="F161" s="89"/>
     </row>
-    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="89" t="s">
-        <v>312</v>
+        <v>694</v>
       </c>
       <c r="B162" s="89" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="C162" s="89"/>
       <c r="D162" s="89"/>
       <c r="E162" s="89"/>
       <c r="F162" s="89"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="89" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B163" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="C163" s="89" t="s">
-        <v>820</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C163" s="89"/>
       <c r="D163" s="89"/>
       <c r="E163" s="89"/>
       <c r="F163" s="89"/>
     </row>
-    <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="89" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B164" s="89" t="s">
-        <v>830</v>
-      </c>
-      <c r="C164" s="89"/>
+        <v>450</v>
+      </c>
+      <c r="C164" s="89" t="s">
+        <v>809</v>
+      </c>
       <c r="D164" s="89"/>
       <c r="E164" s="89"/>
       <c r="F164" s="89"/>
     </row>
     <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="89" t="s">
-        <v>499</v>
+        <v>310</v>
       </c>
       <c r="B165" s="89" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="C165" s="89"/>
       <c r="D165" s="89"/>
       <c r="E165" s="89"/>
       <c r="F165" s="89"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="89" t="s">
-        <v>316</v>
+        <v>495</v>
       </c>
       <c r="B166" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="C166" s="89" t="s">
-        <v>820</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C166" s="89"/>
       <c r="D166" s="89"/>
       <c r="E166" s="89"/>
       <c r="F166" s="89"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="89" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B167" s="89" t="s">
-        <v>831</v>
-      </c>
-      <c r="C167" s="89"/>
+        <v>450</v>
+      </c>
+      <c r="C167" s="89" t="s">
+        <v>809</v>
+      </c>
       <c r="D167" s="89"/>
       <c r="E167" s="89"/>
       <c r="F167" s="89"/>
     </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="89" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B168" s="89" t="s">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="C168" s="89"/>
       <c r="D168" s="89"/>
       <c r="E168" s="89"/>
       <c r="F168" s="89"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="89" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B169" s="89" t="s">
-        <v>832</v>
+        <v>742</v>
       </c>
       <c r="C169" s="89"/>
       <c r="D169" s="89"/>
@@ -6364,51 +6339,49 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="89" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B170" s="89" t="s">
-        <v>258</v>
+        <v>821</v>
       </c>
       <c r="C170" s="89"/>
       <c r="D170" s="89"/>
       <c r="E170" s="89"/>
       <c r="F170" s="89"/>
     </row>
-    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="89" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="B171" s="89" t="s">
-        <v>822</v>
+        <v>258</v>
       </c>
       <c r="C171" s="89"/>
       <c r="D171" s="89"/>
       <c r="E171" s="89"/>
       <c r="F171" s="89"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="89" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="B172" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C172" s="89" t="s">
-        <v>725</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="C172" s="89"/>
       <c r="D172" s="89"/>
       <c r="E172" s="89"/>
       <c r="F172" s="89"/>
     </row>
-    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="89" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="B173" s="89" t="s">
-        <v>739</v>
+        <v>251</v>
       </c>
       <c r="C173" s="89" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="D173" s="89"/>
       <c r="E173" s="89"/>
@@ -6416,22 +6389,24 @@
     </row>
     <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="89" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="B174" s="89" t="s">
-        <v>424</v>
-      </c>
-      <c r="C174" s="89"/>
+        <v>732</v>
+      </c>
+      <c r="C174" s="89" t="s">
+        <v>733</v>
+      </c>
       <c r="D174" s="89"/>
       <c r="E174" s="89"/>
       <c r="F174" s="89"/>
     </row>
     <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="89" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B175" s="89" t="s">
-        <v>828</v>
+        <v>420</v>
       </c>
       <c r="C175" s="89"/>
       <c r="D175" s="89"/>
@@ -6440,10 +6415,10 @@
     </row>
     <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="89" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B176" s="89" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="C176" s="89"/>
       <c r="D176" s="89"/>
@@ -6452,10 +6427,10 @@
     </row>
     <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B177" s="89" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C177" s="89"/>
       <c r="D177" s="89"/>
@@ -6464,60 +6439,60 @@
     </row>
     <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="89" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B178" s="89" t="s">
-        <v>424</v>
+        <v>817</v>
       </c>
       <c r="C178" s="89"/>
       <c r="D178" s="89"/>
       <c r="E178" s="89"/>
       <c r="F178" s="89"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="89" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B179" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C179" s="89" t="s">
-        <v>746</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C179" s="89"/>
       <c r="D179" s="89"/>
       <c r="E179" s="89"/>
       <c r="F179" s="89"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="89" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B180" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C180" s="89"/>
+        <v>257</v>
+      </c>
+      <c r="C180" s="89" t="s">
+        <v>739</v>
+      </c>
       <c r="D180" s="89"/>
       <c r="E180" s="89"/>
       <c r="F180" s="89"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="89" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B181" s="89" t="s">
-        <v>827</v>
+        <v>177</v>
       </c>
       <c r="C181" s="89"/>
       <c r="D181" s="89"/>
       <c r="E181" s="89"/>
       <c r="F181" s="89"/>
     </row>
-    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="89" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B182" s="89" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="C182" s="89"/>
       <c r="D182" s="89"/>
@@ -6526,65 +6501,63 @@
     </row>
     <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="89" t="s">
-        <v>340</v>
-      </c>
-      <c r="B183" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C183" s="90" t="s">
-        <v>754</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B183" s="89" t="s">
+        <v>823</v>
+      </c>
+      <c r="C183" s="89"/>
       <c r="D183" s="89"/>
       <c r="E183" s="89"/>
       <c r="F183" s="89"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="89" t="s">
-        <v>341</v>
-      </c>
-      <c r="B184" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C184" s="89"/>
+        <v>336</v>
+      </c>
+      <c r="B184" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C184" s="90" t="s">
+        <v>747</v>
+      </c>
       <c r="D184" s="89"/>
       <c r="E184" s="89"/>
       <c r="F184" s="89"/>
     </row>
-    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="89" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B185" s="89" t="s">
-        <v>835</v>
+        <v>177</v>
       </c>
       <c r="C185" s="89"/>
       <c r="D185" s="89"/>
       <c r="E185" s="89"/>
       <c r="F185" s="89"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="89" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B186" s="89" t="s">
-        <v>762</v>
-      </c>
-      <c r="C186" s="89" t="s">
-        <v>763</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="C186" s="89"/>
       <c r="D186" s="89"/>
       <c r="E186" s="89"/>
       <c r="F186" s="89"/>
     </row>
-    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="89" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B187" s="89" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C187" s="89" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D187" s="89"/>
       <c r="E187" s="89"/>
@@ -6592,22 +6565,24 @@
     </row>
     <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="89" t="s">
-        <v>346</v>
-      </c>
-      <c r="B188" s="94" t="s">
-        <v>836</v>
-      </c>
-      <c r="C188" s="89"/>
+        <v>341</v>
+      </c>
+      <c r="B188" s="89" t="s">
+        <v>757</v>
+      </c>
+      <c r="C188" s="89" t="s">
+        <v>758</v>
+      </c>
       <c r="D188" s="89"/>
       <c r="E188" s="89"/>
       <c r="F188" s="89"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="89" t="s">
-        <v>347</v>
-      </c>
-      <c r="B189" s="89" t="s">
-        <v>177</v>
+        <v>342</v>
+      </c>
+      <c r="B189" s="94" t="s">
+        <v>825</v>
       </c>
       <c r="C189" s="89"/>
       <c r="D189" s="89"/>
@@ -6616,27 +6591,25 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="89" t="s">
-        <v>612</v>
+        <v>343</v>
       </c>
       <c r="B190" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="C190" s="89" t="s">
-        <v>820</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C190" s="89"/>
       <c r="D190" s="89"/>
       <c r="E190" s="89"/>
       <c r="F190" s="89"/>
     </row>
-    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="89" t="s">
-        <v>348</v>
+        <v>607</v>
       </c>
       <c r="B191" s="89" t="s">
-        <v>751</v>
+        <v>450</v>
       </c>
       <c r="C191" s="89" t="s">
-        <v>752</v>
+        <v>809</v>
       </c>
       <c r="D191" s="89"/>
       <c r="E191" s="89"/>
@@ -6644,85 +6617,87 @@
     </row>
     <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="89" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="B192" s="89" t="s">
-        <v>819</v>
-      </c>
-      <c r="C192" s="89"/>
+        <v>744</v>
+      </c>
+      <c r="C192" s="89" t="s">
+        <v>745</v>
+      </c>
       <c r="D192" s="89"/>
       <c r="E192" s="89"/>
       <c r="F192" s="89"/>
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="89" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B193" s="89" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="C193" s="89"/>
       <c r="D193" s="89"/>
       <c r="E193" s="89"/>
       <c r="F193" s="89"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="89" t="s">
-        <v>350</v>
+        <v>422</v>
       </c>
       <c r="B194" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C194" s="89" t="s">
-        <v>746</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="C194" s="89"/>
       <c r="D194" s="89"/>
       <c r="E194" s="89"/>
       <c r="F194" s="89"/>
     </row>
-    <row r="195" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="89" t="s">
-        <v>609</v>
+        <v>346</v>
       </c>
       <c r="B195" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="C195" s="89"/>
+        <v>257</v>
+      </c>
+      <c r="C195" s="89" t="s">
+        <v>739</v>
+      </c>
       <c r="D195" s="89"/>
       <c r="E195" s="89"/>
       <c r="F195" s="89"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="89" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="B196" s="89" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C196" s="89"/>
       <c r="D196" s="89"/>
       <c r="E196" s="89"/>
       <c r="F196" s="89"/>
-      <c r="G196" s="85"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="89" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="B197" s="89" t="s">
-        <v>750</v>
+        <v>816</v>
       </c>
       <c r="C197" s="89"/>
       <c r="D197" s="89"/>
       <c r="E197" s="89"/>
       <c r="F197" s="89"/>
+      <c r="G197" s="85"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="89" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B198" s="89" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C198" s="89"/>
       <c r="D198" s="89"/>
@@ -6731,10 +6706,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="89" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B199" s="89" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="C199" s="89"/>
       <c r="D199" s="89"/>
@@ -6743,85 +6718,85 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="89" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B200" s="89" t="s">
-        <v>766</v>
-      </c>
-      <c r="C200" s="89" t="s">
-        <v>722</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="C200" s="89"/>
       <c r="D200" s="89"/>
       <c r="E200" s="89"/>
       <c r="F200" s="89"/>
     </row>
-    <row r="201" spans="1:7" s="85" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="89" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B201" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="C201" s="89"/>
+        <v>759</v>
+      </c>
+      <c r="C201" s="89" t="s">
+        <v>715</v>
+      </c>
       <c r="D201" s="89"/>
       <c r="E201" s="89"/>
       <c r="F201" s="89"/>
-      <c r="G201" s="87"/>
-    </row>
-    <row r="202" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:7" s="85" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="89" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="B202" s="89" t="s">
-        <v>756</v>
-      </c>
-      <c r="C202" s="89" t="s">
-        <v>757</v>
-      </c>
-      <c r="D202" s="89" t="s">
-        <v>823</v>
-      </c>
-      <c r="E202" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="F202" s="92" t="s">
-        <v>433</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="C202" s="89"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="89"/>
+      <c r="F202" s="89"/>
+      <c r="G202" s="87"/>
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="89" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="B203" s="89" t="s">
-        <v>435</v>
+        <v>749</v>
       </c>
       <c r="C203" s="89" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D203" s="89" t="s">
-        <v>711</v>
-      </c>
-      <c r="E203" s="89"/>
-      <c r="F203" s="89"/>
+        <v>812</v>
+      </c>
+      <c r="E203" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="F203" s="92" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="89" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B204" s="89" t="s">
-        <v>734</v>
-      </c>
-      <c r="C204" s="89"/>
-      <c r="D204" s="89"/>
+        <v>431</v>
+      </c>
+      <c r="C204" s="89" t="s">
+        <v>760</v>
+      </c>
+      <c r="D204" s="89" t="s">
+        <v>705</v>
+      </c>
       <c r="E204" s="89"/>
       <c r="F204" s="89"/>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="89" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B205" s="89" t="s">
-        <v>768</v>
+        <v>727</v>
       </c>
       <c r="C205" s="89"/>
       <c r="D205" s="89"/>
@@ -6830,275 +6805,275 @@
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="89" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B206" s="89" t="s">
-        <v>838</v>
-      </c>
-      <c r="C206" s="89" t="s">
-        <v>769</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="C206" s="89"/>
       <c r="D206" s="89"/>
       <c r="E206" s="89"/>
       <c r="F206" s="89"/>
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="89" t="s">
-        <v>555</v>
+        <v>434</v>
       </c>
       <c r="B207" s="89" t="s">
-        <v>770</v>
+        <v>827</v>
       </c>
       <c r="C207" s="89" t="s">
-        <v>748</v>
-      </c>
-      <c r="D207" s="89" t="s">
-        <v>735</v>
-      </c>
-      <c r="E207" s="89" t="s">
-        <v>747</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="D207" s="89"/>
+      <c r="E207" s="89"/>
       <c r="F207" s="89"/>
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="89" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B208" s="89" t="s">
+        <v>763</v>
+      </c>
+      <c r="C208" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="D208" s="89" t="s">
+        <v>728</v>
+      </c>
+      <c r="E208" s="89" t="s">
+        <v>740</v>
+      </c>
+      <c r="F208" s="89"/>
+    </row>
+    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="89" t="s">
+        <v>550</v>
+      </c>
+      <c r="B209" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="C208" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="D208" s="89" t="s">
-        <v>748</v>
-      </c>
-      <c r="E208" s="89" t="s">
-        <v>735</v>
-      </c>
-      <c r="F208" s="89"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="89" t="s">
-        <v>553</v>
-      </c>
-      <c r="B209" s="89" t="s">
-        <v>250</v>
-      </c>
       <c r="C209" s="89" t="s">
-        <v>719</v>
-      </c>
-      <c r="D209" s="89"/>
-      <c r="E209" s="89"/>
+        <v>740</v>
+      </c>
+      <c r="D209" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="E209" s="89" t="s">
+        <v>728</v>
+      </c>
       <c r="F209" s="89"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="89" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B210" s="89" t="s">
-        <v>753</v>
+        <v>250</v>
       </c>
       <c r="C210" s="89" t="s">
-        <v>769</v>
-      </c>
-      <c r="D210" s="89" t="s">
-        <v>771</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="D210" s="89"/>
       <c r="E210" s="89"/>
       <c r="F210" s="89"/>
     </row>
-    <row r="211" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="89" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="B211" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="C211" s="89"/>
-      <c r="D211" s="89"/>
+        <v>746</v>
+      </c>
+      <c r="C211" s="89" t="s">
+        <v>762</v>
+      </c>
+      <c r="D211" s="89" t="s">
+        <v>764</v>
+      </c>
       <c r="E211" s="89"/>
       <c r="F211" s="89"/>
     </row>
     <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="89" t="s">
-        <v>439</v>
+        <v>629</v>
       </c>
       <c r="B212" s="89" t="s">
-        <v>839</v>
-      </c>
-      <c r="C212" s="89" t="s">
-        <v>878</v>
-      </c>
-      <c r="D212" s="89" t="s">
-        <v>772</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="C212" s="89"/>
+      <c r="D212" s="89"/>
       <c r="E212" s="89"/>
       <c r="F212" s="89"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="89" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B213" s="89" t="s">
-        <v>442</v>
+        <v>828</v>
       </c>
       <c r="C213" s="89" t="s">
-        <v>753</v>
-      </c>
-      <c r="D213" s="89"/>
+        <v>865</v>
+      </c>
+      <c r="D213" s="89" t="s">
+        <v>765</v>
+      </c>
       <c r="E213" s="89"/>
       <c r="F213" s="89"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="89" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B214" s="89" t="s">
-        <v>473</v>
-      </c>
-      <c r="C214" s="89"/>
+        <v>438</v>
+      </c>
+      <c r="C214" s="89" t="s">
+        <v>746</v>
+      </c>
       <c r="D214" s="89"/>
       <c r="E214" s="89"/>
       <c r="F214" s="89"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="89" t="s">
-        <v>701</v>
+        <v>439</v>
       </c>
       <c r="B215" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="C215" s="89" t="s">
-        <v>757</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C215" s="89"/>
       <c r="D215" s="89"/>
       <c r="E215" s="89"/>
       <c r="F215" s="89"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="89" t="s">
-        <v>551</v>
+        <v>695</v>
       </c>
       <c r="B216" s="89" t="s">
-        <v>760</v>
-      </c>
-      <c r="C216" s="89"/>
+        <v>751</v>
+      </c>
+      <c r="C216" s="89" t="s">
+        <v>750</v>
+      </c>
       <c r="D216" s="89"/>
       <c r="E216" s="89"/>
       <c r="F216" s="89"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="89" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B217" s="89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C217" s="89" t="s">
-        <v>746</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="C217" s="89"/>
       <c r="D217" s="89"/>
       <c r="E217" s="89"/>
       <c r="F217" s="89"/>
     </row>
-    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="89" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B218" s="89" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="C218" s="89" t="s">
-        <v>882</v>
+        <v>739</v>
       </c>
       <c r="D218" s="89"/>
       <c r="E218" s="89"/>
       <c r="F218" s="89"/>
-      <c r="G218" s="77"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="89" t="s">
-        <v>445</v>
+        <v>545</v>
       </c>
       <c r="B219" s="89" t="s">
-        <v>728</v>
-      </c>
-      <c r="C219" s="89"/>
+        <v>429</v>
+      </c>
+      <c r="C219" s="89" t="s">
+        <v>869</v>
+      </c>
       <c r="D219" s="89"/>
       <c r="E219" s="89"/>
       <c r="F219" s="89"/>
-    </row>
-    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G219" s="77"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="89" t="s">
-        <v>548</v>
+        <v>441</v>
       </c>
       <c r="B220" s="89" t="s">
-        <v>773</v>
-      </c>
-      <c r="C220" s="89" t="s">
-        <v>723</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="C220" s="89"/>
       <c r="D220" s="89"/>
       <c r="E220" s="89"/>
       <c r="F220" s="89"/>
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="89" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B221" s="89" t="s">
-        <v>735</v>
-      </c>
-      <c r="C221" s="89"/>
+        <v>766</v>
+      </c>
+      <c r="C221" s="89" t="s">
+        <v>716</v>
+      </c>
       <c r="D221" s="89"/>
       <c r="E221" s="89"/>
       <c r="F221" s="89"/>
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="89" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="B222" s="89" t="s">
-        <v>723</v>
-      </c>
-      <c r="C222" s="89" t="s">
-        <v>774</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="C222" s="89"/>
       <c r="D222" s="89"/>
       <c r="E222" s="89"/>
       <c r="F222" s="89"/>
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="89" t="s">
-        <v>447</v>
+        <v>630</v>
       </c>
       <c r="B223" s="89" t="s">
-        <v>840</v>
-      </c>
-      <c r="C223" s="89"/>
+        <v>716</v>
+      </c>
+      <c r="C223" s="89" t="s">
+        <v>767</v>
+      </c>
       <c r="D223" s="89"/>
       <c r="E223" s="89"/>
       <c r="F223" s="89"/>
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="89" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B224" s="89" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="C224" s="89"/>
       <c r="D224" s="89"/>
       <c r="E224" s="89"/>
       <c r="F224" s="89"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="89" t="s">
-        <v>881</v>
+        <v>444</v>
       </c>
       <c r="B225" s="89" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C225" s="89"/>
       <c r="D225" s="89"/>
@@ -7107,22 +7082,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="89" t="s">
-        <v>449</v>
+        <v>868</v>
       </c>
       <c r="B226" s="89" t="s">
-        <v>775</v>
+        <v>719</v>
       </c>
       <c r="C226" s="89"/>
       <c r="D226" s="89"/>
       <c r="E226" s="89"/>
       <c r="F226" s="89"/>
     </row>
-    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="89" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B227" s="89" t="s">
-        <v>828</v>
+        <v>768</v>
       </c>
       <c r="C227" s="89"/>
       <c r="D227" s="89"/>
@@ -7131,10 +7106,10 @@
     </row>
     <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="89" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B228" s="89" t="s">
-        <v>754</v>
+        <v>817</v>
       </c>
       <c r="C228" s="89"/>
       <c r="D228" s="89"/>
@@ -7143,95 +7118,95 @@
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="89" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B229" s="89" t="s">
-        <v>841</v>
-      </c>
-      <c r="C229" s="89" t="s">
-        <v>775</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="C229" s="89"/>
       <c r="D229" s="89"/>
       <c r="E229" s="89"/>
       <c r="F229" s="89"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="89" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B230" s="89" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="C230" s="89" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D230" s="89"/>
       <c r="E230" s="89"/>
       <c r="F230" s="89"/>
     </row>
-    <row r="231" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="89" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B231" s="89" t="s">
-        <v>256</v>
+        <v>769</v>
       </c>
       <c r="C231" s="89" t="s">
-        <v>748</v>
-      </c>
-      <c r="D231" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="E231" s="89" t="s">
-        <v>735</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="D231" s="89"/>
+      <c r="E231" s="89"/>
       <c r="F231" s="89"/>
-      <c r="G231" s="70"/>
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="89" t="s">
-        <v>546</v>
+        <v>452</v>
       </c>
       <c r="B232" s="89" t="s">
-        <v>749</v>
-      </c>
-      <c r="C232" s="89"/>
-      <c r="D232" s="89"/>
-      <c r="E232" s="89"/>
+        <v>256</v>
+      </c>
+      <c r="C232" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="D232" s="89" t="s">
+        <v>740</v>
+      </c>
+      <c r="E232" s="89" t="s">
+        <v>728</v>
+      </c>
       <c r="F232" s="89"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G232" s="70"/>
+    </row>
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="89" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B233" s="89" t="s">
-        <v>432</v>
-      </c>
-      <c r="C233" s="89" t="s">
-        <v>773</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C233" s="89"/>
       <c r="D233" s="89"/>
       <c r="E233" s="89"/>
       <c r="F233" s="89"/>
     </row>
-    <row r="234" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="89" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B234" s="89" t="s">
-        <v>768</v>
-      </c>
-      <c r="C234" s="89"/>
+        <v>428</v>
+      </c>
+      <c r="C234" s="89" t="s">
+        <v>766</v>
+      </c>
       <c r="D234" s="89"/>
       <c r="E234" s="89"/>
       <c r="F234" s="89"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="89" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B235" s="89" t="s">
-        <v>726</v>
+        <v>761</v>
       </c>
       <c r="C235" s="89"/>
       <c r="D235" s="89"/>
@@ -7240,10 +7215,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="89" t="s">
-        <v>637</v>
+        <v>540</v>
       </c>
       <c r="B236" s="89" t="s">
-        <v>823</v>
+        <v>719</v>
       </c>
       <c r="C236" s="89"/>
       <c r="D236" s="89"/>
@@ -7252,48 +7227,48 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="89" t="s">
-        <v>477</v>
+        <v>632</v>
       </c>
       <c r="B237" s="89" t="s">
-        <v>763</v>
+        <v>812</v>
       </c>
       <c r="C237" s="89"/>
       <c r="D237" s="89"/>
       <c r="E237" s="89"/>
       <c r="F237" s="89"/>
     </row>
-    <row r="238" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="89" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B238" s="89" t="s">
         <v>756</v>
       </c>
-      <c r="C238" s="89" t="s">
-        <v>711</v>
-      </c>
+      <c r="C238" s="89"/>
       <c r="D238" s="89"/>
       <c r="E238" s="89"/>
       <c r="F238" s="89"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="89" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B239" s="89" t="s">
-        <v>762</v>
-      </c>
-      <c r="C239" s="89"/>
+        <v>749</v>
+      </c>
+      <c r="C239" s="89" t="s">
+        <v>705</v>
+      </c>
       <c r="D239" s="89"/>
       <c r="E239" s="89"/>
       <c r="F239" s="89"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="89" t="s">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="B240" s="89" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="C240" s="89"/>
       <c r="D240" s="89"/>
@@ -7302,10 +7277,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="89" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B241" s="89" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C241" s="89"/>
       <c r="D241" s="89"/>
@@ -7314,27 +7289,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B242" s="89" t="s">
-        <v>777</v>
-      </c>
-      <c r="C242" s="89" t="s">
-        <v>734</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C242" s="89"/>
       <c r="D242" s="89"/>
       <c r="E242" s="89"/>
       <c r="F242" s="89"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="89" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B243" s="89" t="s">
-        <v>815</v>
+        <v>770</v>
       </c>
       <c r="C243" s="89" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="D243" s="89"/>
       <c r="E243" s="89"/>
@@ -7342,189 +7315,191 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="89" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B244" s="89" t="s">
-        <v>734</v>
-      </c>
-      <c r="C244" s="89"/>
+        <v>804</v>
+      </c>
+      <c r="C244" s="89" t="s">
+        <v>705</v>
+      </c>
       <c r="D244" s="89"/>
       <c r="E244" s="89"/>
       <c r="F244" s="89"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="89" t="s">
-        <v>702</v>
+        <v>508</v>
       </c>
       <c r="B245" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="C245" s="89" t="s">
-        <v>778</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C245" s="89"/>
       <c r="D245" s="89"/>
       <c r="E245" s="89"/>
       <c r="F245" s="89"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="93" t="s">
-        <v>510</v>
-      </c>
-      <c r="B246" s="93" t="s">
-        <v>762</v>
-      </c>
-      <c r="C246" s="93" t="s">
-        <v>763</v>
+      <c r="A246" s="89" t="s">
+        <v>696</v>
+      </c>
+      <c r="B246" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="C246" s="89" t="s">
+        <v>771</v>
       </c>
       <c r="D246" s="89"/>
       <c r="E246" s="89"/>
       <c r="F246" s="89"/>
     </row>
-    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A247" s="89" t="s">
-        <v>509</v>
-      </c>
-      <c r="B247" s="89" t="s">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="93" t="s">
+        <v>506</v>
+      </c>
+      <c r="B247" s="93" t="s">
+        <v>755</v>
+      </c>
+      <c r="C247" s="93" t="s">
         <v>756</v>
       </c>
-      <c r="C247" s="89" t="s">
-        <v>757</v>
-      </c>
-      <c r="D247" s="89" t="s">
-        <v>823</v>
-      </c>
-      <c r="E247" s="89" t="s">
-        <v>766</v>
-      </c>
+      <c r="D247" s="89"/>
+      <c r="E247" s="89"/>
       <c r="F247" s="89"/>
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="89" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B248" s="89" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C248" s="89" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D248" s="89" t="s">
-        <v>749</v>
-      </c>
-      <c r="E248" s="89"/>
+        <v>812</v>
+      </c>
+      <c r="E248" s="89" t="s">
+        <v>759</v>
+      </c>
       <c r="F248" s="89"/>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="89" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B249" s="89" t="s">
-        <v>842</v>
+        <v>759</v>
       </c>
       <c r="C249" s="89" t="s">
-        <v>779</v>
-      </c>
-      <c r="D249" s="89"/>
+        <v>760</v>
+      </c>
+      <c r="D249" s="89" t="s">
+        <v>742</v>
+      </c>
       <c r="E249" s="89"/>
       <c r="F249" s="89"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="89" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="B250" s="89" t="s">
-        <v>480</v>
-      </c>
-      <c r="C250" s="89"/>
+        <v>831</v>
+      </c>
+      <c r="C250" s="89" t="s">
+        <v>772</v>
+      </c>
       <c r="D250" s="89"/>
       <c r="E250" s="89"/>
       <c r="F250" s="89"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="89" t="s">
-        <v>486</v>
+        <v>603</v>
       </c>
       <c r="B251" s="89" t="s">
-        <v>780</v>
-      </c>
-      <c r="C251" s="89" t="s">
-        <v>781</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C251" s="89"/>
       <c r="D251" s="89"/>
       <c r="E251" s="89"/>
       <c r="F251" s="89"/>
     </row>
-    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B252" s="89" t="s">
-        <v>735</v>
-      </c>
-      <c r="C252" s="89"/>
+        <v>773</v>
+      </c>
+      <c r="C252" s="89" t="s">
+        <v>774</v>
+      </c>
       <c r="D252" s="89"/>
       <c r="E252" s="89"/>
       <c r="F252" s="89"/>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="89" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B253" s="89" t="s">
-        <v>882</v>
+        <v>728</v>
       </c>
       <c r="C253" s="89"/>
       <c r="D253" s="89"/>
       <c r="E253" s="89"/>
       <c r="F253" s="89"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="89" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B254" s="89" t="s">
-        <v>766</v>
-      </c>
-      <c r="C254" s="89" t="s">
-        <v>722</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="C254" s="89"/>
       <c r="D254" s="89"/>
       <c r="E254" s="89"/>
       <c r="F254" s="89"/>
-      <c r="H254" s="70"/>
-    </row>
-    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="89" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B255" s="89" t="s">
-        <v>843</v>
+        <v>759</v>
       </c>
       <c r="C255" s="89" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D255" s="89"/>
       <c r="E255" s="89"/>
       <c r="F255" s="89"/>
+      <c r="H255" s="70"/>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="89" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B256" s="89" t="s">
-        <v>844</v>
-      </c>
-      <c r="C256" s="89"/>
+        <v>832</v>
+      </c>
+      <c r="C256" s="89" t="s">
+        <v>733</v>
+      </c>
       <c r="D256" s="89"/>
       <c r="E256" s="89"/>
       <c r="F256" s="89"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="89" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B257" s="89" t="s">
-        <v>782</v>
+        <v>833</v>
       </c>
       <c r="C257" s="89"/>
       <c r="D257" s="89"/>
@@ -7533,113 +7508,111 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="89" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="B258" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C258" s="89" t="s">
-        <v>783</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="C258" s="89"/>
       <c r="D258" s="89"/>
       <c r="E258" s="89"/>
       <c r="F258" s="89"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="89" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B259" s="89" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="C259" s="89" t="s">
-        <v>770</v>
-      </c>
-      <c r="D259" s="89" t="s">
-        <v>784</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D259" s="89"/>
       <c r="E259" s="89"/>
       <c r="F259" s="89"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="89" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B260" s="89" t="s">
-        <v>728</v>
-      </c>
-      <c r="C260" s="89"/>
-      <c r="D260" s="89"/>
+        <v>469</v>
+      </c>
+      <c r="C260" s="89" t="s">
+        <v>763</v>
+      </c>
+      <c r="D260" s="89" t="s">
+        <v>777</v>
+      </c>
       <c r="E260" s="89"/>
       <c r="F260" s="89"/>
     </row>
-    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="89" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B261" s="89" t="s">
-        <v>728</v>
-      </c>
-      <c r="C261" s="89" t="s">
-        <v>718</v>
-      </c>
-      <c r="D261" s="89" t="s">
-        <v>762</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="C261" s="89"/>
+      <c r="D261" s="89"/>
       <c r="E261" s="89"/>
       <c r="F261" s="89"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="89" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B262" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C262" s="89"/>
-      <c r="D262" s="89"/>
+        <v>721</v>
+      </c>
+      <c r="C262" s="89" t="s">
+        <v>711</v>
+      </c>
+      <c r="D262" s="89" t="s">
+        <v>755</v>
+      </c>
       <c r="E262" s="89"/>
       <c r="F262" s="89"/>
     </row>
-    <row r="263" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="89" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B263" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="C263" s="89" t="s">
-        <v>845</v>
-      </c>
-      <c r="D263" s="89" t="s">
-        <v>649</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C263" s="89"/>
+      <c r="D263" s="89"/>
       <c r="E263" s="89"/>
       <c r="F263" s="89"/>
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="89" t="s">
-        <v>212</v>
+        <v>514</v>
       </c>
       <c r="B264" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="C264" s="90" t="s">
-        <v>761</v>
-      </c>
-      <c r="D264" s="89"/>
+        <v>751</v>
+      </c>
+      <c r="C264" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="D264" s="89" t="s">
+        <v>467</v>
+      </c>
       <c r="E264" s="89"/>
       <c r="F264" s="89"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="89" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="B265" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="C265" s="89" t="s">
-        <v>725</v>
+        <v>818</v>
+      </c>
+      <c r="C265" s="90" t="s">
+        <v>754</v>
       </c>
       <c r="D265" s="89"/>
       <c r="E265" s="89"/>
@@ -7647,130 +7620,132 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="89" t="s">
-        <v>640</v>
+        <v>129</v>
       </c>
       <c r="B266" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="C266" s="89" t="s">
+        <v>718</v>
+      </c>
+      <c r="D266" s="89"/>
+      <c r="E266" s="89"/>
+      <c r="F266" s="89"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="89" t="s">
+        <v>635</v>
+      </c>
+      <c r="B267" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="C266" s="89" t="s">
-        <v>721</v>
-      </c>
-      <c r="D266" s="89" t="s">
-        <v>803</v>
-      </c>
-      <c r="E266" s="89" t="s">
-        <v>846</v>
-      </c>
-      <c r="F266" s="89"/>
-    </row>
-    <row r="267" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A267" s="89" t="s">
-        <v>703</v>
-      </c>
-      <c r="B267" s="89" t="s">
-        <v>444</v>
-      </c>
       <c r="C267" s="89" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="D267" s="89" t="s">
-        <v>774</v>
-      </c>
-      <c r="E267" s="89"/>
+        <v>793</v>
+      </c>
+      <c r="E267" s="89" t="s">
+        <v>835</v>
+      </c>
       <c r="F267" s="89"/>
     </row>
     <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="89" t="s">
-        <v>540</v>
+        <v>697</v>
       </c>
       <c r="B268" s="89" t="s">
-        <v>744</v>
+        <v>440</v>
       </c>
       <c r="C268" s="89" t="s">
-        <v>745</v>
-      </c>
-      <c r="D268" s="89"/>
+        <v>731</v>
+      </c>
+      <c r="D268" s="89" t="s">
+        <v>767</v>
+      </c>
       <c r="E268" s="89"/>
       <c r="F268" s="89"/>
     </row>
     <row r="269" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="89" t="s">
-        <v>704</v>
+        <v>536</v>
       </c>
       <c r="B269" s="89" t="s">
-        <v>785</v>
+        <v>737</v>
       </c>
       <c r="C269" s="89" t="s">
-        <v>878</v>
-      </c>
-      <c r="D269" s="89" t="s">
-        <v>873</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="D269" s="89"/>
       <c r="E269" s="89"/>
       <c r="F269" s="89"/>
     </row>
     <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="89" t="s">
-        <v>539</v>
+        <v>698</v>
       </c>
       <c r="B270" s="89" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C270" s="89" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="D270" s="89" t="s">
-        <v>772</v>
-      </c>
-      <c r="E270" s="89" t="s">
-        <v>873</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="E270" s="89"/>
       <c r="F270" s="89"/>
     </row>
     <row r="271" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="89" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B271" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="C271" s="90" t="s">
-        <v>761</v>
-      </c>
-      <c r="D271" s="89"/>
-      <c r="E271" s="89"/>
+        <v>778</v>
+      </c>
+      <c r="C271" s="89" t="s">
+        <v>865</v>
+      </c>
+      <c r="D271" s="89" t="s">
+        <v>765</v>
+      </c>
+      <c r="E271" s="89" t="s">
+        <v>860</v>
+      </c>
       <c r="F271" s="89"/>
     </row>
     <row r="272" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="89" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B272" s="89" t="s">
-        <v>756</v>
-      </c>
-      <c r="C272" s="89"/>
+        <v>818</v>
+      </c>
+      <c r="C272" s="90" t="s">
+        <v>754</v>
+      </c>
       <c r="D272" s="89"/>
       <c r="E272" s="89"/>
       <c r="F272" s="89"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="89" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B273" s="89" t="s">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="C273" s="89"/>
       <c r="D273" s="89"/>
       <c r="E273" s="89"/>
       <c r="F273" s="89"/>
     </row>
-    <row r="274" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="89" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B274" s="89" t="s">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="C274" s="89"/>
       <c r="D274" s="89"/>
@@ -7779,53 +7754,51 @@
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="89" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="B275" s="89" t="s">
-        <v>738</v>
-      </c>
-      <c r="C275" s="89" t="s">
-        <v>786</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="C275" s="89"/>
       <c r="D275" s="89"/>
       <c r="E275" s="89"/>
       <c r="F275" s="89"/>
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="89" t="s">
-        <v>524</v>
+        <v>572</v>
       </c>
       <c r="B276" s="89" t="s">
-        <v>764</v>
-      </c>
-      <c r="C276" s="89"/>
+        <v>731</v>
+      </c>
+      <c r="C276" s="89" t="s">
+        <v>779</v>
+      </c>
       <c r="D276" s="89"/>
       <c r="E276" s="89"/>
       <c r="F276" s="89"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="89" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="B277" s="89" t="s">
-        <v>432</v>
-      </c>
-      <c r="C277" s="89" t="s">
-        <v>773</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="C277" s="89"/>
       <c r="D277" s="89"/>
       <c r="E277" s="89"/>
       <c r="F277" s="89"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="89" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B278" s="89" t="s">
-        <v>787</v>
+        <v>428</v>
       </c>
       <c r="C278" s="89" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="D278" s="89"/>
       <c r="E278" s="89"/>
@@ -7833,127 +7806,129 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="89" t="s">
-        <v>705</v>
+        <v>532</v>
       </c>
       <c r="B279" s="89" t="s">
-        <v>871</v>
-      </c>
-      <c r="C279" s="89"/>
+        <v>780</v>
+      </c>
+      <c r="C279" s="89" t="s">
+        <v>751</v>
+      </c>
       <c r="D279" s="89"/>
       <c r="E279" s="89"/>
       <c r="F279" s="89"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="89" t="s">
-        <v>534</v>
+        <v>699</v>
       </c>
       <c r="B280" s="89" t="s">
-        <v>778</v>
-      </c>
-      <c r="C280" s="89" t="s">
-        <v>758</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="C280" s="89"/>
       <c r="D280" s="89"/>
       <c r="E280" s="89"/>
       <c r="F280" s="89"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="89" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B281" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="C281" s="89"/>
+        <v>771</v>
+      </c>
+      <c r="C281" s="89" t="s">
+        <v>751</v>
+      </c>
       <c r="D281" s="89"/>
       <c r="E281" s="89"/>
       <c r="F281" s="89"/>
     </row>
-    <row r="282" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="89" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B282" s="89" t="s">
-        <v>444</v>
-      </c>
-      <c r="C282" s="89" t="s">
-        <v>738</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="C282" s="89"/>
       <c r="D282" s="89"/>
       <c r="E282" s="89"/>
       <c r="F282" s="89"/>
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="89" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B283" s="89" t="s">
-        <v>828</v>
-      </c>
-      <c r="C283" s="89"/>
+        <v>440</v>
+      </c>
+      <c r="C283" s="89" t="s">
+        <v>731</v>
+      </c>
       <c r="D283" s="89"/>
       <c r="E283" s="89"/>
       <c r="F283" s="89"/>
-      <c r="G283" s="75"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="89" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B284" s="89" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="C284" s="89"/>
       <c r="D284" s="89"/>
       <c r="E284" s="89"/>
       <c r="F284" s="89"/>
+      <c r="G284" s="75"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="89" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B285" s="89" t="s">
-        <v>433</v>
+        <v>719</v>
       </c>
       <c r="C285" s="89"/>
       <c r="D285" s="89"/>
       <c r="E285" s="89"/>
       <c r="F285" s="89"/>
     </row>
-    <row r="286" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="89" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B286" s="89" t="s">
-        <v>756</v>
-      </c>
-      <c r="C286" s="89" t="s">
-        <v>757</v>
-      </c>
-      <c r="D286" s="89" t="s">
-        <v>758</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C286" s="89"/>
+      <c r="D286" s="89"/>
       <c r="E286" s="89"/>
       <c r="F286" s="89"/>
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="89" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B287" s="89" t="s">
-        <v>788</v>
-      </c>
-      <c r="C287" s="89"/>
-      <c r="D287" s="89"/>
+        <v>749</v>
+      </c>
+      <c r="C287" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="D287" s="89" t="s">
+        <v>751</v>
+      </c>
       <c r="E287" s="89"/>
       <c r="F287" s="89"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="89" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="B288" s="89" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="C288" s="89"/>
       <c r="D288" s="89"/>
@@ -7962,27 +7937,25 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="89" t="s">
-        <v>178</v>
+        <v>524</v>
       </c>
       <c r="B289" s="89" t="s">
-        <v>789</v>
-      </c>
-      <c r="C289" s="89" t="s">
-        <v>790</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="C289" s="89"/>
       <c r="D289" s="89"/>
       <c r="E289" s="89"/>
       <c r="F289" s="89"/>
     </row>
-    <row r="290" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="89" t="s">
-        <v>481</v>
+        <v>178</v>
       </c>
       <c r="B290" s="89" t="s">
-        <v>789</v>
+        <v>838</v>
       </c>
       <c r="C290" s="89" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D290" s="89"/>
       <c r="E290" s="89"/>
@@ -7990,39 +7963,39 @@
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="89" t="s">
-        <v>264</v>
+        <v>477</v>
       </c>
       <c r="B291" s="89" t="s">
-        <v>791</v>
-      </c>
-      <c r="C291" s="89"/>
+        <v>838</v>
+      </c>
+      <c r="C291" s="89" t="s">
+        <v>782</v>
+      </c>
       <c r="D291" s="89"/>
       <c r="E291" s="89"/>
       <c r="F291" s="89"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="89" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B292" s="89" t="s">
-        <v>847</v>
-      </c>
-      <c r="C292" s="89" t="s">
-        <v>792</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="C292" s="89"/>
       <c r="D292" s="89"/>
       <c r="E292" s="89"/>
       <c r="F292" s="89"/>
     </row>
-    <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B293" s="89" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C293" s="89" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D293" s="89"/>
       <c r="E293" s="89"/>
@@ -8030,13 +8003,13 @@
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="89" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B294" s="89" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C294" s="89" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D294" s="89"/>
       <c r="E294" s="89"/>
@@ -8044,91 +8017,91 @@
     </row>
     <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="89" t="s">
-        <v>588</v>
+        <v>340</v>
       </c>
       <c r="B295" s="89" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="C295" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="D295" s="89" t="s">
-        <v>793</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="D295" s="89"/>
       <c r="E295" s="89"/>
       <c r="F295" s="89"/>
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="89" t="s">
-        <v>440</v>
+        <v>583</v>
       </c>
       <c r="B296" s="89" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="C296" s="89" t="s">
-        <v>768</v>
-      </c>
-      <c r="D296" s="89"/>
+        <v>740</v>
+      </c>
+      <c r="D296" s="89" t="s">
+        <v>785</v>
+      </c>
       <c r="E296" s="89"/>
       <c r="F296" s="89"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="89" t="s">
-        <v>605</v>
+        <v>436</v>
       </c>
       <c r="B297" s="89" t="s">
-        <v>726</v>
+        <v>786</v>
       </c>
       <c r="C297" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="D297" s="89" t="s">
-        <v>848</v>
-      </c>
-      <c r="E297" s="89" t="s">
-        <v>793</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="D297" s="89"/>
+      <c r="E297" s="89"/>
       <c r="F297" s="89"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="89" t="s">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="B298" s="89" t="s">
-        <v>849</v>
+        <v>719</v>
       </c>
       <c r="C298" s="89" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="D298" s="89" t="s">
-        <v>790</v>
-      </c>
-      <c r="E298" s="89"/>
+        <v>837</v>
+      </c>
+      <c r="E298" s="89" t="s">
+        <v>785</v>
+      </c>
       <c r="F298" s="89"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="89" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B299" s="89" t="s">
-        <v>255</v>
+        <v>838</v>
       </c>
       <c r="C299" s="89" t="s">
-        <v>725</v>
-      </c>
-      <c r="D299" s="89"/>
+        <v>726</v>
+      </c>
+      <c r="D299" s="89" t="s">
+        <v>782</v>
+      </c>
       <c r="E299" s="89"/>
       <c r="F299" s="89"/>
     </row>
-    <row r="300" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="89" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B300" s="89" t="s">
         <v>255</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>878</v>
+        <v>718</v>
       </c>
       <c r="D300" s="89"/>
       <c r="E300" s="89"/>
@@ -8136,76 +8109,78 @@
     </row>
     <row r="301" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="89" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B301" s="89" t="s">
-        <v>836</v>
-      </c>
-      <c r="C301" s="89"/>
+        <v>255</v>
+      </c>
+      <c r="C301" s="89" t="s">
+        <v>865</v>
+      </c>
       <c r="D301" s="89"/>
       <c r="E301" s="89"/>
       <c r="F301" s="89"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="93" t="s">
-        <v>557</v>
+    <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A302" s="89" t="s">
+        <v>552</v>
       </c>
       <c r="B302" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C302" s="89" t="s">
-        <v>719</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="C302" s="89"/>
       <c r="D302" s="89"/>
       <c r="E302" s="89"/>
       <c r="F302" s="89"/>
     </row>
-    <row r="303" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A303" s="89" t="s">
-        <v>558</v>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="93" t="s">
+        <v>553</v>
       </c>
       <c r="B303" s="89" t="s">
-        <v>795</v>
+        <v>250</v>
       </c>
       <c r="C303" s="89" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="D303" s="89"/>
       <c r="E303" s="89"/>
       <c r="F303" s="89"/>
     </row>
-    <row r="304" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="89" t="s">
-        <v>559</v>
-      </c>
-      <c r="B304" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C304" s="90" t="s">
-        <v>754</v>
+        <v>554</v>
+      </c>
+      <c r="B304" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="C304" s="89" t="s">
+        <v>750</v>
       </c>
       <c r="D304" s="89"/>
       <c r="E304" s="89"/>
       <c r="F304" s="89"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="95" t="s">
-        <v>560</v>
-      </c>
-      <c r="B305" s="89" t="s">
-        <v>732</v>
-      </c>
-      <c r="C305" s="89"/>
+    <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A305" s="89" t="s">
+        <v>555</v>
+      </c>
+      <c r="B305" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C305" s="90" t="s">
+        <v>747</v>
+      </c>
       <c r="D305" s="89"/>
       <c r="E305" s="89"/>
       <c r="F305" s="89"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="93" t="s">
-        <v>561</v>
+      <c r="A306" s="95" t="s">
+        <v>556</v>
       </c>
       <c r="B306" s="89" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
       <c r="C306" s="89"/>
       <c r="D306" s="89"/>
@@ -8214,74 +8189,74 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="93" t="s">
-        <v>562</v>
-      </c>
-      <c r="B307" s="93" t="s">
-        <v>850</v>
-      </c>
-      <c r="C307" s="93" t="s">
-        <v>784</v>
-      </c>
-      <c r="D307" s="93"/>
+        <v>557</v>
+      </c>
+      <c r="B307" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="C307" s="89"/>
+      <c r="D307" s="89"/>
       <c r="E307" s="89"/>
       <c r="F307" s="89"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="89" t="s">
-        <v>563</v>
+      <c r="A308" s="93" t="s">
+        <v>558</v>
       </c>
       <c r="B308" s="93" t="s">
-        <v>784</v>
-      </c>
-      <c r="C308" s="93"/>
-      <c r="D308" s="89"/>
+        <v>839</v>
+      </c>
+      <c r="C308" s="93" t="s">
+        <v>777</v>
+      </c>
+      <c r="D308" s="93"/>
       <c r="E308" s="89"/>
       <c r="F308" s="89"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="93" t="s">
-        <v>564</v>
+      <c r="A309" s="89" t="s">
+        <v>559</v>
       </c>
       <c r="B309" s="93" t="s">
-        <v>835</v>
-      </c>
-      <c r="C309" s="89"/>
+        <v>777</v>
+      </c>
+      <c r="C309" s="93"/>
       <c r="D309" s="89"/>
       <c r="E309" s="89"/>
       <c r="F309" s="89"/>
     </row>
     <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A310" s="89" t="s">
-        <v>565</v>
+      <c r="A310" s="93" t="s">
+        <v>560</v>
       </c>
       <c r="B310" s="89" t="s">
-        <v>818</v>
-      </c>
-      <c r="C310" s="89" t="s">
-        <v>796</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="C310" s="89"/>
       <c r="D310" s="89"/>
       <c r="E310" s="89"/>
       <c r="F310" s="89"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="89" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B311" s="89" t="s">
-        <v>797</v>
-      </c>
-      <c r="C311" s="89"/>
+        <v>807</v>
+      </c>
+      <c r="C311" s="89" t="s">
+        <v>787</v>
+      </c>
       <c r="D311" s="89"/>
       <c r="E311" s="89"/>
       <c r="F311" s="89"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="89" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B312" s="89" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="C312" s="89"/>
       <c r="D312" s="89"/>
@@ -8290,22 +8265,22 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="89" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B313" s="89" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C313" s="89"/>
       <c r="D313" s="89"/>
       <c r="E313" s="89"/>
       <c r="F313" s="89"/>
     </row>
-    <row r="314" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="89" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B314" s="89" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C314" s="89"/>
       <c r="D314" s="89"/>
@@ -8314,173 +8289,171 @@
     </row>
     <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="89" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B315" s="89" t="s">
-        <v>577</v>
-      </c>
-      <c r="C315" s="89" t="s">
-        <v>749</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="C315" s="89"/>
       <c r="D315" s="89"/>
       <c r="E315" s="89"/>
       <c r="F315" s="89"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="89" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="B316" s="89" t="s">
-        <v>820</v>
+        <v>573</v>
       </c>
       <c r="C316" s="89" t="s">
-        <v>454</v>
+        <v>742</v>
       </c>
       <c r="D316" s="89"/>
       <c r="E316" s="89"/>
       <c r="F316" s="89"/>
     </row>
-    <row r="317" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="89" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B317" s="89" t="s">
-        <v>827</v>
-      </c>
-      <c r="C317" s="89"/>
+        <v>809</v>
+      </c>
+      <c r="C317" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="D317" s="89"/>
       <c r="E317" s="89"/>
       <c r="F317" s="89"/>
     </row>
     <row r="318" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="89" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="B318" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="C318" s="90" t="s">
-        <v>761</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="C318" s="89"/>
       <c r="D318" s="89"/>
       <c r="E318" s="89"/>
       <c r="F318" s="89"/>
     </row>
     <row r="319" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="89" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B319" s="89" t="s">
-        <v>580</v>
-      </c>
-      <c r="C319" s="89"/>
+        <v>818</v>
+      </c>
+      <c r="C319" s="90" t="s">
+        <v>754</v>
+      </c>
       <c r="D319" s="89"/>
       <c r="E319" s="89"/>
       <c r="F319" s="89"/>
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="89" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B320" s="89" t="s">
-        <v>758</v>
-      </c>
-      <c r="C320" s="89" t="s">
-        <v>845</v>
-      </c>
-      <c r="D320" s="89" t="s">
-        <v>649</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C320" s="89"/>
+      <c r="D320" s="89"/>
       <c r="E320" s="89"/>
       <c r="F320" s="89"/>
     </row>
     <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="89" t="s">
-        <v>706</v>
+        <v>576</v>
       </c>
       <c r="B321" s="89" t="s">
-        <v>749</v>
-      </c>
-      <c r="C321" s="89"/>
-      <c r="D321" s="89"/>
+        <v>751</v>
+      </c>
+      <c r="C321" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="D321" s="89" t="s">
+        <v>467</v>
+      </c>
       <c r="E321" s="89"/>
       <c r="F321" s="89"/>
     </row>
     <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="89" t="s">
-        <v>582</v>
+        <v>700</v>
       </c>
       <c r="B322" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="C322" s="89" t="s">
-        <v>767</v>
-      </c>
-      <c r="D322" s="89" t="s">
-        <v>711</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C322" s="89"/>
+      <c r="D322" s="89"/>
       <c r="E322" s="89"/>
       <c r="F322" s="89"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="89" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B323" s="89" t="s">
-        <v>726</v>
-      </c>
-      <c r="C323" s="89"/>
-      <c r="D323" s="89"/>
+        <v>431</v>
+      </c>
+      <c r="C323" s="89" t="s">
+        <v>760</v>
+      </c>
+      <c r="D323" s="89" t="s">
+        <v>705</v>
+      </c>
       <c r="E323" s="89"/>
       <c r="F323" s="89"/>
     </row>
-    <row r="324" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="89" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B324" s="89" t="s">
-        <v>851</v>
+        <v>719</v>
       </c>
       <c r="C324" s="89"/>
       <c r="D324" s="89"/>
       <c r="E324" s="89"/>
       <c r="F324" s="89"/>
     </row>
-    <row r="325" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="89" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B325" s="89" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
       <c r="C325" s="89"/>
       <c r="D325" s="89"/>
       <c r="E325" s="89"/>
       <c r="F325" s="89"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="89" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B326" s="89" t="s">
-        <v>820</v>
-      </c>
-      <c r="C326" s="89" t="s">
-        <v>454</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="C326" s="89"/>
       <c r="D326" s="89"/>
       <c r="E326" s="89"/>
       <c r="F326" s="89"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="89" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B327" s="89" t="s">
-        <v>873</v>
+        <v>809</v>
       </c>
       <c r="C327" s="89" t="s">
-        <v>772</v>
+        <v>450</v>
       </c>
       <c r="D327" s="89"/>
       <c r="E327" s="89"/>
@@ -8488,199 +8461,199 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="89" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B328" s="89" t="s">
-        <v>734</v>
-      </c>
-      <c r="C328" s="89"/>
+        <v>860</v>
+      </c>
+      <c r="C328" s="89" t="s">
+        <v>765</v>
+      </c>
       <c r="D328" s="89"/>
       <c r="E328" s="89"/>
       <c r="F328" s="89"/>
     </row>
-    <row r="329" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="89" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B329" s="89" t="s">
-        <v>828</v>
+        <v>727</v>
       </c>
       <c r="C329" s="89"/>
       <c r="D329" s="89"/>
       <c r="E329" s="89"/>
       <c r="F329" s="89"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="89" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B330" s="89" t="s">
-        <v>177</v>
+        <v>817</v>
       </c>
       <c r="C330" s="89"/>
       <c r="D330" s="89"/>
       <c r="E330" s="89"/>
       <c r="F330" s="89"/>
     </row>
-    <row r="331" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="89" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B331" s="89" t="s">
-        <v>882</v>
+        <v>177</v>
       </c>
       <c r="C331" s="89"/>
       <c r="D331" s="89"/>
       <c r="E331" s="89"/>
       <c r="F331" s="89"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="89" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B332" s="89" t="s">
-        <v>754</v>
+        <v>869</v>
       </c>
       <c r="C332" s="89"/>
       <c r="D332" s="89"/>
       <c r="E332" s="89"/>
       <c r="F332" s="89"/>
     </row>
-    <row r="333" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="89" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B333" s="89" t="s">
-        <v>852</v>
+        <v>747</v>
       </c>
       <c r="C333" s="89"/>
       <c r="D333" s="89"/>
       <c r="E333" s="89"/>
       <c r="F333" s="89"/>
     </row>
-    <row r="334" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="89" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B334" s="89" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="C334" s="89"/>
       <c r="D334" s="89"/>
       <c r="E334" s="89"/>
       <c r="F334" s="89"/>
     </row>
-    <row r="335" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="89" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B335" s="89" t="s">
-        <v>853</v>
-      </c>
-      <c r="C335" s="89" t="s">
-        <v>801</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C335" s="89"/>
       <c r="D335" s="89"/>
       <c r="E335" s="89"/>
       <c r="F335" s="89"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="89" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B336" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C336" s="89"/>
+        <v>842</v>
+      </c>
+      <c r="C336" s="89" t="s">
+        <v>792</v>
+      </c>
       <c r="D336" s="89"/>
       <c r="E336" s="89"/>
       <c r="F336" s="89"/>
     </row>
-    <row r="337" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="89" t="s">
-        <v>872</v>
+        <v>592</v>
       </c>
       <c r="B337" s="89" t="s">
-        <v>854</v>
-      </c>
-      <c r="C337" s="89" t="s">
-        <v>802</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C337" s="89"/>
       <c r="D337" s="89"/>
       <c r="E337" s="89"/>
       <c r="F337" s="89"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="89" t="s">
-        <v>598</v>
-      </c>
-      <c r="B338" s="93" t="s">
-        <v>878</v>
-      </c>
-      <c r="C338" s="93" t="s">
-        <v>772</v>
-      </c>
-      <c r="D338" s="93"/>
+        <v>859</v>
+      </c>
+      <c r="B338" s="89" t="s">
+        <v>838</v>
+      </c>
+      <c r="C338" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="D338" s="89"/>
       <c r="E338" s="89"/>
       <c r="F338" s="89"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="B339" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="B339" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="C339" s="93" t="s">
+        <v>765</v>
+      </c>
+      <c r="D339" s="93"/>
+      <c r="E339" s="89"/>
+      <c r="F339" s="89"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="89" t="s">
+        <v>442</v>
+      </c>
+      <c r="B340" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="C339" s="89" t="s">
-        <v>721</v>
-      </c>
-      <c r="D339" s="89" t="s">
-        <v>803</v>
-      </c>
-      <c r="E339" s="89" t="s">
-        <v>846</v>
-      </c>
-      <c r="F339" s="89"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="93" t="s">
-        <v>707</v>
-      </c>
-      <c r="B340" s="93" t="s">
-        <v>880</v>
-      </c>
-      <c r="C340" s="93" t="s">
-        <v>878</v>
-      </c>
-      <c r="D340" s="93" t="s">
-        <v>772</v>
-      </c>
-      <c r="E340" s="89"/>
+      <c r="C340" s="89" t="s">
+        <v>714</v>
+      </c>
+      <c r="D340" s="89" t="s">
+        <v>793</v>
+      </c>
+      <c r="E340" s="89" t="s">
+        <v>835</v>
+      </c>
       <c r="F340" s="89"/>
     </row>
-    <row r="341" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="93" t="s">
-        <v>599</v>
-      </c>
-      <c r="B341" s="89" t="s">
-        <v>775</v>
-      </c>
-      <c r="C341" s="89" t="s">
-        <v>752</v>
-      </c>
-      <c r="D341" s="89"/>
+        <v>701</v>
+      </c>
+      <c r="B341" s="93" t="s">
+        <v>867</v>
+      </c>
+      <c r="C341" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="D341" s="93" t="s">
+        <v>765</v>
+      </c>
       <c r="E341" s="89"/>
       <c r="F341" s="89"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="89" t="s">
-        <v>708</v>
+    <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A342" s="93" t="s">
+        <v>594</v>
       </c>
       <c r="B342" s="89" t="s">
-        <v>855</v>
+        <v>768</v>
       </c>
       <c r="C342" s="89" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="D342" s="89"/>
       <c r="E342" s="89"/>
@@ -8688,13 +8661,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="89" t="s">
-        <v>600</v>
+        <v>702</v>
       </c>
       <c r="B343" s="89" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="C343" s="89" t="s">
-        <v>805</v>
+        <v>873</v>
       </c>
       <c r="D343" s="89"/>
       <c r="E343" s="89"/>
@@ -8702,22 +8675,24 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="89" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B344" s="89" t="s">
-        <v>602</v>
-      </c>
-      <c r="C344" s="89"/>
+        <v>843</v>
+      </c>
+      <c r="C344" s="89" t="s">
+        <v>794</v>
+      </c>
       <c r="D344" s="89"/>
       <c r="E344" s="89"/>
       <c r="F344" s="89"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="89" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B345" s="89" t="s">
-        <v>857</v>
+        <v>597</v>
       </c>
       <c r="C345" s="89"/>
       <c r="D345" s="89"/>
@@ -8726,10 +8701,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="89" t="s">
-        <v>606</v>
-      </c>
-      <c r="B346" s="96" t="s">
-        <v>758</v>
+        <v>598</v>
+      </c>
+      <c r="B346" s="89" t="s">
+        <v>844</v>
       </c>
       <c r="C346" s="89"/>
       <c r="D346" s="89"/>
@@ -8738,41 +8713,39 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="89" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B347" s="96" t="s">
-        <v>758</v>
-      </c>
-      <c r="C347" s="89" t="s">
-        <v>858</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="C347" s="89"/>
       <c r="D347" s="89"/>
       <c r="E347" s="89"/>
       <c r="F347" s="89"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="89" t="s">
-        <v>610</v>
-      </c>
-      <c r="B348" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="C348" s="92" t="s">
-        <v>820</v>
+        <v>602</v>
+      </c>
+      <c r="B348" s="96" t="s">
+        <v>751</v>
+      </c>
+      <c r="C348" s="89" t="s">
+        <v>845</v>
       </c>
       <c r="D348" s="89"/>
       <c r="E348" s="89"/>
       <c r="F348" s="89"/>
     </row>
-    <row r="349" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="89" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B349" s="89" t="s">
-        <v>859</v>
-      </c>
-      <c r="C349" s="89" t="s">
-        <v>806</v>
+        <v>450</v>
+      </c>
+      <c r="C349" s="92" t="s">
+        <v>809</v>
       </c>
       <c r="D349" s="89"/>
       <c r="E349" s="89"/>
@@ -8780,62 +8753,64 @@
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="89" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B350" s="89" t="s">
-        <v>882</v>
-      </c>
-      <c r="C350" s="89"/>
+        <v>846</v>
+      </c>
+      <c r="C350" s="89" t="s">
+        <v>795</v>
+      </c>
       <c r="D350" s="89"/>
       <c r="E350" s="89"/>
       <c r="F350" s="89"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="89" t="s">
-        <v>709</v>
+        <v>609</v>
       </c>
       <c r="B351" s="89" t="s">
-        <v>602</v>
+        <v>869</v>
       </c>
       <c r="C351" s="89"/>
       <c r="D351" s="89"/>
       <c r="E351" s="89"/>
       <c r="F351" s="89"/>
     </row>
-    <row r="352" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="89" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="B352" s="89" t="s">
-        <v>444</v>
-      </c>
-      <c r="C352" s="89" t="s">
-        <v>738</v>
-      </c>
-      <c r="D352" s="89" t="s">
-        <v>774</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C352" s="89"/>
+      <c r="D352" s="89"/>
       <c r="E352" s="89"/>
       <c r="F352" s="89"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="89" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B353" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C353" s="89"/>
-      <c r="D353" s="89"/>
+        <v>440</v>
+      </c>
+      <c r="C353" s="89" t="s">
+        <v>731</v>
+      </c>
+      <c r="D353" s="89" t="s">
+        <v>767</v>
+      </c>
       <c r="E353" s="89"/>
       <c r="F353" s="89"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="89" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B354" s="89" t="s">
-        <v>717</v>
+        <v>177</v>
       </c>
       <c r="C354" s="89"/>
       <c r="D354" s="89"/>
@@ -8844,10 +8819,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="89" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B355" s="89" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="C355" s="89"/>
       <c r="D355" s="89"/>
@@ -8856,10 +8831,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="89" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B356" s="89" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="C356" s="89"/>
       <c r="D356" s="89"/>
@@ -8868,69 +8843,67 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="89" t="s">
-        <v>710</v>
+        <v>615</v>
       </c>
       <c r="B357" s="89" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="C357" s="89"/>
       <c r="D357" s="89"/>
       <c r="E357" s="89"/>
       <c r="F357" s="89"/>
     </row>
-    <row r="358" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="89" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="B358" s="89" t="s">
-        <v>807</v>
-      </c>
-      <c r="C358" s="89" t="s">
-        <v>829</v>
-      </c>
-      <c r="D358" s="90" t="s">
-        <v>761</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="C358" s="89"/>
+      <c r="D358" s="89"/>
       <c r="E358" s="89"/>
       <c r="F358" s="89"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="89" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B359" s="89" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="C359" s="89" t="s">
-        <v>816</v>
-      </c>
-      <c r="D359" s="89"/>
+        <v>818</v>
+      </c>
+      <c r="D359" s="90" t="s">
+        <v>754</v>
+      </c>
       <c r="E359" s="89"/>
       <c r="F359" s="89"/>
     </row>
-    <row r="360" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="89" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B360" s="89" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="C360" s="89" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="D360" s="89"/>
       <c r="E360" s="89"/>
       <c r="F360" s="89"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="89" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>860</v>
+        <v>740</v>
       </c>
       <c r="C361" s="89" t="s">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="D361" s="89"/>
       <c r="E361" s="89"/>
@@ -8938,79 +8911,79 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="89" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B362" s="89" t="s">
-        <v>454</v>
+        <v>847</v>
       </c>
       <c r="C362" s="89" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="D362" s="89"/>
       <c r="E362" s="89"/>
       <c r="F362" s="89"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="93" t="s">
-        <v>628</v>
-      </c>
-      <c r="B363" s="93" t="s">
-        <v>820</v>
-      </c>
-      <c r="C363" s="93" t="s">
-        <v>454</v>
+      <c r="A363" s="89" t="s">
+        <v>620</v>
+      </c>
+      <c r="B363" s="89" t="s">
+        <v>450</v>
+      </c>
+      <c r="C363" s="89" t="s">
+        <v>809</v>
       </c>
       <c r="D363" s="89"/>
       <c r="E363" s="89"/>
       <c r="F363" s="89"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="89" t="s">
-        <v>526</v>
-      </c>
-      <c r="B364" s="89" t="s">
-        <v>734</v>
-      </c>
-      <c r="C364" s="89"/>
+      <c r="A364" s="93" t="s">
+        <v>623</v>
+      </c>
+      <c r="B364" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="C364" s="93" t="s">
+        <v>450</v>
+      </c>
       <c r="D364" s="89"/>
       <c r="E364" s="89"/>
       <c r="F364" s="89"/>
     </row>
-    <row r="365" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="89" t="s">
-        <v>626</v>
+        <v>522</v>
       </c>
       <c r="B365" s="89" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="C365" s="89"/>
       <c r="D365" s="89"/>
       <c r="E365" s="89"/>
       <c r="F365" s="89"/>
     </row>
-    <row r="366" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="89" t="s">
-        <v>455</v>
+        <v>621</v>
       </c>
       <c r="B366" s="89" t="s">
-        <v>747</v>
-      </c>
-      <c r="C366" s="89" t="s">
-        <v>735</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="C366" s="89"/>
       <c r="D366" s="89"/>
       <c r="E366" s="89"/>
       <c r="F366" s="89"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="89" t="s">
-        <v>627</v>
+        <v>451</v>
       </c>
       <c r="B367" s="89" t="s">
-        <v>454</v>
+        <v>740</v>
       </c>
       <c r="C367" s="89" t="s">
-        <v>820</v>
+        <v>728</v>
       </c>
       <c r="D367" s="89"/>
       <c r="E367" s="89"/>
@@ -9018,62 +8991,64 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="89" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B368" s="89" t="s">
-        <v>747</v>
+        <v>450</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D368" s="89"/>
       <c r="E368" s="89"/>
       <c r="F368" s="89"/>
     </row>
-    <row r="369" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="89" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B369" s="89" t="s">
-        <v>840</v>
-      </c>
-      <c r="C369" s="89"/>
+        <v>740</v>
+      </c>
+      <c r="C369" s="89" t="s">
+        <v>795</v>
+      </c>
       <c r="D369" s="89"/>
       <c r="E369" s="89"/>
       <c r="F369" s="89"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="93" t="s">
-        <v>632</v>
-      </c>
-      <c r="B370" s="93" t="s">
-        <v>861</v>
-      </c>
-      <c r="C370" s="93" t="s">
-        <v>808</v>
-      </c>
+    <row r="370" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A370" s="89" t="s">
+        <v>626</v>
+      </c>
+      <c r="B370" s="89" t="s">
+        <v>829</v>
+      </c>
+      <c r="C370" s="89"/>
       <c r="D370" s="89"/>
       <c r="E370" s="89"/>
       <c r="F370" s="89"/>
     </row>
-    <row r="371" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A371" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="B371" s="89" t="s">
-        <v>809</v>
-      </c>
-      <c r="C371" s="89"/>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="93" t="s">
+        <v>627</v>
+      </c>
+      <c r="B371" s="93" t="s">
+        <v>848</v>
+      </c>
+      <c r="C371" s="93" t="s">
+        <v>797</v>
+      </c>
       <c r="D371" s="89"/>
       <c r="E371" s="89"/>
       <c r="F371" s="89"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="89" t="s">
-        <v>633</v>
+        <v>5</v>
       </c>
       <c r="B372" s="89" t="s">
-        <v>177</v>
+        <v>798</v>
       </c>
       <c r="C372" s="89"/>
       <c r="D372" s="89"/>
@@ -9082,116 +9057,116 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="89" t="s">
-        <v>228</v>
+        <v>628</v>
       </c>
       <c r="B373" s="89" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="C373" s="89"/>
       <c r="D373" s="89"/>
       <c r="E373" s="89"/>
       <c r="F373" s="89"/>
     </row>
-    <row r="374" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="89" t="s">
-        <v>522</v>
+        <v>228</v>
       </c>
       <c r="B374" s="89" t="s">
-        <v>882</v>
+        <v>255</v>
       </c>
       <c r="C374" s="89"/>
       <c r="D374" s="89"/>
       <c r="E374" s="89"/>
       <c r="F374" s="89"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="B375" s="93" t="s">
-        <v>820</v>
-      </c>
-      <c r="C375" s="93" t="s">
-        <v>454</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B375" s="89" t="s">
+        <v>869</v>
+      </c>
+      <c r="C375" s="89"/>
       <c r="D375" s="89"/>
       <c r="E375" s="89"/>
       <c r="F375" s="89"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B376" s="89" t="s">
-        <v>862</v>
-      </c>
-      <c r="C376" s="89" t="s">
-        <v>711</v>
-      </c>
-      <c r="D376" s="89" t="s">
-        <v>746</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B376" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="C376" s="93" t="s">
+        <v>450</v>
+      </c>
+      <c r="D376" s="89"/>
       <c r="E376" s="89"/>
       <c r="F376" s="89"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="89" t="s">
-        <v>638</v>
+        <v>345</v>
       </c>
       <c r="B377" s="89" t="s">
-        <v>810</v>
-      </c>
-      <c r="C377" s="89"/>
-      <c r="D377" s="89"/>
+        <v>849</v>
+      </c>
+      <c r="C377" s="89" t="s">
+        <v>705</v>
+      </c>
+      <c r="D377" s="89" t="s">
+        <v>739</v>
+      </c>
       <c r="E377" s="89"/>
       <c r="F377" s="89"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="89" t="s">
-        <v>508</v>
+        <v>633</v>
       </c>
       <c r="B378" s="89" t="s">
-        <v>782</v>
-      </c>
-      <c r="C378" s="89" t="s">
-        <v>776</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="C378" s="89"/>
       <c r="D378" s="89"/>
       <c r="E378" s="89"/>
       <c r="F378" s="89"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="89" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B379" s="89" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>808</v>
+        <v>769</v>
       </c>
       <c r="D379" s="89"/>
       <c r="E379" s="89"/>
       <c r="F379" s="89"/>
     </row>
-    <row r="380" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="89" t="s">
-        <v>636</v>
+        <v>503</v>
       </c>
       <c r="B380" s="89" t="s">
-        <v>811</v>
-      </c>
-      <c r="C380" s="89"/>
+        <v>769</v>
+      </c>
+      <c r="C380" s="89" t="s">
+        <v>797</v>
+      </c>
       <c r="D380" s="89"/>
       <c r="E380" s="89"/>
       <c r="F380" s="89"/>
     </row>
     <row r="381" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="89" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="B381" s="89" t="s">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="C381" s="89"/>
       <c r="D381" s="89"/>
@@ -9200,10 +9175,10 @@
     </row>
     <row r="382" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="89" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="B382" s="89" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C382" s="89"/>
       <c r="D382" s="89"/>
@@ -9212,50 +9187,50 @@
     </row>
     <row r="383" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="89" t="s">
-        <v>629</v>
-      </c>
-      <c r="B383" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C383" s="90" t="s">
-        <v>754</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="B383" s="89" t="s">
+        <v>728</v>
+      </c>
+      <c r="C383" s="89"/>
       <c r="D383" s="89"/>
       <c r="E383" s="89"/>
       <c r="F383" s="89"/>
     </row>
-    <row r="384" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="97" t="s">
-        <v>642</v>
-      </c>
-      <c r="B384" s="97" t="s">
-        <v>843</v>
-      </c>
-      <c r="C384" s="97" t="s">
-        <v>740</v>
-      </c>
-      <c r="D384" s="97"/>
-      <c r="E384" s="97"/>
+    <row r="384" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A384" s="89" t="s">
+        <v>624</v>
+      </c>
+      <c r="B384" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C384" s="90" t="s">
+        <v>747</v>
+      </c>
+      <c r="D384" s="89"/>
+      <c r="E384" s="89"/>
       <c r="F384" s="89"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="89" t="s">
-        <v>643</v>
-      </c>
-      <c r="B385" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C385" s="89"/>
-      <c r="D385" s="89"/>
-      <c r="E385" s="89"/>
+    <row r="385" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="97" t="s">
+        <v>637</v>
+      </c>
+      <c r="B385" s="97" t="s">
+        <v>832</v>
+      </c>
+      <c r="C385" s="97" t="s">
+        <v>733</v>
+      </c>
+      <c r="D385" s="97"/>
+      <c r="E385" s="97"/>
       <c r="F385" s="89"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="89" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B386" s="89" t="s">
-        <v>717</v>
+        <v>177</v>
       </c>
       <c r="C386" s="89"/>
       <c r="D386" s="89"/>
@@ -9264,92 +9239,92 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="89" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B387" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C387" s="89" t="s">
-        <v>783</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="C387" s="89"/>
       <c r="D387" s="89"/>
       <c r="E387" s="89"/>
       <c r="F387" s="89"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="89" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B388" s="89" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C388" s="89" t="s">
-        <v>820</v>
+        <v>776</v>
       </c>
       <c r="D388" s="89"/>
       <c r="E388" s="89"/>
       <c r="F388" s="89"/>
     </row>
-    <row r="389" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="89" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B389" s="89" t="s">
-        <v>845</v>
+        <v>450</v>
       </c>
       <c r="C389" s="89" t="s">
-        <v>471</v>
+        <v>809</v>
       </c>
       <c r="D389" s="89"/>
       <c r="E389" s="89"/>
       <c r="F389" s="89"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="89" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B390" s="89" t="s">
-        <v>758</v>
+        <v>834</v>
       </c>
       <c r="C390" s="89" t="s">
-        <v>858</v>
+        <v>467</v>
       </c>
       <c r="D390" s="89"/>
       <c r="E390" s="89"/>
       <c r="F390" s="89"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="98" t="s">
-        <v>653</v>
+      <c r="A391" s="89" t="s">
+        <v>646</v>
       </c>
       <c r="B391" s="89" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="C391" s="89" t="s">
-        <v>726</v>
+        <v>845</v>
       </c>
       <c r="D391" s="89"/>
       <c r="E391" s="89"/>
       <c r="F391" s="89"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A392" s="89" t="s">
-        <v>654</v>
+      <c r="A392" s="98" t="s">
+        <v>647</v>
       </c>
       <c r="B392" s="89" t="s">
-        <v>722</v>
-      </c>
-      <c r="C392" s="89"/>
+        <v>715</v>
+      </c>
+      <c r="C392" s="89" t="s">
+        <v>719</v>
+      </c>
       <c r="D392" s="89"/>
       <c r="E392" s="89"/>
       <c r="F392" s="89"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="97" t="s">
-        <v>655</v>
-      </c>
-      <c r="B393" s="97" t="s">
-        <v>863</v>
+      <c r="A393" s="89" t="s">
+        <v>648</v>
+      </c>
+      <c r="B393" s="89" t="s">
+        <v>715</v>
       </c>
       <c r="C393" s="89"/>
       <c r="D393" s="89"/>
@@ -9357,11 +9332,11 @@
       <c r="F393" s="89"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="89" t="s">
-        <v>656</v>
-      </c>
-      <c r="B394" s="89" t="s">
-        <v>754</v>
+      <c r="A394" s="97" t="s">
+        <v>649</v>
+      </c>
+      <c r="B394" s="97" t="s">
+        <v>850</v>
       </c>
       <c r="C394" s="89"/>
       <c r="D394" s="89"/>
@@ -9370,10 +9345,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="89" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B395" s="89" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="C395" s="89"/>
       <c r="D395" s="89"/>
@@ -9382,86 +9357,86 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="89" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B396" s="89" t="s">
-        <v>252</v>
+        <v>710</v>
       </c>
       <c r="C396" s="89"/>
       <c r="D396" s="89"/>
       <c r="E396" s="89"/>
       <c r="F396" s="89"/>
     </row>
-    <row r="397" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="89" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B397" s="89" t="s">
-        <v>727</v>
+        <v>252</v>
       </c>
       <c r="C397" s="89"/>
       <c r="D397" s="89"/>
       <c r="E397" s="89"/>
       <c r="F397" s="89"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="89" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B398" s="89" t="s">
-        <v>770</v>
-      </c>
-      <c r="C398" s="89" t="s">
-        <v>784</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C398" s="89"/>
       <c r="D398" s="89"/>
       <c r="E398" s="89"/>
       <c r="F398" s="89"/>
     </row>
-    <row r="399" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="89" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B399" s="89" t="s">
-        <v>830</v>
-      </c>
-      <c r="C399" s="89"/>
+        <v>763</v>
+      </c>
+      <c r="C399" s="89" t="s">
+        <v>777</v>
+      </c>
       <c r="D399" s="89"/>
       <c r="E399" s="89"/>
       <c r="F399" s="89"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" s="99" t="s">
-        <v>662</v>
-      </c>
-      <c r="B400" s="99" t="s">
-        <v>663</v>
-      </c>
-      <c r="C400" s="99" t="s">
-        <v>750</v>
-      </c>
+    <row r="400" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A400" s="89" t="s">
+        <v>655</v>
+      </c>
+      <c r="B400" s="89" t="s">
+        <v>819</v>
+      </c>
+      <c r="C400" s="89"/>
       <c r="D400" s="89"/>
       <c r="E400" s="89"/>
-      <c r="F400" s="100"/>
-    </row>
-    <row r="401" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="101" t="s">
-        <v>664</v>
-      </c>
-      <c r="B401" s="89" t="s">
-        <v>822</v>
-      </c>
-      <c r="C401" s="89"/>
+      <c r="F400" s="89"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="99" t="s">
+        <v>656</v>
+      </c>
+      <c r="B401" s="99" t="s">
+        <v>657</v>
+      </c>
+      <c r="C401" s="99" t="s">
+        <v>743</v>
+      </c>
       <c r="D401" s="89"/>
       <c r="E401" s="89"/>
-      <c r="F401" s="89"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="B402" s="90" t="s">
-        <v>812</v>
+      <c r="F401" s="100"/>
+    </row>
+    <row r="402" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A402" s="101" t="s">
+        <v>658</v>
+      </c>
+      <c r="B402" s="89" t="s">
+        <v>811</v>
       </c>
       <c r="C402" s="89"/>
       <c r="D402" s="89"/>
@@ -9470,10 +9445,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B403" s="90" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C403" s="89"/>
       <c r="D403" s="89"/>
@@ -9482,48 +9457,48 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="89" t="s">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="B404" s="90" t="s">
-        <v>812</v>
-      </c>
-      <c r="C404" s="90"/>
+        <v>801</v>
+      </c>
+      <c r="C404" s="89"/>
       <c r="D404" s="89"/>
       <c r="E404" s="89"/>
       <c r="F404" s="89"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="89" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B405" s="90" t="s">
-        <v>812</v>
-      </c>
-      <c r="C405" s="89" t="s">
-        <v>666</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="C405" s="90"/>
       <c r="D405" s="89"/>
       <c r="E405" s="89"/>
       <c r="F405" s="89"/>
     </row>
-    <row r="406" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="89" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B406" s="90" t="s">
-        <v>835</v>
-      </c>
-      <c r="C406" s="89"/>
+        <v>801</v>
+      </c>
+      <c r="C406" s="89" t="s">
+        <v>660</v>
+      </c>
       <c r="D406" s="89"/>
       <c r="E406" s="89"/>
       <c r="F406" s="89"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="97" t="s">
-        <v>669</v>
-      </c>
-      <c r="B407" s="97" t="s">
-        <v>255</v>
+    <row r="407" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A407" s="89" t="s">
+        <v>662</v>
+      </c>
+      <c r="B407" s="90" t="s">
+        <v>824</v>
       </c>
       <c r="C407" s="89"/>
       <c r="D407" s="89"/>
@@ -9532,10 +9507,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="97" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B408" s="97" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C408" s="89"/>
       <c r="D408" s="89"/>
@@ -9543,78 +9518,76 @@
       <c r="F408" s="89"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="89" t="s">
-        <v>672</v>
-      </c>
-      <c r="B409" s="89" t="s">
-        <v>813</v>
+      <c r="A409" s="97" t="s">
+        <v>664</v>
+      </c>
+      <c r="B409" s="97" t="s">
+        <v>252</v>
       </c>
       <c r="C409" s="89"/>
       <c r="D409" s="89"/>
       <c r="E409" s="89"/>
       <c r="F409" s="89"/>
     </row>
-    <row r="410" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="89" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B410" s="89" t="s">
-        <v>864</v>
+        <v>802</v>
       </c>
       <c r="C410" s="89"/>
       <c r="D410" s="89"/>
       <c r="E410" s="89"/>
       <c r="F410" s="89"/>
     </row>
-    <row r="411" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="97" t="s">
-        <v>679</v>
+    <row r="411" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A411" s="89" t="s">
+        <v>669</v>
       </c>
       <c r="B411" s="89" t="s">
-        <v>854</v>
-      </c>
-      <c r="C411" s="90" t="s">
-        <v>790</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="C411" s="89"/>
       <c r="D411" s="89"/>
       <c r="E411" s="89"/>
       <c r="F411" s="89"/>
     </row>
-    <row r="412" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A412" s="89" t="s">
-        <v>680</v>
-      </c>
-      <c r="B412" s="90" t="s">
-        <v>835</v>
-      </c>
-      <c r="C412" s="89"/>
+    <row r="412" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="97" t="s">
+        <v>673</v>
+      </c>
+      <c r="B412" s="89" t="s">
+        <v>838</v>
+      </c>
+      <c r="C412" s="90" t="s">
+        <v>782</v>
+      </c>
       <c r="D412" s="89"/>
       <c r="E412" s="89"/>
       <c r="F412" s="89"/>
     </row>
     <row r="413" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="89" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B413" s="90" t="s">
-        <v>825</v>
-      </c>
-      <c r="C413" s="90" t="s">
-        <v>754</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="C413" s="89"/>
       <c r="D413" s="89"/>
       <c r="E413" s="89"/>
       <c r="F413" s="89"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="89" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B414" s="90" t="s">
         <v>814</v>
       </c>
-      <c r="C414" s="89" t="s">
-        <v>666</v>
+      <c r="C414" s="90" t="s">
+        <v>747</v>
       </c>
       <c r="D414" s="89"/>
       <c r="E414" s="89"/>
@@ -9622,41 +9595,41 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="89" t="s">
-        <v>683</v>
-      </c>
-      <c r="B415" s="89" t="s">
-        <v>666</v>
+        <v>676</v>
+      </c>
+      <c r="B415" s="90" t="s">
+        <v>803</v>
       </c>
       <c r="C415" s="89" t="s">
-        <v>747</v>
+        <v>660</v>
       </c>
       <c r="D415" s="89"/>
       <c r="E415" s="89"/>
       <c r="F415" s="89"/>
     </row>
-    <row r="416" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="89" t="s">
-        <v>684</v>
-      </c>
-      <c r="B416" s="90" t="s">
-        <v>806</v>
-      </c>
-      <c r="C416" s="90" t="s">
-        <v>830</v>
+        <v>677</v>
+      </c>
+      <c r="B416" s="89" t="s">
+        <v>660</v>
+      </c>
+      <c r="C416" s="89" t="s">
+        <v>740</v>
       </c>
       <c r="D416" s="89"/>
       <c r="E416" s="89"/>
       <c r="F416" s="89"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="89" t="s">
-        <v>685</v>
-      </c>
-      <c r="B417" s="89" t="s">
-        <v>785</v>
+        <v>678</v>
+      </c>
+      <c r="B417" s="90" t="s">
+        <v>795</v>
       </c>
       <c r="C417" s="90" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
       <c r="D417" s="89"/>
       <c r="E417" s="89"/>
@@ -9664,50 +9637,64 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="89" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B418" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C418" s="89"/>
+        <v>778</v>
+      </c>
+      <c r="C418" s="90" t="s">
+        <v>747</v>
+      </c>
       <c r="D418" s="89"/>
       <c r="E418" s="89"/>
       <c r="F418" s="89"/>
     </row>
-    <row r="419" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="89" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B419" s="89" t="s">
-        <v>854</v>
-      </c>
-      <c r="C419" s="89" t="s">
-        <v>790</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C419" s="89"/>
       <c r="D419" s="89"/>
       <c r="E419" s="89"/>
       <c r="F419" s="89"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="89" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B420" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="C420" s="89"/>
+        <v>838</v>
+      </c>
+      <c r="C420" s="89" t="s">
+        <v>782</v>
+      </c>
       <c r="D420" s="89"/>
       <c r="E420" s="89"/>
       <c r="F420" s="89"/>
     </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="89" t="s">
+        <v>682</v>
+      </c>
+      <c r="B421" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="C421" s="89"/>
+      <c r="D421" s="89"/>
+      <c r="E421" s="89"/>
+      <c r="F421" s="89"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9723,7 +9710,7 @@
           <x14:formula1>
             <xm:f>'X:\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\Физ лица\Разметка локалов\[data_locals_smoke_test_1.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B102 D120 C116:D116 E217 B229:C229 C217 C284 B227:C227</xm:sqref>
+          <xm:sqref>D120 C116:D116 E218 B230:C230 C218 C285 B228:C228</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9763,22 +9750,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="109" t="s">
         <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="104">
+      <c r="C3" s="110">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="103"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="110"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -9786,22 +9773,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="109" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="110">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="110"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -9809,22 +9796,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="110">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="110"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -9832,22 +9819,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="109" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="104">
+      <c r="C12" s="110">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="110"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -9869,22 +9856,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="103" t="s">
+      <c r="A17" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="110">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="103"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="110"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -9914,7 +9901,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="110">
         <v>45019</v>
       </c>
     </row>
@@ -9925,12 +9912,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="104"/>
+      <c r="C23" s="110"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="104"/>
+      <c r="C24" s="110"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -10610,7 +10597,7 @@
       <c r="B114" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C114" s="109">
+      <c r="C114" s="113">
         <v>45442</v>
       </c>
     </row>
@@ -10621,7 +10608,7 @@
       <c r="B115" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="109"/>
+      <c r="C115" s="113"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -10630,7 +10617,7 @@
       <c r="B116" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="109"/>
+      <c r="C116" s="113"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -10639,7 +10626,7 @@
       <c r="B117" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="109"/>
+      <c r="C117" s="113"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -10648,7 +10635,7 @@
       <c r="B118" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="109"/>
+      <c r="C118" s="113"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -10657,7 +10644,7 @@
       <c r="B119" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="109"/>
+      <c r="C119" s="113"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -10666,7 +10653,7 @@
       <c r="B120" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="109"/>
+      <c r="C120" s="113"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -10675,7 +10662,7 @@
       <c r="B121" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C121" s="109"/>
+      <c r="C121" s="113"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -10684,7 +10671,7 @@
       <c r="B122" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="109"/>
+      <c r="C122" s="113"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -10693,7 +10680,7 @@
       <c r="B123" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="109"/>
+      <c r="C123" s="113"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -10702,7 +10689,7 @@
       <c r="B124" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C124" s="109"/>
+      <c r="C124" s="113"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -10737,7 +10724,7 @@
       <c r="B129" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="107">
+      <c r="C129" s="111">
         <v>45485</v>
       </c>
     </row>
@@ -10748,7 +10735,7 @@
       <c r="B130" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="108"/>
+      <c r="C130" s="112"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -10757,7 +10744,7 @@
       <c r="B131" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C131" s="108"/>
+      <c r="C131" s="112"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -10766,7 +10753,7 @@
       <c r="B132" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C132" s="108"/>
+      <c r="C132" s="112"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -10780,7 +10767,7 @@
       <c r="B134" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="107">
+      <c r="C134" s="111">
         <v>45485</v>
       </c>
     </row>
@@ -10791,7 +10778,7 @@
       <c r="B135" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="107"/>
+      <c r="C135" s="111"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -10800,7 +10787,7 @@
       <c r="B136" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="107"/>
+      <c r="C136" s="111"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -10809,7 +10796,7 @@
     </row>
     <row r="138" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="37" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B138" s="38" t="s">
         <v>171</v>
@@ -10825,7 +10812,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="41" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B140" s="38"/>
       <c r="C140" s="105">
@@ -10834,24 +10821,24 @@
     </row>
     <row r="141" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="41" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="106"/>
+      <c r="C141" s="103"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="106"/>
+      <c r="C142" s="103"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="106"/>
+      <c r="C143" s="103"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -10860,7 +10847,7 @@
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="37" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B145" s="38"/>
       <c r="C145" s="39">
@@ -10874,7 +10861,7 @@
     </row>
     <row r="147" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="37" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="42">
@@ -10888,7 +10875,7 @@
     </row>
     <row r="149" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="37" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B149" s="38"/>
       <c r="C149" s="42">
@@ -10902,7 +10889,7 @@
     </row>
     <row r="151" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="43" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B151" s="38" t="s">
         <v>170</v>
@@ -10913,7 +10900,7 @@
     </row>
     <row r="152" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="37" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B152" s="38" t="s">
         <v>168</v>
@@ -10922,7 +10909,7 @@
     </row>
     <row r="153" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="37" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B153" s="38"/>
       <c r="C153" s="40"/>
@@ -10936,7 +10923,7 @@
     </row>
     <row r="155" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="37" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B155" s="38" t="s">
         <v>169</v>
@@ -10950,7 +10937,7 @@
     </row>
     <row r="157" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B157" s="38" t="s">
         <v>176</v>
@@ -10966,7 +10953,7 @@
     </row>
     <row r="159" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="44" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B159" s="45" t="s">
         <v>259</v>
@@ -10982,7 +10969,7 @@
     </row>
     <row r="161" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="47" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B161" s="45" t="s">
         <v>260</v>
@@ -10998,10 +10985,10 @@
     </row>
     <row r="163" spans="1:3" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="47" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B163" s="45" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C163" s="46">
         <v>45525</v>
@@ -11009,7 +10996,7 @@
     </row>
     <row r="164" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B164" s="38" t="s">
         <v>261</v>
@@ -11025,10 +11012,10 @@
     </row>
     <row r="166" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="37" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C166" s="48">
         <v>45541</v>
@@ -11041,10 +11028,10 @@
     </row>
     <row r="168" spans="1:3" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="49" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B168" s="38" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C168" s="48">
         <v>45541</v>
@@ -11057,10 +11044,10 @@
     </row>
     <row r="170" spans="1:3" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B170" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C170" s="48">
         <v>45541</v>
@@ -11073,10 +11060,10 @@
     </row>
     <row r="172" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="50" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C172" s="48">
         <v>45546</v>
@@ -11089,10 +11076,10 @@
     </row>
     <row r="174" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="37" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C174" s="48">
         <v>45546</v>
@@ -11105,10 +11092,10 @@
     </row>
     <row r="176" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="49" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C176" s="54">
         <v>45552</v>
@@ -11121,10 +11108,10 @@
     </row>
     <row r="178" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="37" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C178" s="48">
         <v>45567</v>
@@ -11137,70 +11124,70 @@
     </row>
     <row r="180" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C180" s="102">
+        <v>318</v>
+      </c>
+      <c r="C180" s="108">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="102"/>
+      <c r="C181" s="108"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="C182" s="102"/>
+        <v>319</v>
+      </c>
+      <c r="C182" s="108"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="102"/>
+      <c r="C183" s="108"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="C184" s="102"/>
+        <v>321</v>
+      </c>
+      <c r="C184" s="108"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="102"/>
+      <c r="C185" s="108"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C186" s="102"/>
+        <v>325</v>
+      </c>
+      <c r="C186" s="108"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="102"/>
+      <c r="C187" s="108"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C188" s="102"/>
+        <v>322</v>
+      </c>
+      <c r="C188" s="108"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -11209,7 +11196,7 @@
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="37" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B190" s="38"/>
       <c r="C190" s="39">
@@ -11219,16 +11206,16 @@
     <row r="191" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="34"/>
       <c r="B191" s="61" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C191" s="62"/>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="B192" s="110" t="s">
-        <v>398</v>
+        <v>377</v>
+      </c>
+      <c r="B192" s="102" t="s">
+        <v>394</v>
       </c>
       <c r="C192" s="105">
         <v>45610</v>
@@ -11236,24 +11223,24 @@
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="B193" s="110"/>
-      <c r="C193" s="106"/>
+        <v>378</v>
+      </c>
+      <c r="B193" s="102"/>
+      <c r="C193" s="103"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B194" s="110"/>
-      <c r="C194" s="106"/>
+        <v>379</v>
+      </c>
+      <c r="B194" s="102"/>
+      <c r="C194" s="103"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="B195" s="110"/>
-      <c r="C195" s="106"/>
+        <v>380</v>
+      </c>
+      <c r="B195" s="102"/>
+      <c r="C195" s="103"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -11262,28 +11249,28 @@
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="B197" s="110" t="s">
-        <v>385</v>
-      </c>
-      <c r="C197" s="112">
+        <v>382</v>
+      </c>
+      <c r="B197" s="102" t="s">
+        <v>381</v>
+      </c>
+      <c r="C197" s="106">
         <v>45614</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="B198" s="110"/>
-      <c r="C198" s="113"/>
+        <v>383</v>
+      </c>
+      <c r="B198" s="102"/>
+      <c r="C198" s="107"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
-        <v>388</v>
-      </c>
-      <c r="B199" s="110"/>
-      <c r="C199" s="113"/>
+        <v>384</v>
+      </c>
+      <c r="B199" s="102"/>
+      <c r="C199" s="107"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -11292,10 +11279,10 @@
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="B201" s="110" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="B201" s="102" t="s">
+        <v>393</v>
       </c>
       <c r="C201" s="39">
         <v>45615</v>
@@ -11303,52 +11290,52 @@
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="110"/>
-      <c r="C202" s="106"/>
+        <v>385</v>
+      </c>
+      <c r="B202" s="102"/>
+      <c r="C202" s="103"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="B203" s="110"/>
-      <c r="C203" s="106"/>
+        <v>386</v>
+      </c>
+      <c r="B203" s="102"/>
+      <c r="C203" s="103"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="B204" s="110"/>
-      <c r="C204" s="106"/>
+        <v>387</v>
+      </c>
+      <c r="B204" s="102"/>
+      <c r="C204" s="103"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="B205" s="110"/>
-      <c r="C205" s="106"/>
+        <v>388</v>
+      </c>
+      <c r="B205" s="102"/>
+      <c r="C205" s="103"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="B206" s="110"/>
-      <c r="C206" s="106"/>
+        <v>389</v>
+      </c>
+      <c r="B206" s="102"/>
+      <c r="C206" s="103"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="B207" s="110"/>
-      <c r="C207" s="106"/>
+        <v>390</v>
+      </c>
+      <c r="B207" s="102"/>
+      <c r="C207" s="103"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="B208" s="110"/>
-      <c r="C208" s="106"/>
+        <v>391</v>
+      </c>
+      <c r="B208" s="102"/>
+      <c r="C208" s="103"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -11357,19 +11344,19 @@
     </row>
     <row r="210" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="43" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="106" t="s">
-        <v>400</v>
+      <c r="C210" s="103" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="37" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="111"/>
+      <c r="C211" s="104"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -11378,11 +11365,11 @@
     </row>
     <row r="213" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="40" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11392,13 +11379,13 @@
     </row>
     <row r="215" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C215" s="40" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11408,10 +11395,10 @@
     </row>
     <row r="217" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C217" s="39">
         <v>45622</v>
@@ -11424,7 +11411,7 @@
     </row>
     <row r="219" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="37" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B219" s="38"/>
       <c r="C219" s="39">
@@ -11433,10 +11420,10 @@
     </row>
     <row r="221" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B221" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C221" s="66">
         <v>45666</v>
@@ -11447,10 +11434,10 @@
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="79" t="s">
+        <v>466</v>
+      </c>
+      <c r="B223" s="80" t="s">
         <v>470</v>
-      </c>
-      <c r="B223" s="80" t="s">
-        <v>474</v>
       </c>
       <c r="C223" s="81">
         <v>45681</v>
@@ -11458,25 +11445,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -11493,6 +11473,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -11518,102 +11505,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -11638,30 +11625,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="82" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\Договоренности актуальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A5AC7A-3DDB-4AFC-B539-37048646BEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0ACC32-CBD5-421B-835B-46F8B063BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="871">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -925,9 +925,6 @@
   </si>
   <si>
     <t>Потерял симку/номер</t>
-  </si>
-  <si>
-    <t>Без вопроса</t>
   </si>
   <si>
     <t>Пример: 
@@ -1402,10 +1399,6 @@
   </si>
   <si>
     <t>справки и выписки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вместо консультации на оператора
-</t>
   </si>
   <si>
     <t xml:space="preserve">у меня по терминалу не проходит оплата по qr коду </t>
@@ -2624,9 +2617,6 @@
   </si>
   <si>
     <t>General Приветствие ( General_Hello)</t>
-  </si>
-  <si>
-    <t>General Без вопроса ( General_Whithout_Question)</t>
   </si>
   <si>
     <t>General_Подтверждение сим-карты ( General_Sim_Confirmation)</t>
@@ -3357,22 +3347,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3383,6 +3357,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3391,6 +3371,16 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3669,7 +3659,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3717,7 +3707,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3765,7 +3755,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>126151</xdr:rowOff>
+      <xdr:rowOff>126150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4170,7 +4160,7 @@
   <dimension ref="A1:H421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4187,30 +4177,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>850</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>851</v>
+      </c>
+      <c r="D1" s="89" t="s">
         <v>852</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="E1" s="89" t="s">
         <v>853</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>854</v>
-      </c>
-      <c r="D1" s="89" t="s">
-        <v>855</v>
-      </c>
-      <c r="E1" s="89" t="s">
-        <v>856</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -4219,13 +4209,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -4233,13 +4223,13 @@
     </row>
     <row r="4" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -4251,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -4263,7 +4253,7 @@
         <v>230</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -4275,10 +4265,10 @@
         <v>253</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
@@ -4302,7 +4292,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="89"/>
@@ -4314,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
@@ -4323,10 +4313,10 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="89"/>
@@ -4347,10 +4337,10 @@
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
@@ -4359,10 +4349,10 @@
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -4374,7 +4364,7 @@
         <v>229</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
@@ -4383,10 +4373,10 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
@@ -4395,7 +4385,7 @@
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>177</v>
@@ -4410,7 +4400,7 @@
         <v>183</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>250</v>
@@ -4424,10 +4414,10 @@
         <v>184</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C19" s="89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -4462,7 +4452,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
@@ -4474,7 +4464,7 @@
         <v>188</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -4486,7 +4476,7 @@
         <v>189</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
@@ -4507,7 +4497,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B26" s="89" t="s">
         <v>177</v>
@@ -4522,7 +4512,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="89"/>
@@ -4531,13 +4521,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
@@ -4545,10 +4535,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="89" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
@@ -4557,7 +4547,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="89" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B30" s="89" t="s">
         <v>177</v>
@@ -4569,13 +4559,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
@@ -4583,10 +4573,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="89"/>
@@ -4595,10 +4585,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="89"/>
@@ -4610,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
@@ -4622,10 +4612,10 @@
         <v>182</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
@@ -4633,10 +4623,10 @@
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="89" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C36" s="89"/>
       <c r="D36" s="89"/>
@@ -4648,10 +4638,10 @@
         <v>180</v>
       </c>
       <c r="B37" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
@@ -4659,13 +4649,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="89" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B38" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
@@ -4685,13 +4675,13 @@
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="89" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D40" s="89"/>
       <c r="E40" s="89"/>
@@ -4699,10 +4689,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="89" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -4726,10 +4716,10 @@
         <v>193</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D43" s="89"/>
       <c r="E43" s="89"/>
@@ -4752,7 +4742,7 @@
         <v>195</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C45" s="89"/>
       <c r="D45" s="89"/>
@@ -4764,10 +4754,10 @@
         <v>196</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C46" s="89" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
@@ -4778,7 +4768,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C47" s="89"/>
       <c r="D47" s="89"/>
@@ -4790,7 +4780,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="89"/>
@@ -4802,7 +4792,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="89"/>
@@ -4814,10 +4804,10 @@
         <v>179</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
@@ -4840,10 +4830,10 @@
         <v>197</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
@@ -4875,10 +4865,10 @@
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="89" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C55" s="89"/>
       <c r="D55" s="89"/>
@@ -4893,7 +4883,7 @@
         <v>251</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
@@ -4916,7 +4906,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C58" s="89"/>
       <c r="D58" s="89"/>
@@ -4937,10 +4927,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="89" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C60" s="89"/>
       <c r="D60" s="89"/>
@@ -4952,7 +4942,7 @@
         <v>203</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
@@ -4965,10 +4955,10 @@
         <v>117</v>
       </c>
       <c r="B62" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D62" s="89"/>
       <c r="E62" s="89"/>
@@ -4991,10 +4981,10 @@
         <v>204</v>
       </c>
       <c r="B64" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D64" s="89"/>
       <c r="E64" s="89"/>
@@ -5005,7 +4995,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C65" s="89"/>
       <c r="D65" s="89"/>
@@ -5017,10 +5007,10 @@
         <v>206</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="89"/>
@@ -5031,7 +5021,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C67" s="89"/>
       <c r="D67" s="89"/>
@@ -5043,10 +5033,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="89" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C68" s="89" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D68" s="89"/>
       <c r="E68" s="89"/>
@@ -5069,10 +5059,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C70" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D70" s="89"/>
       <c r="E70" s="89"/>
@@ -5083,10 +5073,10 @@
         <v>211</v>
       </c>
       <c r="B71" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C71" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
@@ -5094,13 +5084,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="89" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B72" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C72" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D72" s="89"/>
       <c r="E72" s="89"/>
@@ -5108,10 +5098,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="B73" s="89" t="s">
         <v>415</v>
-      </c>
-      <c r="B73" s="89" t="s">
-        <v>416</v>
       </c>
       <c r="C73" s="89"/>
       <c r="D73" s="89"/>
@@ -5120,13 +5110,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B74" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C74" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D74" s="89"/>
       <c r="E74" s="89"/>
@@ -5137,10 +5127,10 @@
         <v>221</v>
       </c>
       <c r="B75" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C75" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="89"/>
@@ -5163,7 +5153,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C77" s="89"/>
       <c r="D77" s="89"/>
@@ -5178,7 +5168,7 @@
         <v>251</v>
       </c>
       <c r="C78" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
@@ -5192,13 +5182,13 @@
         <v>256</v>
       </c>
       <c r="C79" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D79" s="89" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E79" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F79" s="89"/>
     </row>
@@ -5219,7 +5209,7 @@
         <v>215</v>
       </c>
       <c r="B81" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C81" s="89"/>
       <c r="D81" s="89"/>
@@ -5228,7 +5218,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="89" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B82" s="89" t="s">
         <v>177</v>
@@ -5240,7 +5230,7 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="89" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B83" s="89" t="s">
         <v>177</v>
@@ -5255,7 +5245,7 @@
         <v>214</v>
       </c>
       <c r="B84" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C84" s="89"/>
       <c r="D84" s="89"/>
@@ -5267,7 +5257,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="89" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C85" s="89"/>
       <c r="D85" s="89"/>
@@ -5276,7 +5266,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="89" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B86" s="89" t="s">
         <v>177</v>
@@ -5288,7 +5278,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="89" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B87" s="89" t="s">
         <v>177</v>
@@ -5328,7 +5318,7 @@
         <v>226</v>
       </c>
       <c r="B90" s="89" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C90" s="89"/>
       <c r="D90" s="89"/>
@@ -5352,7 +5342,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="89" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C92" s="89"/>
       <c r="D92" s="89"/>
@@ -5367,7 +5357,7 @@
         <v>250</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D93" s="89"/>
       <c r="E93" s="89"/>
@@ -5378,7 +5368,7 @@
         <v>159</v>
       </c>
       <c r="B94" s="89" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C94" s="89"/>
       <c r="D94" s="89"/>
@@ -5390,7 +5380,7 @@
         <v>223</v>
       </c>
       <c r="B95" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C95" s="89"/>
       <c r="D95" s="89"/>
@@ -5405,7 +5395,7 @@
         <v>250</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D96" s="89"/>
       <c r="E96" s="89"/>
@@ -5452,10 +5442,10 @@
         <v>238</v>
       </c>
       <c r="B100" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C100" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D100" s="89"/>
       <c r="E100" s="89"/>
@@ -5514,7 +5504,7 @@
         <v>243</v>
       </c>
       <c r="B105" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C105" s="89"/>
       <c r="D105" s="89"/>
@@ -5526,10 +5516,10 @@
         <v>244</v>
       </c>
       <c r="B106" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D106" s="89"/>
       <c r="E106" s="89"/>
@@ -5540,10 +5530,10 @@
         <v>231</v>
       </c>
       <c r="B107" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C107" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D107" s="89"/>
       <c r="E107" s="89"/>
@@ -5554,7 +5544,7 @@
         <v>232</v>
       </c>
       <c r="B108" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C108" s="89"/>
       <c r="D108" s="89"/>
@@ -5566,7 +5556,7 @@
         <v>245</v>
       </c>
       <c r="B109" s="89" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C109" s="89"/>
       <c r="D109" s="89"/>
@@ -5590,7 +5580,7 @@
         <v>247</v>
       </c>
       <c r="B111" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C111" s="89"/>
       <c r="D111" s="89"/>
@@ -5614,10 +5604,10 @@
         <v>233</v>
       </c>
       <c r="B113" s="89" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C113" s="89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D113" s="89"/>
       <c r="E113" s="89"/>
@@ -5628,7 +5618,7 @@
         <v>234</v>
       </c>
       <c r="B114" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C114" s="89"/>
       <c r="D114" s="89"/>
@@ -5637,10 +5627,10 @@
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="89" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B115" s="89" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C115" s="89"/>
       <c r="D115" s="89"/>
@@ -5652,7 +5642,7 @@
         <v>262</v>
       </c>
       <c r="B116" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C116" s="89"/>
       <c r="D116" s="89"/>
@@ -5664,10 +5654,10 @@
         <v>263</v>
       </c>
       <c r="B117" s="89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C117" s="89" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D117" s="89"/>
       <c r="E117" s="89"/>
@@ -5678,10 +5668,10 @@
         <v>265</v>
       </c>
       <c r="B118" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C118" s="89" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D118" s="89"/>
       <c r="E118" s="89"/>
@@ -5689,7 +5679,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="89" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B119" s="89" t="s">
         <v>177</v>
@@ -5704,10 +5694,10 @@
         <v>266</v>
       </c>
       <c r="B120" s="89" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C120" s="89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D120" s="89"/>
       <c r="E120" s="89"/>
@@ -5718,10 +5708,10 @@
         <v>267</v>
       </c>
       <c r="B121" s="89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C121" s="89" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D121" s="89"/>
       <c r="E121" s="89"/>
@@ -5729,13 +5719,13 @@
     </row>
     <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="89" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C122" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D122" s="89"/>
       <c r="E122" s="89"/>
@@ -5746,7 +5736,7 @@
         <v>268</v>
       </c>
       <c r="B123" s="89" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C123" s="89"/>
       <c r="D123" s="89"/>
@@ -5758,7 +5748,7 @@
         <v>280</v>
       </c>
       <c r="B124" s="89" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C124" s="89"/>
       <c r="D124" s="89"/>
@@ -5767,7 +5757,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="89" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B125" s="89" t="s">
         <v>177</v>
@@ -5779,10 +5769,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="89" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B126" s="89" t="s">
-        <v>282</v>
+        <v>708</v>
       </c>
       <c r="C126" s="89"/>
       <c r="D126" s="89"/>
@@ -5794,7 +5784,7 @@
         <v>279</v>
       </c>
       <c r="B127" s="89" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C127" s="89"/>
       <c r="D127" s="89"/>
@@ -5806,16 +5796,16 @@
         <v>277</v>
       </c>
       <c r="B128" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="D128" s="89" t="s">
+        <v>810</v>
+      </c>
+      <c r="E128" s="89" t="s">
         <v>749</v>
-      </c>
-      <c r="C128" s="89" t="s">
-        <v>750</v>
-      </c>
-      <c r="D128" s="89" t="s">
-        <v>812</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>751</v>
       </c>
       <c r="F128" s="89"/>
     </row>
@@ -5839,7 +5829,7 @@
         <v>257</v>
       </c>
       <c r="C130" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D130" s="89"/>
       <c r="E130" s="89"/>
@@ -5850,10 +5840,10 @@
         <v>273</v>
       </c>
       <c r="B131" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C131" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D131" s="89"/>
       <c r="E131" s="89"/>
@@ -5885,10 +5875,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="89" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B134" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C134" s="89"/>
       <c r="D134" s="89"/>
@@ -5897,7 +5887,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="89" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B135" s="89" t="s">
         <v>177</v>
@@ -5909,13 +5899,13 @@
     </row>
     <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B136" s="89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C136" s="89" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D136" s="89"/>
       <c r="E136" s="89"/>
@@ -5923,10 +5913,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B137" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C137" s="89"/>
       <c r="D137" s="89"/>
@@ -5935,10 +5925,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B138" s="89" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C138" s="89"/>
       <c r="D138" s="89"/>
@@ -5947,10 +5937,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B139" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C139" s="89"/>
       <c r="D139" s="89"/>
@@ -5959,10 +5949,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B140" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C140" s="89"/>
       <c r="D140" s="89"/>
@@ -5971,13 +5961,13 @@
     </row>
     <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D141" s="89"/>
       <c r="E141" s="89"/>
@@ -5985,13 +5975,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="89" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B142" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C142" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
@@ -5999,10 +5989,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="89" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B143" s="89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C143" s="89"/>
       <c r="D143" s="89"/>
@@ -6011,10 +6001,10 @@
     </row>
     <row r="144" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="89" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B144" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C144" s="89"/>
       <c r="D144" s="89"/>
@@ -6023,7 +6013,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B145" s="89" t="s">
         <v>177</v>
@@ -6035,13 +6025,13 @@
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="89" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B146" s="89" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C146" s="89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D146" s="89"/>
       <c r="E146" s="89"/>
@@ -6049,22 +6039,22 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" s="89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C147" s="89"/>
       <c r="D147" s="89"/>
       <c r="E147" s="89"/>
       <c r="F147" s="89"/>
     </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C148" s="89"/>
       <c r="D148" s="89"/>
@@ -6073,10 +6063,10 @@
     </row>
     <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B149" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C149" s="89"/>
       <c r="D149" s="89"/>
@@ -6085,7 +6075,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B150" s="89" t="s">
         <v>177</v>
@@ -6097,10 +6087,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="89" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B151" s="89" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C151" s="89"/>
       <c r="D151" s="89"/>
@@ -6109,7 +6099,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B152" s="89" t="s">
         <v>177</v>
@@ -6121,10 +6111,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B153" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
@@ -6133,13 +6123,13 @@
     </row>
     <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B154" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C154" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D154" s="89"/>
       <c r="E154" s="89"/>
@@ -6147,13 +6137,13 @@
     </row>
     <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B155" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C155" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D155" s="89"/>
       <c r="E155" s="89"/>
@@ -6161,13 +6151,13 @@
     </row>
     <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B156" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C156" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D156" s="89"/>
       <c r="E156" s="89"/>
@@ -6175,10 +6165,10 @@
     </row>
     <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="89" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B157" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C157" s="89"/>
       <c r="D157" s="89"/>
@@ -6187,13 +6177,13 @@
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B158" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C158" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D158" s="89"/>
       <c r="E158" s="89"/>
@@ -6201,24 +6191,24 @@
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B159" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C159" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D159" s="89"/>
       <c r="E159" s="89"/>
       <c r="F159" s="89"/>
     </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="89" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B160" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C160" s="89"/>
       <c r="D160" s="89"/>
@@ -6227,10 +6217,10 @@
     </row>
     <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B161" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C161" s="89"/>
       <c r="D161" s="89"/>
@@ -6239,10 +6229,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="89" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B162" s="89" t="s">
-        <v>282</v>
+        <v>708</v>
       </c>
       <c r="C162" s="89"/>
       <c r="D162" s="89"/>
@@ -6251,7 +6241,7 @@
     </row>
     <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B163" s="89" t="s">
         <v>177</v>
@@ -6263,13 +6253,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B164" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C164" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D164" s="89"/>
       <c r="E164" s="89"/>
@@ -6277,10 +6267,10 @@
     </row>
     <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B165" s="89" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C165" s="89"/>
       <c r="D165" s="89"/>
@@ -6289,10 +6279,10 @@
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="89" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B166" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C166" s="89"/>
       <c r="D166" s="89"/>
@@ -6301,13 +6291,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C167" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D167" s="89"/>
       <c r="E167" s="89"/>
@@ -6315,10 +6305,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="89" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B168" s="89" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C168" s="89"/>
       <c r="D168" s="89"/>
@@ -6327,10 +6317,10 @@
     </row>
     <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="89" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B169" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C169" s="89"/>
       <c r="D169" s="89"/>
@@ -6339,10 +6329,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B170" s="89" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C170" s="89"/>
       <c r="D170" s="89"/>
@@ -6351,7 +6341,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B171" s="89" t="s">
         <v>258</v>
@@ -6366,7 +6356,7 @@
         <v>281</v>
       </c>
       <c r="B172" s="89" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C172" s="89"/>
       <c r="D172" s="89"/>
@@ -6375,13 +6365,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B173" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C173" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D173" s="89"/>
       <c r="E173" s="89"/>
@@ -6389,36 +6379,36 @@
     </row>
     <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B174" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C174" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D174" s="89"/>
       <c r="E174" s="89"/>
       <c r="F174" s="89"/>
     </row>
-    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B175" s="89" t="s">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="C175" s="89"/>
       <c r="D175" s="89"/>
       <c r="E175" s="89"/>
       <c r="F175" s="89"/>
     </row>
-    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B176" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C176" s="89"/>
       <c r="D176" s="89"/>
@@ -6427,34 +6417,34 @@
     </row>
     <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B177" s="89" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C177" s="89"/>
       <c r="D177" s="89"/>
       <c r="E177" s="89"/>
       <c r="F177" s="89"/>
     </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B178" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C178" s="89"/>
       <c r="D178" s="89"/>
       <c r="E178" s="89"/>
       <c r="F178" s="89"/>
     </row>
-    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B179" s="89" t="s">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="C179" s="89"/>
       <c r="D179" s="89"/>
@@ -6463,13 +6453,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B180" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C180" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D180" s="89"/>
       <c r="E180" s="89"/>
@@ -6477,7 +6467,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B181" s="89" t="s">
         <v>177</v>
@@ -6489,10 +6479,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B182" s="89" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C182" s="89"/>
       <c r="D182" s="89"/>
@@ -6501,10 +6491,10 @@
     </row>
     <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B183" s="89" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C183" s="89"/>
       <c r="D183" s="89"/>
@@ -6513,13 +6503,13 @@
     </row>
     <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B184" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C184" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D184" s="89"/>
       <c r="E184" s="89"/>
@@ -6527,7 +6517,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="89" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" s="89" t="s">
         <v>177</v>
@@ -6539,10 +6529,10 @@
     </row>
     <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B186" s="89" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C186" s="89"/>
       <c r="D186" s="89"/>
@@ -6551,13 +6541,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B187" s="89" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C187" s="89" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D187" s="89"/>
       <c r="E187" s="89"/>
@@ -6565,13 +6555,13 @@
     </row>
     <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B188" s="89" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C188" s="89" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D188" s="89"/>
       <c r="E188" s="89"/>
@@ -6579,10 +6569,10 @@
     </row>
     <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B189" s="94" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C189" s="89"/>
       <c r="D189" s="89"/>
@@ -6591,7 +6581,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B190" s="89" t="s">
         <v>177</v>
@@ -6603,13 +6593,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="89" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B191" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C191" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D191" s="89"/>
       <c r="E191" s="89"/>
@@ -6617,13 +6607,13 @@
     </row>
     <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B192" s="89" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C192" s="89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D192" s="89"/>
       <c r="E192" s="89"/>
@@ -6631,10 +6621,10 @@
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="89" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B193" s="89" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C193" s="89"/>
       <c r="D193" s="89"/>
@@ -6643,10 +6633,10 @@
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="89" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B194" s="89" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C194" s="89"/>
       <c r="D194" s="89"/>
@@ -6655,24 +6645,24 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="89" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B195" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C195" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D195" s="89"/>
       <c r="E195" s="89"/>
       <c r="F195" s="89"/>
     </row>
-    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="89" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B196" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C196" s="89"/>
       <c r="D196" s="89"/>
@@ -6681,10 +6671,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="89" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B197" s="89" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C197" s="89"/>
       <c r="D197" s="89"/>
@@ -6694,10 +6684,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B198" s="89" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C198" s="89"/>
       <c r="D198" s="89"/>
@@ -6706,10 +6696,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B199" s="89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C199" s="89"/>
       <c r="D199" s="89"/>
@@ -6718,10 +6708,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B200" s="89" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C200" s="89"/>
       <c r="D200" s="89"/>
@@ -6730,24 +6720,24 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="89" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B201" s="89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C201" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D201" s="89"/>
       <c r="E201" s="89"/>
       <c r="F201" s="89"/>
     </row>
-    <row r="202" spans="1:7" s="85" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="89" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B202" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C202" s="89"/>
       <c r="D202" s="89"/>
@@ -6757,46 +6747,46 @@
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="89" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B203" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C203" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="D203" s="89" t="s">
+        <v>810</v>
+      </c>
+      <c r="E203" s="89" t="s">
         <v>749</v>
       </c>
-      <c r="C203" s="89" t="s">
-        <v>750</v>
-      </c>
-      <c r="D203" s="89" t="s">
-        <v>812</v>
-      </c>
-      <c r="E203" s="89" t="s">
-        <v>751</v>
-      </c>
       <c r="F203" s="92" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B204" s="89" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C204" s="89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D204" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E204" s="89"/>
       <c r="F204" s="89"/>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="89" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B205" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C205" s="89"/>
       <c r="D205" s="89"/>
@@ -6805,10 +6795,10 @@
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="89" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B206" s="89" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C206" s="89"/>
       <c r="D206" s="89"/>
@@ -6817,13 +6807,13 @@
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B207" s="89" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C207" s="89" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D207" s="89"/>
       <c r="E207" s="89"/>
@@ -6831,49 +6821,49 @@
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B208" s="89" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C208" s="89" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D208" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E208" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F208" s="89"/>
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="89" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B209" s="89" t="s">
         <v>256</v>
       </c>
       <c r="C209" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D209" s="89" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E209" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F209" s="89"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B210" s="89" t="s">
         <v>250</v>
       </c>
       <c r="C210" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D210" s="89"/>
       <c r="E210" s="89"/>
@@ -6881,26 +6871,26 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="89" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B211" s="89" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C211" s="89" t="s">
+        <v>760</v>
+      </c>
+      <c r="D211" s="89" t="s">
         <v>762</v>
-      </c>
-      <c r="D211" s="89" t="s">
-        <v>764</v>
       </c>
       <c r="E211" s="89"/>
       <c r="F211" s="89"/>
     </row>
-    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="89" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B212" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C212" s="89"/>
       <c r="D212" s="89"/>
@@ -6909,29 +6899,29 @@
     </row>
     <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="89" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B213" s="89" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C213" s="89" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D213" s="89" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E213" s="89"/>
       <c r="F213" s="89"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="89" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B214" s="89" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C214" s="89" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D214" s="89"/>
       <c r="E214" s="89"/>
@@ -6939,10 +6929,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B215" s="89" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C215" s="89"/>
       <c r="D215" s="89"/>
@@ -6951,13 +6941,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="89" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B216" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C216" s="89" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D216" s="89"/>
       <c r="E216" s="89"/>
@@ -6965,10 +6955,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B217" s="89" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C217" s="89"/>
       <c r="D217" s="89"/>
@@ -6977,13 +6967,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B218" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C218" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D218" s="89"/>
       <c r="E218" s="89"/>
@@ -6991,13 +6981,13 @@
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B219" s="89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C219" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D219" s="89"/>
       <c r="E219" s="89"/>
@@ -7006,10 +6996,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B220" s="89" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C220" s="89"/>
       <c r="D220" s="89"/>
@@ -7018,13 +7008,13 @@
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="89" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B221" s="89" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C221" s="89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D221" s="89"/>
       <c r="E221" s="89"/>
@@ -7032,10 +7022,10 @@
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="89" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B222" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C222" s="89"/>
       <c r="D222" s="89"/>
@@ -7044,13 +7034,13 @@
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="89" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B223" s="89" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C223" s="89" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D223" s="89"/>
       <c r="E223" s="89"/>
@@ -7058,10 +7048,10 @@
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B224" s="89" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C224" s="89"/>
       <c r="D224" s="89"/>
@@ -7070,10 +7060,10 @@
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="89" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B225" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C225" s="89"/>
       <c r="D225" s="89"/>
@@ -7082,10 +7072,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="89" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B226" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C226" s="89"/>
       <c r="D226" s="89"/>
@@ -7094,22 +7084,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="89" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B227" s="89" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C227" s="89"/>
       <c r="D227" s="89"/>
       <c r="E227" s="89"/>
       <c r="F227" s="89"/>
     </row>
-    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="89" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B228" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C228" s="89"/>
       <c r="D228" s="89"/>
@@ -7118,10 +7108,10 @@
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B229" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C229" s="89"/>
       <c r="D229" s="89"/>
@@ -7130,13 +7120,13 @@
     </row>
     <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="89" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B230" s="89" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C230" s="89" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D230" s="89"/>
       <c r="E230" s="89"/>
@@ -7144,13 +7134,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="89" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B231" s="89" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C231" s="89" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D231" s="89"/>
       <c r="E231" s="89"/>
@@ -7158,29 +7148,29 @@
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="89" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B232" s="89" t="s">
         <v>256</v>
       </c>
       <c r="C232" s="89" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D232" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E232" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F232" s="89"/>
       <c r="G232" s="70"/>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="89" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B233" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C233" s="89"/>
       <c r="D233" s="89"/>
@@ -7189,13 +7179,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="89" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B234" s="89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C234" s="89" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D234" s="89"/>
       <c r="E234" s="89"/>
@@ -7203,10 +7193,10 @@
     </row>
     <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="89" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B235" s="89" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C235" s="89"/>
       <c r="D235" s="89"/>
@@ -7215,10 +7205,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="89" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B236" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C236" s="89"/>
       <c r="D236" s="89"/>
@@ -7227,10 +7217,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="89" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B237" s="89" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C237" s="89"/>
       <c r="D237" s="89"/>
@@ -7239,10 +7229,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="89" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B238" s="89" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C238" s="89"/>
       <c r="D238" s="89"/>
@@ -7251,13 +7241,13 @@
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="89" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B239" s="89" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C239" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D239" s="89"/>
       <c r="E239" s="89"/>
@@ -7265,10 +7255,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="89" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B240" s="89" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C240" s="89"/>
       <c r="D240" s="89"/>
@@ -7277,10 +7267,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="89" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B241" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C241" s="89"/>
       <c r="D241" s="89"/>
@@ -7289,10 +7279,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="89" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B242" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C242" s="89"/>
       <c r="D242" s="89"/>
@@ -7301,13 +7291,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="89" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B243" s="89" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C243" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D243" s="89"/>
       <c r="E243" s="89"/>
@@ -7315,13 +7305,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="89" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B244" s="89" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C244" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D244" s="89"/>
       <c r="E244" s="89"/>
@@ -7329,10 +7319,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="89" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B245" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C245" s="89"/>
       <c r="D245" s="89"/>
@@ -7341,13 +7331,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="89" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B246" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C246" s="89" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D246" s="89"/>
       <c r="E246" s="89"/>
@@ -7355,13 +7345,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="93" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B247" s="93" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C247" s="93" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D247" s="89"/>
       <c r="E247" s="89"/>
@@ -7369,47 +7359,47 @@
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="89" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B248" s="89" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C248" s="89" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D248" s="89" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E248" s="89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F248" s="89"/>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="89" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B249" s="89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C249" s="89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D249" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E249" s="89"/>
       <c r="F249" s="89"/>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="89" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B250" s="89" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C250" s="89" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D250" s="89"/>
       <c r="E250" s="89"/>
@@ -7417,10 +7407,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="89" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B251" s="89" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C251" s="89"/>
       <c r="D251" s="89"/>
@@ -7429,13 +7419,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="89" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B252" s="89" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C252" s="89" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D252" s="89"/>
       <c r="E252" s="89"/>
@@ -7443,10 +7433,10 @@
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="89" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B253" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C253" s="89"/>
       <c r="D253" s="89"/>
@@ -7455,10 +7445,10 @@
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="89" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B254" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C254" s="89"/>
       <c r="D254" s="89"/>
@@ -7467,13 +7457,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="89" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B255" s="89" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C255" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D255" s="89"/>
       <c r="E255" s="89"/>
@@ -7482,13 +7472,13 @@
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="89" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B256" s="89" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C256" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D256" s="89"/>
       <c r="E256" s="89"/>
@@ -7496,10 +7486,10 @@
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="89" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B257" s="89" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C257" s="89"/>
       <c r="D257" s="89"/>
@@ -7508,10 +7498,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="89" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B258" s="89" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C258" s="89"/>
       <c r="D258" s="89"/>
@@ -7520,13 +7510,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="89" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B259" s="89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C259" s="89" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D259" s="89"/>
       <c r="E259" s="89"/>
@@ -7534,26 +7524,26 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="89" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B260" s="89" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C260" s="89" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D260" s="89" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E260" s="89"/>
       <c r="F260" s="89"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="89" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B261" s="89" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C261" s="89"/>
       <c r="D261" s="89"/>
@@ -7562,23 +7552,23 @@
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="89" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B262" s="89" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C262" s="89" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D262" s="89" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E262" s="89"/>
       <c r="F262" s="89"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="89" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B263" s="89" t="s">
         <v>177</v>
@@ -7590,16 +7580,16 @@
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="89" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B264" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C264" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D264" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E264" s="89"/>
       <c r="F264" s="89"/>
@@ -7609,10 +7599,10 @@
         <v>212</v>
       </c>
       <c r="B265" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C265" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D265" s="89"/>
       <c r="E265" s="89"/>
@@ -7626,7 +7616,7 @@
         <v>251</v>
       </c>
       <c r="C266" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D266" s="89"/>
       <c r="E266" s="89"/>
@@ -7634,47 +7624,47 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="89" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B267" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C267" s="89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D267" s="89" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F267" s="89"/>
     </row>
     <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="89" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B268" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C268" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D268" s="89" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E268" s="89"/>
       <c r="F268" s="89"/>
     </row>
     <row r="269" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="89" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B269" s="89" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C269" s="89" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D269" s="89"/>
       <c r="E269" s="89"/>
@@ -7682,47 +7672,47 @@
     </row>
     <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="89" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B270" s="89" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C270" s="89" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D270" s="89" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E270" s="89"/>
       <c r="F270" s="89"/>
     </row>
     <row r="271" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B271" s="89" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C271" s="89" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D271" s="89" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E271" s="89" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F271" s="89"/>
     </row>
     <row r="272" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="89" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B272" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C272" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D272" s="89"/>
       <c r="E272" s="89"/>
@@ -7730,10 +7720,10 @@
     </row>
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="89" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B273" s="89" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C273" s="89"/>
       <c r="D273" s="89"/>
@@ -7742,7 +7732,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="89" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B274" s="89" t="s">
         <v>0</v>
@@ -7754,10 +7744,10 @@
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="89" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B275" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C275" s="89"/>
       <c r="D275" s="89"/>
@@ -7766,13 +7756,13 @@
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="89" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B276" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C276" s="89" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D276" s="89"/>
       <c r="E276" s="89"/>
@@ -7780,10 +7770,10 @@
     </row>
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="89" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B277" s="89" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C277" s="89"/>
       <c r="D277" s="89"/>
@@ -7792,13 +7782,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="89" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B278" s="89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C278" s="89" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D278" s="89"/>
       <c r="E278" s="89"/>
@@ -7806,13 +7796,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="89" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B279" s="89" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C279" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D279" s="89"/>
       <c r="E279" s="89"/>
@@ -7820,10 +7810,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="89" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B280" s="89" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C280" s="89"/>
       <c r="D280" s="89"/>
@@ -7832,13 +7822,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="89" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B281" s="89" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C281" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D281" s="89"/>
       <c r="E281" s="89"/>
@@ -7846,10 +7836,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="89" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B282" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C282" s="89"/>
       <c r="D282" s="89"/>
@@ -7858,24 +7848,24 @@
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="89" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B283" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C283" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D283" s="89"/>
       <c r="E283" s="89"/>
       <c r="F283" s="89"/>
     </row>
-    <row r="284" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="89" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B284" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C284" s="89"/>
       <c r="D284" s="89"/>
@@ -7885,10 +7875,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="89" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B285" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C285" s="89"/>
       <c r="D285" s="89"/>
@@ -7897,10 +7887,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="89" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B286" s="89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C286" s="89"/>
       <c r="D286" s="89"/>
@@ -7909,26 +7899,26 @@
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="89" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B287" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="C287" s="89" t="s">
+        <v>748</v>
+      </c>
+      <c r="D287" s="89" t="s">
         <v>749</v>
-      </c>
-      <c r="C287" s="89" t="s">
-        <v>750</v>
-      </c>
-      <c r="D287" s="89" t="s">
-        <v>751</v>
       </c>
       <c r="E287" s="89"/>
       <c r="F287" s="89"/>
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="89" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B288" s="89" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C288" s="89"/>
       <c r="D288" s="89"/>
@@ -7937,10 +7927,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="89" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B289" s="89" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C289" s="89"/>
       <c r="D289" s="89"/>
@@ -7952,10 +7942,10 @@
         <v>178</v>
       </c>
       <c r="B290" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C290" s="89" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D290" s="89"/>
       <c r="E290" s="89"/>
@@ -7963,13 +7953,13 @@
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="89" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B291" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C291" s="89" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D291" s="89"/>
       <c r="E291" s="89"/>
@@ -7980,7 +7970,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="89" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C292" s="89"/>
       <c r="D292" s="89"/>
@@ -7989,13 +7979,13 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B293" s="89" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C293" s="89" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D293" s="89"/>
       <c r="E293" s="89"/>
@@ -8003,13 +7993,13 @@
     </row>
     <row r="294" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B294" s="89" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C294" s="89" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D294" s="89"/>
       <c r="E294" s="89"/>
@@ -8017,13 +8007,13 @@
     </row>
     <row r="295" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="89" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B295" s="89" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C295" s="89" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D295" s="89"/>
       <c r="E295" s="89"/>
@@ -8031,29 +8021,29 @@
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="89" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B296" s="89" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C296" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D296" s="89" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E296" s="89"/>
       <c r="F296" s="89"/>
     </row>
     <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="89" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B297" s="89" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C297" s="89" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D297" s="89"/>
       <c r="E297" s="89"/>
@@ -8061,47 +8051,47 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="89" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B298" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C298" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D298" s="89" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E298" s="89" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F298" s="89"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="89" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B299" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C299" s="89" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D299" s="89" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E299" s="89"/>
       <c r="F299" s="89"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="89" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B300" s="89" t="s">
         <v>255</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D300" s="89"/>
       <c r="E300" s="89"/>
@@ -8109,13 +8099,13 @@
     </row>
     <row r="301" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="89" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B301" s="89" t="s">
         <v>255</v>
       </c>
       <c r="C301" s="89" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D301" s="89"/>
       <c r="E301" s="89"/>
@@ -8123,10 +8113,10 @@
     </row>
     <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="89" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B302" s="89" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C302" s="89"/>
       <c r="D302" s="89"/>
@@ -8135,13 +8125,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="93" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B303" s="89" t="s">
         <v>250</v>
       </c>
       <c r="C303" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D303" s="89"/>
       <c r="E303" s="89"/>
@@ -8149,13 +8139,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="89" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B304" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C304" s="89" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D304" s="89"/>
       <c r="E304" s="89"/>
@@ -8163,13 +8153,13 @@
     </row>
     <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="89" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B305" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C305" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D305" s="89"/>
       <c r="E305" s="89"/>
@@ -8177,10 +8167,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="95" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B306" s="89" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C306" s="89"/>
       <c r="D306" s="89"/>
@@ -8189,10 +8179,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="93" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B307" s="89" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C307" s="89"/>
       <c r="D307" s="89"/>
@@ -8201,13 +8191,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="93" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B308" s="93" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C308" s="93" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D308" s="93"/>
       <c r="E308" s="89"/>
@@ -8215,10 +8205,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="89" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B309" s="93" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C309" s="93"/>
       <c r="D309" s="89"/>
@@ -8227,10 +8217,10 @@
     </row>
     <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="93" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B310" s="89" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C310" s="89"/>
       <c r="D310" s="89"/>
@@ -8239,13 +8229,13 @@
     </row>
     <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="89" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B311" s="89" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C311" s="89" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D311" s="89"/>
       <c r="E311" s="89"/>
@@ -8253,10 +8243,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="89" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B312" s="89" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C312" s="89"/>
       <c r="D312" s="89"/>
@@ -8265,10 +8255,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="89" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B313" s="89" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C313" s="89"/>
       <c r="D313" s="89"/>
@@ -8277,10 +8267,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="89" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B314" s="89" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C314" s="89"/>
       <c r="D314" s="89"/>
@@ -8289,10 +8279,10 @@
     </row>
     <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="89" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B315" s="89" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C315" s="89"/>
       <c r="D315" s="89"/>
@@ -8301,13 +8291,13 @@
     </row>
     <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="89" t="s">
+        <v>569</v>
+      </c>
+      <c r="B316" s="89" t="s">
         <v>571</v>
       </c>
-      <c r="B316" s="89" t="s">
-        <v>573</v>
-      </c>
       <c r="C316" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D316" s="89"/>
       <c r="E316" s="89"/>
@@ -8315,13 +8305,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="89" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B317" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C317" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D317" s="89"/>
       <c r="E317" s="89"/>
@@ -8329,10 +8319,10 @@
     </row>
     <row r="318" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="89" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B318" s="89" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C318" s="89"/>
       <c r="D318" s="89"/>
@@ -8341,13 +8331,13 @@
     </row>
     <row r="319" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="89" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B319" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C319" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D319" s="89"/>
       <c r="E319" s="89"/>
@@ -8355,7 +8345,7 @@
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="89" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B320" s="89" t="s">
         <v>177</v>
@@ -8367,26 +8357,26 @@
     </row>
     <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="89" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B321" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C321" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D321" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E321" s="89"/>
       <c r="F321" s="89"/>
     </row>
     <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="89" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B322" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C322" s="89"/>
       <c r="D322" s="89"/>
@@ -8395,26 +8385,26 @@
     </row>
     <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="89" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B323" s="89" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C323" s="89" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D323" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E323" s="89"/>
       <c r="F323" s="89"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="89" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B324" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C324" s="89"/>
       <c r="D324" s="89"/>
@@ -8423,10 +8413,10 @@
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="89" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B325" s="89" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C325" s="89"/>
       <c r="D325" s="89"/>
@@ -8435,10 +8425,10 @@
     </row>
     <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="89" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B326" s="89" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C326" s="89"/>
       <c r="D326" s="89"/>
@@ -8447,13 +8437,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="89" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B327" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C327" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D327" s="89"/>
       <c r="E327" s="89"/>
@@ -8461,13 +8451,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="89" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B328" s="89" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C328" s="89" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D328" s="89"/>
       <c r="E328" s="89"/>
@@ -8475,22 +8465,22 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="89" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B329" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C329" s="89"/>
       <c r="D329" s="89"/>
       <c r="E329" s="89"/>
       <c r="F329" s="89"/>
     </row>
-    <row r="330" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="89" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B330" s="89" t="s">
-        <v>817</v>
+        <v>708</v>
       </c>
       <c r="C330" s="89"/>
       <c r="D330" s="89"/>
@@ -8499,7 +8489,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="89" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B331" s="89" t="s">
         <v>177</v>
@@ -8511,10 +8501,10 @@
     </row>
     <row r="332" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="89" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B332" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C332" s="89"/>
       <c r="D332" s="89"/>
@@ -8523,10 +8513,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="89" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B333" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C333" s="89"/>
       <c r="D333" s="89"/>
@@ -8535,10 +8525,10 @@
     </row>
     <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="89" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B334" s="89" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C334" s="89"/>
       <c r="D334" s="89"/>
@@ -8547,10 +8537,10 @@
     </row>
     <row r="335" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="89" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B335" s="89" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C335" s="89"/>
       <c r="D335" s="89"/>
@@ -8559,13 +8549,13 @@
     </row>
     <row r="336" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="89" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B336" s="89" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C336" s="89" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D336" s="89"/>
       <c r="E336" s="89"/>
@@ -8573,7 +8563,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="89" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B337" s="89" t="s">
         <v>177</v>
@@ -8585,13 +8575,13 @@
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="89" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B338" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C338" s="89" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D338" s="89"/>
       <c r="E338" s="89"/>
@@ -8599,13 +8589,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="89" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B339" s="93" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C339" s="93" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D339" s="93"/>
       <c r="E339" s="89"/>
@@ -8613,47 +8603,47 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B340" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C340" s="89" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D340" s="89" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E340" s="89" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F340" s="89"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="93" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B341" s="93" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C341" s="93" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D341" s="93" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E341" s="89"/>
       <c r="F341" s="89"/>
     </row>
     <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="93" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B342" s="89" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C342" s="89" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D342" s="89"/>
       <c r="E342" s="89"/>
@@ -8661,13 +8651,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="89" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B343" s="89" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C343" s="89" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D343" s="89"/>
       <c r="E343" s="89"/>
@@ -8675,13 +8665,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="89" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B344" s="89" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C344" s="89" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D344" s="89"/>
       <c r="E344" s="89"/>
@@ -8689,10 +8679,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="89" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B345" s="89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C345" s="89"/>
       <c r="D345" s="89"/>
@@ -8701,10 +8691,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="89" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B346" s="89" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C346" s="89"/>
       <c r="D346" s="89"/>
@@ -8713,10 +8703,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="89" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B347" s="96" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C347" s="89"/>
       <c r="D347" s="89"/>
@@ -8725,13 +8715,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="89" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B348" s="96" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C348" s="89" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D348" s="89"/>
       <c r="E348" s="89"/>
@@ -8739,13 +8729,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="89" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B349" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C349" s="92" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D349" s="89"/>
       <c r="E349" s="89"/>
@@ -8753,13 +8743,13 @@
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="89" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B350" s="89" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C350" s="89" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D350" s="89"/>
       <c r="E350" s="89"/>
@@ -8767,10 +8757,10 @@
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="89" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B351" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C351" s="89"/>
       <c r="D351" s="89"/>
@@ -8779,10 +8769,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="89" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B352" s="89" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C352" s="89"/>
       <c r="D352" s="89"/>
@@ -8791,23 +8781,23 @@
     </row>
     <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="89" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B353" s="89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C353" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D353" s="89" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E353" s="89"/>
       <c r="F353" s="89"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="89" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B354" s="89" t="s">
         <v>177</v>
@@ -8819,10 +8809,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="89" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B355" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C355" s="89"/>
       <c r="D355" s="89"/>
@@ -8831,10 +8821,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="89" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B356" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C356" s="89"/>
       <c r="D356" s="89"/>
@@ -8843,10 +8833,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="89" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B357" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C357" s="89"/>
       <c r="D357" s="89"/>
@@ -8855,10 +8845,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="89" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B358" s="89" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C358" s="89"/>
       <c r="D358" s="89"/>
@@ -8867,29 +8857,29 @@
     </row>
     <row r="359" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="89" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B359" s="89" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C359" s="89" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D359" s="90" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E359" s="89"/>
       <c r="F359" s="89"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="89" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B360" s="89" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C360" s="89" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D360" s="89"/>
       <c r="E360" s="89"/>
@@ -8897,13 +8887,13 @@
     </row>
     <row r="361" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="89" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C361" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D361" s="89"/>
       <c r="E361" s="89"/>
@@ -8911,13 +8901,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="89" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B362" s="89" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C362" s="89" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D362" s="89"/>
       <c r="E362" s="89"/>
@@ -8925,13 +8915,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="89" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B363" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C363" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D363" s="89"/>
       <c r="E363" s="89"/>
@@ -8939,13 +8929,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="93" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B364" s="93" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C364" s="93" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D364" s="89"/>
       <c r="E364" s="89"/>
@@ -8953,10 +8943,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="89" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B365" s="89" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C365" s="89"/>
       <c r="D365" s="89"/>
@@ -8965,10 +8955,10 @@
     </row>
     <row r="366" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="89" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B366" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C366" s="89"/>
       <c r="D366" s="89"/>
@@ -8977,13 +8967,13 @@
     </row>
     <row r="367" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B367" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C367" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D367" s="89"/>
       <c r="E367" s="89"/>
@@ -8991,13 +8981,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="89" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B368" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D368" s="89"/>
       <c r="E368" s="89"/>
@@ -9005,13 +8995,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B369" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C369" s="89" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D369" s="89"/>
       <c r="E369" s="89"/>
@@ -9019,10 +9009,10 @@
     </row>
     <row r="370" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="89" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B370" s="89" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C370" s="89"/>
       <c r="D370" s="89"/>
@@ -9031,13 +9021,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="93" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B371" s="93" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C371" s="93" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D371" s="89"/>
       <c r="E371" s="89"/>
@@ -9048,7 +9038,7 @@
         <v>5</v>
       </c>
       <c r="B372" s="89" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C372" s="89"/>
       <c r="D372" s="89"/>
@@ -9057,7 +9047,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="89" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B373" s="89" t="s">
         <v>177</v>
@@ -9081,10 +9071,10 @@
     </row>
     <row r="375" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="89" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B375" s="89" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C375" s="89"/>
       <c r="D375" s="89"/>
@@ -9093,13 +9083,13 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B376" s="93" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C376" s="93" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D376" s="89"/>
       <c r="E376" s="89"/>
@@ -9107,26 +9097,26 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B377" s="89" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E377" s="89"/>
       <c r="F377" s="89"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="89" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B378" s="89" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C378" s="89"/>
       <c r="D378" s="89"/>
@@ -9135,13 +9125,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="89" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B379" s="89" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D379" s="89"/>
       <c r="E379" s="89"/>
@@ -9149,13 +9139,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="89" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B380" s="89" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D380" s="89"/>
       <c r="E380" s="89"/>
@@ -9163,10 +9153,10 @@
     </row>
     <row r="381" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="89" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B381" s="89" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C381" s="89"/>
       <c r="D381" s="89"/>
@@ -9175,10 +9165,10 @@
     </row>
     <row r="382" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="89" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B382" s="89" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C382" s="89"/>
       <c r="D382" s="89"/>
@@ -9187,10 +9177,10 @@
     </row>
     <row r="383" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="89" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B383" s="89" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C383" s="89"/>
       <c r="D383" s="89"/>
@@ -9199,13 +9189,13 @@
     </row>
     <row r="384" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="89" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B384" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C384" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D384" s="89"/>
       <c r="E384" s="89"/>
@@ -9213,13 +9203,13 @@
     </row>
     <row r="385" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="97" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B385" s="97" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C385" s="97" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D385" s="97"/>
       <c r="E385" s="97"/>
@@ -9227,7 +9217,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="89" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B386" s="89" t="s">
         <v>177</v>
@@ -9239,10 +9229,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="89" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B387" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C387" s="89"/>
       <c r="D387" s="89"/>
@@ -9251,13 +9241,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="89" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B388" s="89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C388" s="89" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D388" s="89"/>
       <c r="E388" s="89"/>
@@ -9265,13 +9255,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="89" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B389" s="89" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C389" s="89" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D389" s="89"/>
       <c r="E389" s="89"/>
@@ -9279,13 +9269,13 @@
     </row>
     <row r="390" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="89" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B390" s="89" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C390" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D390" s="89"/>
       <c r="E390" s="89"/>
@@ -9293,13 +9283,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="89" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B391" s="89" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C391" s="89" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D391" s="89"/>
       <c r="E391" s="89"/>
@@ -9307,13 +9297,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="98" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B392" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C392" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D392" s="89"/>
       <c r="E392" s="89"/>
@@ -9321,10 +9311,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="89" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B393" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C393" s="89"/>
       <c r="D393" s="89"/>
@@ -9333,10 +9323,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="97" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B394" s="97" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C394" s="89"/>
       <c r="D394" s="89"/>
@@ -9345,10 +9335,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="89" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B395" s="89" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C395" s="89"/>
       <c r="D395" s="89"/>
@@ -9357,10 +9347,10 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="89" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B396" s="89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C396" s="89"/>
       <c r="D396" s="89"/>
@@ -9369,7 +9359,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="89" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B397" s="89" t="s">
         <v>252</v>
@@ -9381,10 +9371,10 @@
     </row>
     <row r="398" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="89" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B398" s="89" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C398" s="89"/>
       <c r="D398" s="89"/>
@@ -9393,13 +9383,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="89" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B399" s="89" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C399" s="89" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D399" s="89"/>
       <c r="E399" s="89"/>
@@ -9407,10 +9397,10 @@
     </row>
     <row r="400" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="89" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B400" s="89" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C400" s="89"/>
       <c r="D400" s="89"/>
@@ -9419,13 +9409,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="99" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B401" s="99" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C401" s="99" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D401" s="89"/>
       <c r="E401" s="89"/>
@@ -9433,10 +9423,10 @@
     </row>
     <row r="402" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="101" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B402" s="89" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C402" s="89"/>
       <c r="D402" s="89"/>
@@ -9448,7 +9438,7 @@
         <v>199</v>
       </c>
       <c r="B403" s="90" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C403" s="89"/>
       <c r="D403" s="89"/>
@@ -9460,7 +9450,7 @@
         <v>200</v>
       </c>
       <c r="B404" s="90" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C404" s="89"/>
       <c r="D404" s="89"/>
@@ -9469,10 +9459,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="89" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B405" s="90" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C405" s="90"/>
       <c r="D405" s="89"/>
@@ -9481,13 +9471,13 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="89" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B406" s="90" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C406" s="89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D406" s="89"/>
       <c r="E406" s="89"/>
@@ -9495,10 +9485,10 @@
     </row>
     <row r="407" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="89" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B407" s="90" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C407" s="89"/>
       <c r="D407" s="89"/>
@@ -9507,7 +9497,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="97" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B408" s="97" t="s">
         <v>255</v>
@@ -9519,7 +9509,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="97" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B409" s="97" t="s">
         <v>252</v>
@@ -9531,10 +9521,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="89" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B410" s="89" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C410" s="89"/>
       <c r="D410" s="89"/>
@@ -9543,10 +9533,10 @@
     </row>
     <row r="411" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="89" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B411" s="89" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C411" s="89"/>
       <c r="D411" s="89"/>
@@ -9555,13 +9545,13 @@
     </row>
     <row r="412" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="97" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B412" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C412" s="90" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D412" s="89"/>
       <c r="E412" s="89"/>
@@ -9569,10 +9559,10 @@
     </row>
     <row r="413" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="89" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B413" s="90" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C413" s="89"/>
       <c r="D413" s="89"/>
@@ -9581,13 +9571,13 @@
     </row>
     <row r="414" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="89" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B414" s="90" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C414" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D414" s="89"/>
       <c r="E414" s="89"/>
@@ -9595,13 +9585,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="89" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B415" s="90" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C415" s="89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D415" s="89"/>
       <c r="E415" s="89"/>
@@ -9609,13 +9599,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="89" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B416" s="89" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C416" s="89" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D416" s="89"/>
       <c r="E416" s="89"/>
@@ -9623,13 +9613,13 @@
     </row>
     <row r="417" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="89" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B417" s="90" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C417" s="90" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D417" s="89"/>
       <c r="E417" s="89"/>
@@ -9637,13 +9627,13 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="89" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B418" s="89" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C418" s="90" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D418" s="89"/>
       <c r="E418" s="89"/>
@@ -9651,7 +9641,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="89" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B419" s="89" t="s">
         <v>177</v>
@@ -9663,13 +9653,13 @@
     </row>
     <row r="420" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="89" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B420" s="89" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C420" s="89" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D420" s="89"/>
       <c r="E420" s="89"/>
@@ -9677,10 +9667,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="89" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B421" s="89" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C421" s="89"/>
       <c r="D421" s="89"/>
@@ -9688,13 +9678,14 @@
       <c r="F421" s="89"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B421" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -9710,7 +9701,7 @@
           <x14:formula1>
             <xm:f>'X:\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\Физ лица\Разметка локалов\[data_locals_smoke_test_1.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D120 C116:D116 E218 B230:C230 C218 C285 B228:C228</xm:sqref>
+          <xm:sqref>D120 C116:D116 E218 B230:C230 C218 C285 C228</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9750,22 +9741,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="103" t="s">
         <v>249</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="110">
+      <c r="C3" s="104">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="104"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -9773,22 +9764,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="103" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="104">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="109"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="104"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -9796,22 +9787,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="103" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="104">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="104"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -9819,22 +9810,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="103" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="104">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="104"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -9856,22 +9847,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="103" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="104">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
+      <c r="A18" s="103"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="110"/>
+      <c r="C18" s="104"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -9901,7 +9892,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="110">
+      <c r="C22" s="104">
         <v>45019</v>
       </c>
     </row>
@@ -9912,12 +9903,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="110"/>
+      <c r="C23" s="104"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="104"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -10597,7 +10588,7 @@
       <c r="B114" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C114" s="113">
+      <c r="C114" s="109">
         <v>45442</v>
       </c>
     </row>
@@ -10608,7 +10599,7 @@
       <c r="B115" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="113"/>
+      <c r="C115" s="109"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -10617,7 +10608,7 @@
       <c r="B116" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="113"/>
+      <c r="C116" s="109"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -10626,7 +10617,7 @@
       <c r="B117" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C117" s="113"/>
+      <c r="C117" s="109"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -10635,7 +10626,7 @@
       <c r="B118" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C118" s="113"/>
+      <c r="C118" s="109"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -10644,7 +10635,7 @@
       <c r="B119" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="113"/>
+      <c r="C119" s="109"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -10653,7 +10644,7 @@
       <c r="B120" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="113"/>
+      <c r="C120" s="109"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -10662,7 +10653,7 @@
       <c r="B121" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C121" s="113"/>
+      <c r="C121" s="109"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -10671,7 +10662,7 @@
       <c r="B122" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="113"/>
+      <c r="C122" s="109"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -10680,7 +10671,7 @@
       <c r="B123" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C123" s="113"/>
+      <c r="C123" s="109"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -10689,7 +10680,7 @@
       <c r="B124" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C124" s="113"/>
+      <c r="C124" s="109"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -10724,7 +10715,7 @@
       <c r="B129" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="111">
+      <c r="C129" s="107">
         <v>45485</v>
       </c>
     </row>
@@ -10735,7 +10726,7 @@
       <c r="B130" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="112"/>
+      <c r="C130" s="108"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -10744,7 +10735,7 @@
       <c r="B131" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C131" s="112"/>
+      <c r="C131" s="108"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -10753,7 +10744,7 @@
       <c r="B132" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C132" s="112"/>
+      <c r="C132" s="108"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -10767,7 +10758,7 @@
       <c r="B134" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="111">
+      <c r="C134" s="107">
         <v>45485</v>
       </c>
     </row>
@@ -10778,7 +10769,7 @@
       <c r="B135" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="111"/>
+      <c r="C135" s="107"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -10787,7 +10778,7 @@
       <c r="B136" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="111"/>
+      <c r="C136" s="107"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -10796,7 +10787,7 @@
     </row>
     <row r="138" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B138" s="38" t="s">
         <v>171</v>
@@ -10812,7 +10803,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B140" s="38"/>
       <c r="C140" s="105">
@@ -10821,24 +10812,24 @@
     </row>
     <row r="141" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="103"/>
+      <c r="C141" s="106"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="103"/>
+      <c r="C142" s="106"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="103"/>
+      <c r="C143" s="106"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -10847,7 +10838,7 @@
     </row>
     <row r="145" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B145" s="38"/>
       <c r="C145" s="39">
@@ -10861,7 +10852,7 @@
     </row>
     <row r="147" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="42">
@@ -10875,7 +10866,7 @@
     </row>
     <row r="149" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149" s="38"/>
       <c r="C149" s="42">
@@ -10889,7 +10880,7 @@
     </row>
     <row r="151" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B151" s="38" t="s">
         <v>170</v>
@@ -10900,7 +10891,7 @@
     </row>
     <row r="152" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B152" s="38" t="s">
         <v>168</v>
@@ -10909,7 +10900,7 @@
     </row>
     <row r="153" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B153" s="38"/>
       <c r="C153" s="40"/>
@@ -10923,7 +10914,7 @@
     </row>
     <row r="155" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B155" s="38" t="s">
         <v>169</v>
@@ -10937,7 +10928,7 @@
     </row>
     <row r="157" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B157" s="38" t="s">
         <v>176</v>
@@ -10953,7 +10944,7 @@
     </row>
     <row r="159" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B159" s="45" t="s">
         <v>259</v>
@@ -10969,7 +10960,7 @@
     </row>
     <row r="161" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B161" s="45" t="s">
         <v>260</v>
@@ -10985,7 +10976,7 @@
     </row>
     <row r="163" spans="1:3" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B163" s="45" t="s">
         <v>271</v>
@@ -10996,7 +10987,7 @@
     </row>
     <row r="164" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B164" s="38" t="s">
         <v>261</v>
@@ -11012,7 +11003,7 @@
     </row>
     <row r="166" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B166" s="38" t="s">
         <v>269</v>
@@ -11028,7 +11019,7 @@
     </row>
     <row r="168" spans="1:3" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B168" s="38" t="s">
         <v>272</v>
@@ -11044,7 +11035,7 @@
     </row>
     <row r="170" spans="1:3" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B170" s="38" t="s">
         <v>270</v>
@@ -11060,10 +11051,10 @@
     </row>
     <row r="172" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C172" s="48">
         <v>45546</v>
@@ -11076,10 +11067,10 @@
     </row>
     <row r="174" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C174" s="48">
         <v>45546</v>
@@ -11092,10 +11083,10 @@
     </row>
     <row r="176" spans="1:3" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B176" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C176" s="54">
         <v>45552</v>
@@ -11108,10 +11099,10 @@
     </row>
     <row r="178" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C178" s="48">
         <v>45567</v>
@@ -11124,70 +11115,70 @@
     </row>
     <row r="180" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" s="108">
+        <v>317</v>
+      </c>
+      <c r="C180" s="102">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="108"/>
+      <c r="C181" s="102"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C182" s="108"/>
+        <v>318</v>
+      </c>
+      <c r="C182" s="102"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="108"/>
+      <c r="C183" s="102"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="108"/>
+        <v>320</v>
+      </c>
+      <c r="C184" s="102"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="108"/>
+      <c r="C185" s="102"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="C186" s="108"/>
+        <v>324</v>
+      </c>
+      <c r="C186" s="102"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="108"/>
+      <c r="C187" s="102"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C188" s="108"/>
+        <v>321</v>
+      </c>
+      <c r="C188" s="102"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -11196,7 +11187,7 @@
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B190" s="38"/>
       <c r="C190" s="39">
@@ -11206,16 +11197,16 @@
     <row r="191" spans="1:3" ht="25.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="34"/>
       <c r="B191" s="61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C191" s="62"/>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="B192" s="102" t="s">
-        <v>394</v>
+        <v>376</v>
+      </c>
+      <c r="B192" s="110" t="s">
+        <v>393</v>
       </c>
       <c r="C192" s="105">
         <v>45610</v>
@@ -11223,24 +11214,24 @@
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="37" t="s">
-        <v>378</v>
-      </c>
-      <c r="B193" s="102"/>
-      <c r="C193" s="103"/>
+        <v>377</v>
+      </c>
+      <c r="B193" s="110"/>
+      <c r="C193" s="106"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
-        <v>379</v>
-      </c>
-      <c r="B194" s="102"/>
-      <c r="C194" s="103"/>
+        <v>378</v>
+      </c>
+      <c r="B194" s="110"/>
+      <c r="C194" s="106"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="B195" s="102"/>
-      <c r="C195" s="103"/>
+        <v>379</v>
+      </c>
+      <c r="B195" s="110"/>
+      <c r="C195" s="106"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -11249,28 +11240,28 @@
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="B197" s="102" t="s">
         <v>381</v>
       </c>
-      <c r="C197" s="106">
+      <c r="B197" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="C197" s="112">
         <v>45614</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B198" s="102"/>
-      <c r="C198" s="107"/>
+        <v>382</v>
+      </c>
+      <c r="B198" s="110"/>
+      <c r="C198" s="113"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="B199" s="102"/>
-      <c r="C199" s="107"/>
+        <v>383</v>
+      </c>
+      <c r="B199" s="110"/>
+      <c r="C199" s="113"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -11279,10 +11270,10 @@
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" s="110" t="s">
         <v>392</v>
-      </c>
-      <c r="B201" s="102" t="s">
-        <v>393</v>
       </c>
       <c r="C201" s="39">
         <v>45615</v>
@@ -11290,52 +11281,52 @@
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="B202" s="102"/>
-      <c r="C202" s="103"/>
+        <v>384</v>
+      </c>
+      <c r="B202" s="110"/>
+      <c r="C202" s="106"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="B203" s="102"/>
-      <c r="C203" s="103"/>
+        <v>385</v>
+      </c>
+      <c r="B203" s="110"/>
+      <c r="C203" s="106"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="B204" s="102"/>
-      <c r="C204" s="103"/>
+        <v>386</v>
+      </c>
+      <c r="B204" s="110"/>
+      <c r="C204" s="106"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="B205" s="102"/>
-      <c r="C205" s="103"/>
+        <v>387</v>
+      </c>
+      <c r="B205" s="110"/>
+      <c r="C205" s="106"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
-        <v>389</v>
-      </c>
-      <c r="B206" s="102"/>
-      <c r="C206" s="103"/>
+        <v>388</v>
+      </c>
+      <c r="B206" s="110"/>
+      <c r="C206" s="106"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="B207" s="102"/>
-      <c r="C207" s="103"/>
+        <v>389</v>
+      </c>
+      <c r="B207" s="110"/>
+      <c r="C207" s="106"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="B208" s="102"/>
-      <c r="C208" s="103"/>
+        <v>390</v>
+      </c>
+      <c r="B208" s="110"/>
+      <c r="C208" s="106"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -11344,19 +11335,19 @@
     </row>
     <row r="210" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="103" t="s">
-        <v>396</v>
+      <c r="C210" s="106" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="104"/>
+      <c r="C211" s="111"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -11365,11 +11356,11 @@
     </row>
     <row r="213" spans="1:3" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11379,13 +11370,13 @@
     </row>
     <row r="215" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B215" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B215" s="38" t="s">
-        <v>402</v>
-      </c>
       <c r="C215" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11395,10 +11386,10 @@
     </row>
     <row r="217" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B217" s="38" t="s">
         <v>404</v>
-      </c>
-      <c r="B217" s="38" t="s">
-        <v>405</v>
       </c>
       <c r="C217" s="39">
         <v>45622</v>
@@ -11411,7 +11402,7 @@
     </row>
     <row r="219" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B219" s="38"/>
       <c r="C219" s="39">
@@ -11420,10 +11411,10 @@
     </row>
     <row r="221" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="B221" s="65" t="s">
         <v>406</v>
-      </c>
-      <c r="B221" s="65" t="s">
-        <v>407</v>
       </c>
       <c r="C221" s="66">
         <v>45666</v>
@@ -11434,10 +11425,10 @@
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="79" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B223" s="80" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C223" s="81">
         <v>45681</v>
@@ -11445,18 +11436,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -11473,13 +11471,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -11505,102 +11496,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -11625,30 +11616,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="82" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>490</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>491</v>
-      </c>
       <c r="D1" s="83" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>494</v>
-      </c>
       <c r="D2" s="83" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/data4.xlsx
+++ b/data4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Ассистент\Договоренности актуальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0ACC32-CBD5-421B-835B-46F8B063BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9F013E-EF20-4DAE-A951-86218EEBCB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="870">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -1387,9 +1387,6 @@
   </si>
   <si>
     <t xml:space="preserve">Мне нужнА карта </t>
-  </si>
-  <si>
-    <t xml:space="preserve">УВ Получение карты (UV_TakeCard)  </t>
   </si>
   <si>
     <t>Мне нужнО карту</t>
@@ -4160,7 +4157,7 @@
   <dimension ref="A1:H421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4177,30 +4174,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
+        <v>848</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>849</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>850</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="D1" s="89" t="s">
         <v>851</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="E1" s="89" t="s">
         <v>852</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="F1" s="89" t="s">
         <v>853</v>
-      </c>
-      <c r="F1" s="89" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
@@ -4209,13 +4206,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -4223,13 +4220,13 @@
     </row>
     <row r="4" spans="1:7" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -4241,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -4253,7 +4250,7 @@
         <v>230</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -4265,10 +4262,10 @@
         <v>253</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D7" s="89"/>
       <c r="E7" s="89"/>
@@ -4292,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="89"/>
@@ -4304,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
@@ -4316,7 +4313,7 @@
         <v>325</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C11" s="89"/>
       <c r="D11" s="89"/>
@@ -4340,7 +4337,7 @@
         <v>319</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C13" s="89"/>
       <c r="D13" s="89"/>
@@ -4352,7 +4349,7 @@
         <v>407</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C14" s="89"/>
       <c r="D14" s="89"/>
@@ -4364,7 +4361,7 @@
         <v>229</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89"/>
@@ -4373,10 +4370,10 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="89" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="89"/>
@@ -4385,7 +4382,7 @@
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B17" s="89" t="s">
         <v>177</v>
@@ -4400,7 +4397,7 @@
         <v>183</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C18" s="93" t="s">
         <v>250</v>
@@ -4414,10 +4411,10 @@
         <v>184</v>
       </c>
       <c r="B19" s="89" t="s">
+        <v>710</v>
+      </c>
+      <c r="C19" s="89" t="s">
         <v>711</v>
-      </c>
-      <c r="C19" s="89" t="s">
-        <v>712</v>
       </c>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
@@ -4452,7 +4449,7 @@
         <v>187</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
@@ -4464,7 +4461,7 @@
         <v>188</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -4476,7 +4473,7 @@
         <v>189</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
@@ -4497,7 +4494,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B26" s="89" t="s">
         <v>177</v>
@@ -4512,7 +4509,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="89"/>
@@ -4524,10 +4521,10 @@
         <v>409</v>
       </c>
       <c r="B28" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
@@ -4538,7 +4535,7 @@
         <v>408</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="89" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B30" s="89" t="s">
         <v>177</v>
@@ -4565,7 +4562,7 @@
         <v>251</v>
       </c>
       <c r="C31" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="89"/>
@@ -4576,7 +4573,7 @@
         <v>411</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="89"/>
@@ -4588,7 +4585,7 @@
         <v>283</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="89"/>
@@ -4600,7 +4597,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
@@ -4612,10 +4609,10 @@
         <v>182</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D35" s="89"/>
       <c r="E35" s="89"/>
@@ -4623,10 +4620,10 @@
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="89" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C36" s="89"/>
       <c r="D36" s="89"/>
@@ -4638,10 +4635,10 @@
         <v>180</v>
       </c>
       <c r="B37" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C37" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D37" s="89"/>
       <c r="E37" s="89"/>
@@ -4649,13 +4646,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="89" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B38" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D38" s="89"/>
       <c r="E38" s="89"/>
@@ -4678,10 +4675,10 @@
         <v>412</v>
       </c>
       <c r="B40" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C40" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D40" s="89"/>
       <c r="E40" s="89"/>
@@ -4689,10 +4686,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -4716,10 +4713,10 @@
         <v>193</v>
       </c>
       <c r="B43" s="89" t="s">
+        <v>719</v>
+      </c>
+      <c r="C43" s="89" t="s">
         <v>720</v>
-      </c>
-      <c r="C43" s="89" t="s">
-        <v>721</v>
       </c>
       <c r="D43" s="89"/>
       <c r="E43" s="89"/>
@@ -4742,7 +4739,7 @@
         <v>195</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C45" s="89"/>
       <c r="D45" s="89"/>
@@ -4754,10 +4751,10 @@
         <v>196</v>
       </c>
       <c r="B46" s="89" t="s">
+        <v>721</v>
+      </c>
+      <c r="C46" s="89" t="s">
         <v>722</v>
-      </c>
-      <c r="C46" s="89" t="s">
-        <v>723</v>
       </c>
       <c r="D46" s="89"/>
       <c r="E46" s="89"/>
@@ -4768,7 +4765,7 @@
         <v>103</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C47" s="89"/>
       <c r="D47" s="89"/>
@@ -4780,7 +4777,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="89"/>
@@ -4792,7 +4789,7 @@
         <v>106</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="89"/>
@@ -4804,10 +4801,10 @@
         <v>179</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C50" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
@@ -4830,10 +4827,10 @@
         <v>197</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D52" s="89"/>
       <c r="E52" s="89"/>
@@ -4865,10 +4862,10 @@
     </row>
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C55" s="89"/>
       <c r="D55" s="89"/>
@@ -4883,7 +4880,7 @@
         <v>251</v>
       </c>
       <c r="C56" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D56" s="89"/>
       <c r="E56" s="89"/>
@@ -4906,7 +4903,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C58" s="89"/>
       <c r="D58" s="89"/>
@@ -4927,10 +4924,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="89" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C60" s="89"/>
       <c r="D60" s="89"/>
@@ -4942,7 +4939,7 @@
         <v>203</v>
       </c>
       <c r="B61" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="89"/>
@@ -4955,10 +4952,10 @@
         <v>117</v>
       </c>
       <c r="B62" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="C62" s="89" t="s">
         <v>730</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>731</v>
       </c>
       <c r="D62" s="89"/>
       <c r="E62" s="89"/>
@@ -4981,10 +4978,10 @@
         <v>204</v>
       </c>
       <c r="B64" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="C64" s="89" t="s">
         <v>730</v>
-      </c>
-      <c r="C64" s="89" t="s">
-        <v>731</v>
       </c>
       <c r="D64" s="89"/>
       <c r="E64" s="89"/>
@@ -4995,7 +4992,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C65" s="89"/>
       <c r="D65" s="89"/>
@@ -5007,10 +5004,10 @@
         <v>206</v>
       </c>
       <c r="B66" s="89" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D66" s="89"/>
       <c r="E66" s="89"/>
@@ -5021,7 +5018,7 @@
         <v>207</v>
       </c>
       <c r="B67" s="89" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C67" s="89"/>
       <c r="D67" s="89"/>
@@ -5033,10 +5030,10 @@
         <v>208</v>
       </c>
       <c r="B68" s="89" t="s">
+        <v>719</v>
+      </c>
+      <c r="C68" s="89" t="s">
         <v>720</v>
-      </c>
-      <c r="C68" s="89" t="s">
-        <v>721</v>
       </c>
       <c r="D68" s="89"/>
       <c r="E68" s="89"/>
@@ -5059,10 +5056,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C70" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C70" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D70" s="89"/>
       <c r="E70" s="89"/>
@@ -5073,10 +5070,10 @@
         <v>211</v>
       </c>
       <c r="B71" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C71" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C71" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D71" s="89"/>
       <c r="E71" s="89"/>
@@ -5090,7 +5087,7 @@
         <v>257</v>
       </c>
       <c r="C72" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D72" s="89"/>
       <c r="E72" s="89"/>
@@ -5101,7 +5098,7 @@
         <v>414</v>
       </c>
       <c r="B73" s="89" t="s">
-        <v>415</v>
+        <v>258</v>
       </c>
       <c r="C73" s="89"/>
       <c r="D73" s="89"/>
@@ -5110,13 +5107,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="89" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B74" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C74" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D74" s="89"/>
       <c r="E74" s="89"/>
@@ -5127,10 +5124,10 @@
         <v>221</v>
       </c>
       <c r="B75" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C75" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="89"/>
@@ -5153,7 +5150,7 @@
         <v>217</v>
       </c>
       <c r="B77" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C77" s="89"/>
       <c r="D77" s="89"/>
@@ -5168,7 +5165,7 @@
         <v>251</v>
       </c>
       <c r="C78" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
@@ -5182,13 +5179,13 @@
         <v>256</v>
       </c>
       <c r="C79" s="89" t="s">
+        <v>737</v>
+      </c>
+      <c r="D79" s="89" t="s">
         <v>738</v>
       </c>
-      <c r="D79" s="89" t="s">
-        <v>739</v>
-      </c>
       <c r="E79" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F79" s="89"/>
     </row>
@@ -5209,7 +5206,7 @@
         <v>215</v>
       </c>
       <c r="B81" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C81" s="89"/>
       <c r="D81" s="89"/>
@@ -5218,7 +5215,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="89" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B82" s="89" t="s">
         <v>177</v>
@@ -5230,7 +5227,7 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="89" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B83" s="89" t="s">
         <v>177</v>
@@ -5245,7 +5242,7 @@
         <v>214</v>
       </c>
       <c r="B84" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C84" s="89"/>
       <c r="D84" s="89"/>
@@ -5257,7 +5254,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="89" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C85" s="89"/>
       <c r="D85" s="89"/>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="89" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B86" s="89" t="s">
         <v>177</v>
@@ -5278,7 +5275,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="89" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B87" s="89" t="s">
         <v>177</v>
@@ -5318,7 +5315,7 @@
         <v>226</v>
       </c>
       <c r="B90" s="89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C90" s="89"/>
       <c r="D90" s="89"/>
@@ -5342,7 +5339,7 @@
         <v>160</v>
       </c>
       <c r="B92" s="89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C92" s="89"/>
       <c r="D92" s="89"/>
@@ -5357,7 +5354,7 @@
         <v>250</v>
       </c>
       <c r="C93" s="89" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D93" s="89"/>
       <c r="E93" s="89"/>
@@ -5368,7 +5365,7 @@
         <v>159</v>
       </c>
       <c r="B94" s="89" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C94" s="89"/>
       <c r="D94" s="89"/>
@@ -5380,7 +5377,7 @@
         <v>223</v>
       </c>
       <c r="B95" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C95" s="89"/>
       <c r="D95" s="89"/>
@@ -5395,7 +5392,7 @@
         <v>250</v>
       </c>
       <c r="C96" s="89" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D96" s="89"/>
       <c r="E96" s="89"/>
@@ -5442,10 +5439,10 @@
         <v>238</v>
       </c>
       <c r="B100" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C100" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C100" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D100" s="89"/>
       <c r="E100" s="89"/>
@@ -5504,7 +5501,7 @@
         <v>243</v>
       </c>
       <c r="B105" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C105" s="89"/>
       <c r="D105" s="89"/>
@@ -5516,10 +5513,10 @@
         <v>244</v>
       </c>
       <c r="B106" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C106" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C106" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D106" s="89"/>
       <c r="E106" s="89"/>
@@ -5530,10 +5527,10 @@
         <v>231</v>
       </c>
       <c r="B107" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="C107" s="89" t="s">
         <v>730</v>
-      </c>
-      <c r="C107" s="89" t="s">
-        <v>731</v>
       </c>
       <c r="D107" s="89"/>
       <c r="E107" s="89"/>
@@ -5544,7 +5541,7 @@
         <v>232</v>
       </c>
       <c r="B108" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C108" s="89"/>
       <c r="D108" s="89"/>
@@ -5556,7 +5553,7 @@
         <v>245</v>
       </c>
       <c r="B109" s="89" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C109" s="89"/>
       <c r="D109" s="89"/>
@@ -5580,7 +5577,7 @@
         <v>247</v>
       </c>
       <c r="B111" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C111" s="89"/>
       <c r="D111" s="89"/>
@@ -5604,10 +5601,10 @@
         <v>233</v>
       </c>
       <c r="B113" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="C113" s="89" t="s">
         <v>742</v>
-      </c>
-      <c r="C113" s="89" t="s">
-        <v>743</v>
       </c>
       <c r="D113" s="89"/>
       <c r="E113" s="89"/>
@@ -5618,7 +5615,7 @@
         <v>234</v>
       </c>
       <c r="B114" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C114" s="89"/>
       <c r="D114" s="89"/>
@@ -5627,10 +5624,10 @@
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B115" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C115" s="89"/>
       <c r="D115" s="89"/>
@@ -5642,7 +5639,7 @@
         <v>262</v>
       </c>
       <c r="B116" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C116" s="89"/>
       <c r="D116" s="89"/>
@@ -5654,10 +5651,10 @@
         <v>263</v>
       </c>
       <c r="B117" s="89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C117" s="89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D117" s="89"/>
       <c r="E117" s="89"/>
@@ -5668,10 +5665,10 @@
         <v>265</v>
       </c>
       <c r="B118" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C118" s="89" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D118" s="89"/>
       <c r="E118" s="89"/>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="89" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B119" s="89" t="s">
         <v>177</v>
@@ -5694,10 +5691,10 @@
         <v>266</v>
       </c>
       <c r="B120" s="89" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C120" s="89" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D120" s="89"/>
       <c r="E120" s="89"/>
@@ -5708,10 +5705,10 @@
         <v>267</v>
       </c>
       <c r="B121" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C121" s="89" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D121" s="89"/>
       <c r="E121" s="89"/>
@@ -5722,10 +5719,10 @@
         <v>322</v>
       </c>
       <c r="B122" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C122" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D122" s="89"/>
       <c r="E122" s="89"/>
@@ -5736,7 +5733,7 @@
         <v>268</v>
       </c>
       <c r="B123" s="89" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C123" s="89"/>
       <c r="D123" s="89"/>
@@ -5748,7 +5745,7 @@
         <v>280</v>
       </c>
       <c r="B124" s="89" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C124" s="89"/>
       <c r="D124" s="89"/>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="89" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B125" s="89" t="s">
         <v>177</v>
@@ -5769,10 +5766,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="89" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B126" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C126" s="89"/>
       <c r="D126" s="89"/>
@@ -5784,7 +5781,7 @@
         <v>279</v>
       </c>
       <c r="B127" s="89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C127" s="89"/>
       <c r="D127" s="89"/>
@@ -5796,16 +5793,16 @@
         <v>277</v>
       </c>
       <c r="B128" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="C128" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="C128" s="89" t="s">
+      <c r="D128" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="E128" s="89" t="s">
         <v>748</v>
-      </c>
-      <c r="D128" s="89" t="s">
-        <v>810</v>
-      </c>
-      <c r="E128" s="89" t="s">
-        <v>749</v>
       </c>
       <c r="F128" s="89"/>
     </row>
@@ -5829,7 +5826,7 @@
         <v>257</v>
       </c>
       <c r="C130" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D130" s="89"/>
       <c r="E130" s="89"/>
@@ -5840,10 +5837,10 @@
         <v>273</v>
       </c>
       <c r="B131" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C131" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D131" s="89"/>
       <c r="E131" s="89"/>
@@ -5875,10 +5872,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B134" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C134" s="89"/>
       <c r="D134" s="89"/>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="89" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B135" s="89" t="s">
         <v>177</v>
@@ -5902,10 +5899,10 @@
         <v>286</v>
       </c>
       <c r="B136" s="89" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C136" s="89" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D136" s="89"/>
       <c r="E136" s="89"/>
@@ -5916,7 +5913,7 @@
         <v>287</v>
       </c>
       <c r="B137" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C137" s="89"/>
       <c r="D137" s="89"/>
@@ -5928,7 +5925,7 @@
         <v>288</v>
       </c>
       <c r="B138" s="89" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C138" s="89"/>
       <c r="D138" s="89"/>
@@ -5940,7 +5937,7 @@
         <v>289</v>
       </c>
       <c r="B139" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C139" s="89"/>
       <c r="D139" s="89"/>
@@ -5952,7 +5949,7 @@
         <v>290</v>
       </c>
       <c r="B140" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C140" s="89"/>
       <c r="D140" s="89"/>
@@ -5964,10 +5961,10 @@
         <v>291</v>
       </c>
       <c r="B141" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C141" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D141" s="89"/>
       <c r="E141" s="89"/>
@@ -5975,13 +5972,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="89" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B142" s="89" t="s">
         <v>251</v>
       </c>
       <c r="C142" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D142" s="89"/>
       <c r="E142" s="89"/>
@@ -5989,10 +5986,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="89" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B143" s="89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C143" s="89"/>
       <c r="D143" s="89"/>
@@ -6001,10 +5998,10 @@
     </row>
     <row r="144" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="89" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B144" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C144" s="89"/>
       <c r="D144" s="89"/>
@@ -6025,13 +6022,13 @@
     </row>
     <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="89" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B146" s="89" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C146" s="89" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D146" s="89"/>
       <c r="E146" s="89"/>
@@ -6042,7 +6039,7 @@
         <v>294</v>
       </c>
       <c r="B147" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C147" s="89"/>
       <c r="D147" s="89"/>
@@ -6054,7 +6051,7 @@
         <v>295</v>
       </c>
       <c r="B148" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C148" s="89"/>
       <c r="D148" s="89"/>
@@ -6066,7 +6063,7 @@
         <v>297</v>
       </c>
       <c r="B149" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C149" s="89"/>
       <c r="D149" s="89"/>
@@ -6087,10 +6084,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B151" s="89" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C151" s="89"/>
       <c r="D151" s="89"/>
@@ -6114,7 +6111,7 @@
         <v>299</v>
       </c>
       <c r="B153" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C153" s="89"/>
       <c r="D153" s="89"/>
@@ -6126,10 +6123,10 @@
         <v>302</v>
       </c>
       <c r="B154" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C154" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D154" s="89"/>
       <c r="E154" s="89"/>
@@ -6140,10 +6137,10 @@
         <v>303</v>
       </c>
       <c r="B155" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C155" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C155" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D155" s="89"/>
       <c r="E155" s="89"/>
@@ -6154,10 +6151,10 @@
         <v>305</v>
       </c>
       <c r="B156" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C156" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C156" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D156" s="89"/>
       <c r="E156" s="89"/>
@@ -6165,10 +6162,10 @@
     </row>
     <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="89" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B157" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C157" s="89"/>
       <c r="D157" s="89"/>
@@ -6177,13 +6174,13 @@
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="89" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B158" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C158" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D158" s="89"/>
       <c r="E158" s="89"/>
@@ -6194,10 +6191,10 @@
         <v>300</v>
       </c>
       <c r="B159" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="C159" s="89" t="s">
         <v>730</v>
-      </c>
-      <c r="C159" s="89" t="s">
-        <v>731</v>
       </c>
       <c r="D159" s="89"/>
       <c r="E159" s="89"/>
@@ -6208,7 +6205,7 @@
         <v>301</v>
       </c>
       <c r="B160" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C160" s="89"/>
       <c r="D160" s="89"/>
@@ -6220,7 +6217,7 @@
         <v>304</v>
       </c>
       <c r="B161" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C161" s="89"/>
       <c r="D161" s="89"/>
@@ -6229,10 +6226,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="89" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B162" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C162" s="89"/>
       <c r="D162" s="89"/>
@@ -6256,10 +6253,10 @@
         <v>308</v>
       </c>
       <c r="B164" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C164" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D164" s="89"/>
       <c r="E164" s="89"/>
@@ -6270,7 +6267,7 @@
         <v>309</v>
       </c>
       <c r="B165" s="89" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C165" s="89"/>
       <c r="D165" s="89"/>
@@ -6279,10 +6276,10 @@
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="89" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B166" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C166" s="89"/>
       <c r="D166" s="89"/>
@@ -6294,10 +6291,10 @@
         <v>311</v>
       </c>
       <c r="B167" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C167" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D167" s="89"/>
       <c r="E167" s="89"/>
@@ -6308,7 +6305,7 @@
         <v>312</v>
       </c>
       <c r="B168" s="89" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C168" s="89"/>
       <c r="D168" s="89"/>
@@ -6320,7 +6317,7 @@
         <v>313</v>
       </c>
       <c r="B169" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C169" s="89"/>
       <c r="D169" s="89"/>
@@ -6332,7 +6329,7 @@
         <v>314</v>
       </c>
       <c r="B170" s="89" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C170" s="89"/>
       <c r="D170" s="89"/>
@@ -6356,7 +6353,7 @@
         <v>281</v>
       </c>
       <c r="B172" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C172" s="89"/>
       <c r="D172" s="89"/>
@@ -6371,7 +6368,7 @@
         <v>251</v>
       </c>
       <c r="C173" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D173" s="89"/>
       <c r="E173" s="89"/>
@@ -6379,13 +6376,13 @@
     </row>
     <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B174" s="89" t="s">
+        <v>729</v>
+      </c>
+      <c r="C174" s="89" t="s">
         <v>730</v>
-      </c>
-      <c r="C174" s="89" t="s">
-        <v>731</v>
       </c>
       <c r="D174" s="89"/>
       <c r="E174" s="89"/>
@@ -6408,7 +6405,7 @@
         <v>327</v>
       </c>
       <c r="B176" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C176" s="89"/>
       <c r="D176" s="89"/>
@@ -6420,7 +6417,7 @@
         <v>328</v>
       </c>
       <c r="B177" s="89" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C177" s="89"/>
       <c r="D177" s="89"/>
@@ -6432,7 +6429,7 @@
         <v>329</v>
       </c>
       <c r="B178" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C178" s="89"/>
       <c r="D178" s="89"/>
@@ -6459,7 +6456,7 @@
         <v>257</v>
       </c>
       <c r="C180" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D180" s="89"/>
       <c r="E180" s="89"/>
@@ -6482,7 +6479,7 @@
         <v>333</v>
       </c>
       <c r="B182" s="89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C182" s="89"/>
       <c r="D182" s="89"/>
@@ -6494,7 +6491,7 @@
         <v>334</v>
       </c>
       <c r="B183" s="89" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C183" s="89"/>
       <c r="D183" s="89"/>
@@ -6506,10 +6503,10 @@
         <v>335</v>
       </c>
       <c r="B184" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C184" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D184" s="89"/>
       <c r="E184" s="89"/>
@@ -6532,7 +6529,7 @@
         <v>337</v>
       </c>
       <c r="B186" s="89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C186" s="89"/>
       <c r="D186" s="89"/>
@@ -6544,10 +6541,10 @@
         <v>338</v>
       </c>
       <c r="B187" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="C187" s="89" t="s">
         <v>753</v>
-      </c>
-      <c r="C187" s="89" t="s">
-        <v>754</v>
       </c>
       <c r="D187" s="89"/>
       <c r="E187" s="89"/>
@@ -6558,10 +6555,10 @@
         <v>340</v>
       </c>
       <c r="B188" s="89" t="s">
+        <v>754</v>
+      </c>
+      <c r="C188" s="89" t="s">
         <v>755</v>
-      </c>
-      <c r="C188" s="89" t="s">
-        <v>756</v>
       </c>
       <c r="D188" s="89"/>
       <c r="E188" s="89"/>
@@ -6572,7 +6569,7 @@
         <v>341</v>
       </c>
       <c r="B189" s="94" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C189" s="89"/>
       <c r="D189" s="89"/>
@@ -6593,13 +6590,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="89" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B191" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C191" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D191" s="89"/>
       <c r="E191" s="89"/>
@@ -6610,10 +6607,10 @@
         <v>343</v>
       </c>
       <c r="B192" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="C192" s="89" t="s">
         <v>742</v>
-      </c>
-      <c r="C192" s="89" t="s">
-        <v>743</v>
       </c>
       <c r="D192" s="89"/>
       <c r="E192" s="89"/>
@@ -6621,10 +6618,10 @@
     </row>
     <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B193" s="89" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C193" s="89"/>
       <c r="D193" s="89"/>
@@ -6633,10 +6630,10 @@
     </row>
     <row r="194" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="89" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B194" s="89" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C194" s="89"/>
       <c r="D194" s="89"/>
@@ -6651,7 +6648,7 @@
         <v>257</v>
       </c>
       <c r="C195" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D195" s="89"/>
       <c r="E195" s="89"/>
@@ -6659,10 +6656,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B196" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C196" s="89"/>
       <c r="D196" s="89"/>
@@ -6671,10 +6668,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="89" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B197" s="89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C197" s="89"/>
       <c r="D197" s="89"/>
@@ -6684,10 +6681,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="89" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B198" s="89" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C198" s="89"/>
       <c r="D198" s="89"/>
@@ -6696,10 +6693,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B199" s="89" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C199" s="89"/>
       <c r="D199" s="89"/>
@@ -6708,10 +6705,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B200" s="89" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C200" s="89"/>
       <c r="D200" s="89"/>
@@ -6720,13 +6717,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="89" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B201" s="89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C201" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D201" s="89"/>
       <c r="E201" s="89"/>
@@ -6734,10 +6731,10 @@
     </row>
     <row r="202" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="89" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B202" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C202" s="89"/>
       <c r="D202" s="89"/>
@@ -6747,46 +6744,46 @@
     </row>
     <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B203" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="C203" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="C203" s="89" t="s">
+      <c r="D203" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="E203" s="89" t="s">
         <v>748</v>
       </c>
-      <c r="D203" s="89" t="s">
-        <v>810</v>
-      </c>
-      <c r="E203" s="89" t="s">
-        <v>749</v>
-      </c>
       <c r="F203" s="92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="89" t="s">
+        <v>427</v>
+      </c>
+      <c r="B204" s="89" t="s">
         <v>428</v>
       </c>
-      <c r="B204" s="89" t="s">
-        <v>429</v>
-      </c>
       <c r="C204" s="89" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D204" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E204" s="89"/>
       <c r="F204" s="89"/>
     </row>
     <row r="205" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B205" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C205" s="89"/>
       <c r="D205" s="89"/>
@@ -6795,10 +6792,10 @@
     </row>
     <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B206" s="89" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C206" s="89"/>
       <c r="D206" s="89"/>
@@ -6807,13 +6804,13 @@
     </row>
     <row r="207" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B207" s="89" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C207" s="89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D207" s="89"/>
       <c r="E207" s="89"/>
@@ -6821,49 +6818,49 @@
     </row>
     <row r="208" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B208" s="89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C208" s="89" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D208" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E208" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F208" s="89"/>
     </row>
     <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="89" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B209" s="89" t="s">
         <v>256</v>
       </c>
       <c r="C209" s="89" t="s">
+        <v>737</v>
+      </c>
+      <c r="D209" s="89" t="s">
         <v>738</v>
       </c>
-      <c r="D209" s="89" t="s">
-        <v>739</v>
-      </c>
       <c r="E209" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F209" s="89"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="89" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B210" s="89" t="s">
         <v>250</v>
       </c>
       <c r="C210" s="89" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D210" s="89"/>
       <c r="E210" s="89"/>
@@ -6871,26 +6868,26 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B211" s="89" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C211" s="89" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D211" s="89" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E211" s="89"/>
       <c r="F211" s="89"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="89" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B212" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C212" s="89"/>
       <c r="D212" s="89"/>
@@ -6899,29 +6896,29 @@
     </row>
     <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="89" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B213" s="89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C213" s="89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D213" s="89" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E213" s="89"/>
       <c r="F213" s="89"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="B214" s="89" t="s">
-        <v>436</v>
-      </c>
       <c r="C214" s="89" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D214" s="89"/>
       <c r="E214" s="89"/>
@@ -6929,10 +6926,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B215" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C215" s="89"/>
       <c r="D215" s="89"/>
@@ -6941,13 +6938,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="89" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B216" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C216" s="89" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D216" s="89"/>
       <c r="E216" s="89"/>
@@ -6955,10 +6952,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="89" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B217" s="89" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C217" s="89"/>
       <c r="D217" s="89"/>
@@ -6967,13 +6964,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="89" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B218" s="89" t="s">
         <v>257</v>
       </c>
       <c r="C218" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D218" s="89"/>
       <c r="E218" s="89"/>
@@ -6981,13 +6978,13 @@
     </row>
     <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B219" s="89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C219" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D219" s="89"/>
       <c r="E219" s="89"/>
@@ -6996,10 +6993,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B220" s="89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C220" s="89"/>
       <c r="D220" s="89"/>
@@ -7008,13 +7005,13 @@
     </row>
     <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B221" s="89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C221" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D221" s="89"/>
       <c r="E221" s="89"/>
@@ -7022,10 +7019,10 @@
     </row>
     <row r="222" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B222" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C222" s="89"/>
       <c r="D222" s="89"/>
@@ -7034,13 +7031,13 @@
     </row>
     <row r="223" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="89" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B223" s="89" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C223" s="89" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D223" s="89"/>
       <c r="E223" s="89"/>
@@ -7048,10 +7045,10 @@
     </row>
     <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B224" s="89" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C224" s="89"/>
       <c r="D224" s="89"/>
@@ -7060,10 +7057,10 @@
     </row>
     <row r="225" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B225" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C225" s="89"/>
       <c r="D225" s="89"/>
@@ -7072,10 +7069,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="89" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B226" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C226" s="89"/>
       <c r="D226" s="89"/>
@@ -7084,10 +7081,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="89" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B227" s="89" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C227" s="89"/>
       <c r="D227" s="89"/>
@@ -7096,10 +7093,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="89" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B228" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C228" s="89"/>
       <c r="D228" s="89"/>
@@ -7108,10 +7105,10 @@
     </row>
     <row r="229" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="89" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B229" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C229" s="89"/>
       <c r="D229" s="89"/>
@@ -7120,13 +7117,13 @@
     </row>
     <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="89" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B230" s="89" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C230" s="89" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D230" s="89"/>
       <c r="E230" s="89"/>
@@ -7134,13 +7131,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B231" s="89" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C231" s="89" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D231" s="89"/>
       <c r="E231" s="89"/>
@@ -7148,29 +7145,29 @@
     </row>
     <row r="232" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B232" s="89" t="s">
         <v>256</v>
       </c>
       <c r="C232" s="89" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D232" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E232" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F232" s="89"/>
       <c r="G232" s="70"/>
     </row>
     <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B233" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C233" s="89"/>
       <c r="D233" s="89"/>
@@ -7179,13 +7176,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="89" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B234" s="89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C234" s="89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D234" s="89"/>
       <c r="E234" s="89"/>
@@ -7193,10 +7190,10 @@
     </row>
     <row r="235" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B235" s="89" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C235" s="89"/>
       <c r="D235" s="89"/>
@@ -7205,10 +7202,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B236" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C236" s="89"/>
       <c r="D236" s="89"/>
@@ -7217,10 +7214,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B237" s="89" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C237" s="89"/>
       <c r="D237" s="89"/>
@@ -7229,10 +7226,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="89" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B238" s="89" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C238" s="89"/>
       <c r="D238" s="89"/>
@@ -7241,13 +7238,13 @@
     </row>
     <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B239" s="89" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C239" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D239" s="89"/>
       <c r="E239" s="89"/>
@@ -7255,10 +7252,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B240" s="89" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C240" s="89"/>
       <c r="D240" s="89"/>
@@ -7267,10 +7264,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B241" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C241" s="89"/>
       <c r="D241" s="89"/>
@@ -7279,10 +7276,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B242" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C242" s="89"/>
       <c r="D242" s="89"/>
@@ -7291,13 +7288,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="89" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B243" s="89" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C243" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D243" s="89"/>
       <c r="E243" s="89"/>
@@ -7305,13 +7302,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B244" s="89" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C244" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D244" s="89"/>
       <c r="E244" s="89"/>
@@ -7319,10 +7316,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B245" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C245" s="89"/>
       <c r="D245" s="89"/>
@@ -7331,13 +7328,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B246" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C246" s="89" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D246" s="89"/>
       <c r="E246" s="89"/>
@@ -7345,13 +7342,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="93" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B247" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="C247" s="93" t="s">
         <v>753</v>
-      </c>
-      <c r="C247" s="93" t="s">
-        <v>754</v>
       </c>
       <c r="D247" s="89"/>
       <c r="E247" s="89"/>
@@ -7359,47 +7356,47 @@
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B248" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="C248" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="C248" s="89" t="s">
-        <v>748</v>
-      </c>
       <c r="D248" s="89" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E248" s="89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F248" s="89"/>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B249" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="C249" s="89" t="s">
         <v>757</v>
       </c>
-      <c r="C249" s="89" t="s">
-        <v>758</v>
-      </c>
       <c r="D249" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E249" s="89"/>
       <c r="F249" s="89"/>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B250" s="89" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C250" s="89" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D250" s="89"/>
       <c r="E250" s="89"/>
@@ -7407,10 +7404,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="89" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B251" s="89" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C251" s="89"/>
       <c r="D251" s="89"/>
@@ -7419,13 +7416,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B252" s="89" t="s">
+        <v>770</v>
+      </c>
+      <c r="C252" s="89" t="s">
         <v>771</v>
-      </c>
-      <c r="C252" s="89" t="s">
-        <v>772</v>
       </c>
       <c r="D252" s="89"/>
       <c r="E252" s="89"/>
@@ -7433,10 +7430,10 @@
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" s="89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B253" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C253" s="89"/>
       <c r="D253" s="89"/>
@@ -7445,10 +7442,10 @@
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="89" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B254" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C254" s="89"/>
       <c r="D254" s="89"/>
@@ -7457,13 +7454,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B255" s="89" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C255" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D255" s="89"/>
       <c r="E255" s="89"/>
@@ -7472,13 +7469,13 @@
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A256" s="89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B256" s="89" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C256" s="89" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D256" s="89"/>
       <c r="E256" s="89"/>
@@ -7486,10 +7483,10 @@
     </row>
     <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B257" s="89" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C257" s="89"/>
       <c r="D257" s="89"/>
@@ -7498,10 +7495,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="89" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B258" s="89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C258" s="89"/>
       <c r="D258" s="89"/>
@@ -7510,13 +7507,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="89" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B259" s="89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C259" s="89" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D259" s="89"/>
       <c r="E259" s="89"/>
@@ -7524,26 +7521,26 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="89" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B260" s="89" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C260" s="89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D260" s="89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E260" s="89"/>
       <c r="F260" s="89"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B261" s="89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C261" s="89"/>
       <c r="D261" s="89"/>
@@ -7552,23 +7549,23 @@
     </row>
     <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="89" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B262" s="89" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C262" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D262" s="89" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E262" s="89"/>
       <c r="F262" s="89"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="89" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B263" s="89" t="s">
         <v>177</v>
@@ -7580,16 +7577,16 @@
     </row>
     <row r="264" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="89" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B264" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C264" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D264" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E264" s="89"/>
       <c r="F264" s="89"/>
@@ -7599,10 +7596,10 @@
         <v>212</v>
       </c>
       <c r="B265" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C265" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D265" s="89"/>
       <c r="E265" s="89"/>
@@ -7616,7 +7613,7 @@
         <v>251</v>
       </c>
       <c r="C266" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D266" s="89"/>
       <c r="E266" s="89"/>
@@ -7624,47 +7621,47 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B267" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C267" s="89" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D267" s="89" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E267" s="89" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F267" s="89"/>
     </row>
     <row r="268" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B268" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C268" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D268" s="89" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E268" s="89"/>
       <c r="F268" s="89"/>
     </row>
     <row r="269" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="89" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B269" s="89" t="s">
+        <v>734</v>
+      </c>
+      <c r="C269" s="89" t="s">
         <v>735</v>
-      </c>
-      <c r="C269" s="89" t="s">
-        <v>736</v>
       </c>
       <c r="D269" s="89"/>
       <c r="E269" s="89"/>
@@ -7672,47 +7669,47 @@
     </row>
     <row r="270" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="89" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B270" s="89" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C270" s="89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D270" s="89" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E270" s="89"/>
       <c r="F270" s="89"/>
     </row>
     <row r="271" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="89" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B271" s="89" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C271" s="89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D271" s="89" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E271" s="89" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F271" s="89"/>
     </row>
     <row r="272" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="89" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B272" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C272" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D272" s="89"/>
       <c r="E272" s="89"/>
@@ -7720,10 +7717,10 @@
     </row>
     <row r="273" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="89" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B273" s="89" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C273" s="89"/>
       <c r="D273" s="89"/>
@@ -7732,7 +7729,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B274" s="89" t="s">
         <v>0</v>
@@ -7744,10 +7741,10 @@
     </row>
     <row r="275" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B275" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C275" s="89"/>
       <c r="D275" s="89"/>
@@ -7756,13 +7753,13 @@
     </row>
     <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B276" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C276" s="89" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D276" s="89"/>
       <c r="E276" s="89"/>
@@ -7770,10 +7767,10 @@
     </row>
     <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="89" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B277" s="89" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C277" s="89"/>
       <c r="D277" s="89"/>
@@ -7782,13 +7779,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B278" s="89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C278" s="89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D278" s="89"/>
       <c r="E278" s="89"/>
@@ -7796,13 +7793,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B279" s="89" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C279" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D279" s="89"/>
       <c r="E279" s="89"/>
@@ -7810,10 +7807,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="89" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B280" s="89" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C280" s="89"/>
       <c r="D280" s="89"/>
@@ -7822,13 +7819,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B281" s="89" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C281" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D281" s="89"/>
       <c r="E281" s="89"/>
@@ -7836,10 +7833,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B282" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C282" s="89"/>
       <c r="D282" s="89"/>
@@ -7848,13 +7845,13 @@
     </row>
     <row r="283" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B283" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C283" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D283" s="89"/>
       <c r="E283" s="89"/>
@@ -7862,10 +7859,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="89" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B284" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C284" s="89"/>
       <c r="D284" s="89"/>
@@ -7875,10 +7872,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B285" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C285" s="89"/>
       <c r="D285" s="89"/>
@@ -7887,10 +7884,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B286" s="89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C286" s="89"/>
       <c r="D286" s="89"/>
@@ -7899,26 +7896,26 @@
     </row>
     <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="89" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B287" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="C287" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="C287" s="89" t="s">
+      <c r="D287" s="89" t="s">
         <v>748</v>
-      </c>
-      <c r="D287" s="89" t="s">
-        <v>749</v>
       </c>
       <c r="E287" s="89"/>
       <c r="F287" s="89"/>
     </row>
     <row r="288" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="89" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B288" s="89" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C288" s="89"/>
       <c r="D288" s="89"/>
@@ -7927,10 +7924,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B289" s="89" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C289" s="89"/>
       <c r="D289" s="89"/>
@@ -7942,10 +7939,10 @@
         <v>178</v>
       </c>
       <c r="B290" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C290" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D290" s="89"/>
       <c r="E290" s="89"/>
@@ -7953,13 +7950,13 @@
     </row>
     <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B291" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C291" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D291" s="89"/>
       <c r="E291" s="89"/>
@@ -7970,7 +7967,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="89" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C292" s="89"/>
       <c r="D292" s="89"/>
@@ -7982,10 +7979,10 @@
         <v>315</v>
       </c>
       <c r="B293" s="89" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C293" s="89" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D293" s="89"/>
       <c r="E293" s="89"/>
@@ -7996,10 +7993,10 @@
         <v>310</v>
       </c>
       <c r="B294" s="89" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C294" s="89" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D294" s="89"/>
       <c r="E294" s="89"/>
@@ -8010,10 +8007,10 @@
         <v>339</v>
       </c>
       <c r="B295" s="89" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C295" s="89" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D295" s="89"/>
       <c r="E295" s="89"/>
@@ -8021,29 +8018,29 @@
     </row>
     <row r="296" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="89" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B296" s="89" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C296" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D296" s="89" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E296" s="89"/>
       <c r="F296" s="89"/>
     </row>
     <row r="297" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B297" s="89" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C297" s="89" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D297" s="89"/>
       <c r="E297" s="89"/>
@@ -8051,47 +8048,47 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="89" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B298" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C298" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D298" s="89" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E298" s="89" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F298" s="89"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="89" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B299" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C299" s="89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D299" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E299" s="89"/>
       <c r="F299" s="89"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="89" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B300" s="89" t="s">
         <v>255</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D300" s="89"/>
       <c r="E300" s="89"/>
@@ -8099,13 +8096,13 @@
     </row>
     <row r="301" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="89" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B301" s="89" t="s">
         <v>255</v>
       </c>
       <c r="C301" s="89" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D301" s="89"/>
       <c r="E301" s="89"/>
@@ -8113,10 +8110,10 @@
     </row>
     <row r="302" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="89" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B302" s="89" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C302" s="89"/>
       <c r="D302" s="89"/>
@@ -8125,13 +8122,13 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B303" s="89" t="s">
         <v>250</v>
       </c>
       <c r="C303" s="89" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D303" s="89"/>
       <c r="E303" s="89"/>
@@ -8139,13 +8136,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B304" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C304" s="89" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D304" s="89"/>
       <c r="E304" s="89"/>
@@ -8153,13 +8150,13 @@
     </row>
     <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="89" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B305" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C305" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D305" s="89"/>
       <c r="E305" s="89"/>
@@ -8167,10 +8164,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="95" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B306" s="89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C306" s="89"/>
       <c r="D306" s="89"/>
@@ -8179,10 +8176,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B307" s="89" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C307" s="89"/>
       <c r="D307" s="89"/>
@@ -8191,13 +8188,13 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B308" s="93" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C308" s="93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D308" s="93"/>
       <c r="E308" s="89"/>
@@ -8205,10 +8202,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="89" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B309" s="93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C309" s="93"/>
       <c r="D309" s="89"/>
@@ -8217,10 +8214,10 @@
     </row>
     <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B310" s="89" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C310" s="89"/>
       <c r="D310" s="89"/>
@@ -8229,13 +8226,13 @@
     </row>
     <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="89" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B311" s="89" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C311" s="89" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D311" s="89"/>
       <c r="E311" s="89"/>
@@ -8243,10 +8240,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="89" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B312" s="89" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C312" s="89"/>
       <c r="D312" s="89"/>
@@ -8255,10 +8252,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="89" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B313" s="89" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C313" s="89"/>
       <c r="D313" s="89"/>
@@ -8267,10 +8264,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="89" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B314" s="89" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C314" s="89"/>
       <c r="D314" s="89"/>
@@ -8279,10 +8276,10 @@
     </row>
     <row r="315" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B315" s="89" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C315" s="89"/>
       <c r="D315" s="89"/>
@@ -8291,13 +8288,13 @@
     </row>
     <row r="316" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="89" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B316" s="89" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C316" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D316" s="89"/>
       <c r="E316" s="89"/>
@@ -8305,13 +8302,13 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B317" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C317" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D317" s="89"/>
       <c r="E317" s="89"/>
@@ -8319,10 +8316,10 @@
     </row>
     <row r="318" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="89" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B318" s="89" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C318" s="89"/>
       <c r="D318" s="89"/>
@@ -8331,13 +8328,13 @@
     </row>
     <row r="319" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="89" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B319" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C319" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D319" s="89"/>
       <c r="E319" s="89"/>
@@ -8345,7 +8342,7 @@
     </row>
     <row r="320" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="89" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B320" s="89" t="s">
         <v>177</v>
@@ -8357,26 +8354,26 @@
     </row>
     <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B321" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C321" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D321" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E321" s="89"/>
       <c r="F321" s="89"/>
     </row>
     <row r="322" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B322" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C322" s="89"/>
       <c r="D322" s="89"/>
@@ -8385,26 +8382,26 @@
     </row>
     <row r="323" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="89" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B323" s="89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C323" s="89" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D323" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E323" s="89"/>
       <c r="F323" s="89"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B324" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C324" s="89"/>
       <c r="D324" s="89"/>
@@ -8413,10 +8410,10 @@
     </row>
     <row r="325" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B325" s="89" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C325" s="89"/>
       <c r="D325" s="89"/>
@@ -8425,10 +8422,10 @@
     </row>
     <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="89" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B326" s="89" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C326" s="89"/>
       <c r="D326" s="89"/>
@@ -8437,13 +8434,13 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="89" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B327" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C327" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D327" s="89"/>
       <c r="E327" s="89"/>
@@ -8451,13 +8448,13 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="89" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B328" s="89" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C328" s="89" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D328" s="89"/>
       <c r="E328" s="89"/>
@@ -8465,10 +8462,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B329" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C329" s="89"/>
       <c r="D329" s="89"/>
@@ -8477,10 +8474,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B330" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C330" s="89"/>
       <c r="D330" s="89"/>
@@ -8489,7 +8486,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="89" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B331" s="89" t="s">
         <v>177</v>
@@ -8501,10 +8498,10 @@
     </row>
     <row r="332" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="89" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B332" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C332" s="89"/>
       <c r="D332" s="89"/>
@@ -8513,10 +8510,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="89" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B333" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C333" s="89"/>
       <c r="D333" s="89"/>
@@ -8525,10 +8522,10 @@
     </row>
     <row r="334" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B334" s="89" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C334" s="89"/>
       <c r="D334" s="89"/>
@@ -8537,10 +8534,10 @@
     </row>
     <row r="335" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B335" s="89" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C335" s="89"/>
       <c r="D335" s="89"/>
@@ -8549,13 +8546,13 @@
     </row>
     <row r="336" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B336" s="89" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C336" s="89" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D336" s="89"/>
       <c r="E336" s="89"/>
@@ -8563,7 +8560,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="89" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B337" s="89" t="s">
         <v>177</v>
@@ -8575,13 +8572,13 @@
     </row>
     <row r="338" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="89" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B338" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C338" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D338" s="89"/>
       <c r="E338" s="89"/>
@@ -8589,13 +8586,13 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="89" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B339" s="93" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C339" s="93" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D339" s="93"/>
       <c r="E339" s="89"/>
@@ -8603,47 +8600,47 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B340" s="89" t="s">
         <v>254</v>
       </c>
       <c r="C340" s="89" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D340" s="89" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E340" s="89" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F340" s="89"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B341" s="93" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C341" s="93" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D341" s="93" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E341" s="89"/>
       <c r="F341" s="89"/>
     </row>
     <row r="342" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B342" s="89" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C342" s="89" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D342" s="89"/>
       <c r="E342" s="89"/>
@@ -8651,13 +8648,13 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="89" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B343" s="89" t="s">
+        <v>868</v>
+      </c>
+      <c r="C343" s="89" t="s">
         <v>869</v>
-      </c>
-      <c r="C343" s="89" t="s">
-        <v>870</v>
       </c>
       <c r="D343" s="89"/>
       <c r="E343" s="89"/>
@@ -8665,13 +8662,13 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="89" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B344" s="89" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C344" s="89" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D344" s="89"/>
       <c r="E344" s="89"/>
@@ -8679,10 +8676,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="89" t="s">
+        <v>593</v>
+      </c>
+      <c r="B345" s="89" t="s">
         <v>594</v>
-      </c>
-      <c r="B345" s="89" t="s">
-        <v>595</v>
       </c>
       <c r="C345" s="89"/>
       <c r="D345" s="89"/>
@@ -8691,10 +8688,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B346" s="89" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C346" s="89"/>
       <c r="D346" s="89"/>
@@ -8703,10 +8700,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="89" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B347" s="96" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C347" s="89"/>
       <c r="D347" s="89"/>
@@ -8715,13 +8712,13 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="89" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B348" s="96" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C348" s="89" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D348" s="89"/>
       <c r="E348" s="89"/>
@@ -8729,13 +8726,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B349" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C349" s="92" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D349" s="89"/>
       <c r="E349" s="89"/>
@@ -8743,13 +8740,13 @@
     </row>
     <row r="350" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="89" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B350" s="89" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C350" s="89" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D350" s="89"/>
       <c r="E350" s="89"/>
@@ -8757,10 +8754,10 @@
     </row>
     <row r="351" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B351" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C351" s="89"/>
       <c r="D351" s="89"/>
@@ -8769,10 +8766,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="89" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B352" s="89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C352" s="89"/>
       <c r="D352" s="89"/>
@@ -8781,23 +8778,23 @@
     </row>
     <row r="353" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="89" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B353" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C353" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D353" s="89" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E353" s="89"/>
       <c r="F353" s="89"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B354" s="89" t="s">
         <v>177</v>
@@ -8809,10 +8806,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="89" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B355" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C355" s="89"/>
       <c r="D355" s="89"/>
@@ -8821,10 +8818,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="89" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B356" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C356" s="89"/>
       <c r="D356" s="89"/>
@@ -8833,10 +8830,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="89" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B357" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C357" s="89"/>
       <c r="D357" s="89"/>
@@ -8845,10 +8842,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B358" s="89" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C358" s="89"/>
       <c r="D358" s="89"/>
@@ -8857,29 +8854,29 @@
     </row>
     <row r="359" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="89" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B359" s="89" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C359" s="89" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D359" s="90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E359" s="89"/>
       <c r="F359" s="89"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="89" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B360" s="89" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C360" s="89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D360" s="89"/>
       <c r="E360" s="89"/>
@@ -8887,13 +8884,13 @@
     </row>
     <row r="361" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="89" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B361" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C361" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D361" s="89"/>
       <c r="E361" s="89"/>
@@ -8901,13 +8898,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="89" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B362" s="89" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C362" s="89" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D362" s="89"/>
       <c r="E362" s="89"/>
@@ -8915,13 +8912,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="89" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B363" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C363" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D363" s="89"/>
       <c r="E363" s="89"/>
@@ -8929,13 +8926,13 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B364" s="93" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C364" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D364" s="89"/>
       <c r="E364" s="89"/>
@@ -8943,10 +8940,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B365" s="89" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C365" s="89"/>
       <c r="D365" s="89"/>
@@ -8955,10 +8952,10 @@
     </row>
     <row r="366" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="89" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B366" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C366" s="89"/>
       <c r="D366" s="89"/>
@@ -8967,13 +8964,13 @@
     </row>
     <row r="367" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B367" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C367" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D367" s="89"/>
       <c r="E367" s="89"/>
@@ -8981,13 +8978,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B368" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C368" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D368" s="89"/>
       <c r="E368" s="89"/>
@@ -8995,13 +8992,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="89" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B369" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C369" s="89" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D369" s="89"/>
       <c r="E369" s="89"/>
@@ -9009,10 +9006,10 @@
     </row>
     <row r="370" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="89" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B370" s="89" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C370" s="89"/>
       <c r="D370" s="89"/>
@@ -9021,13 +9018,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B371" s="93" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C371" s="93" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D371" s="89"/>
       <c r="E371" s="89"/>
@@ -9038,7 +9035,7 @@
         <v>5</v>
       </c>
       <c r="B372" s="89" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C372" s="89"/>
       <c r="D372" s="89"/>
@@ -9047,7 +9044,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="89" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B373" s="89" t="s">
         <v>177</v>
@@ -9071,10 +9068,10 @@
     </row>
     <row r="375" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="89" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B375" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C375" s="89"/>
       <c r="D375" s="89"/>
@@ -9086,10 +9083,10 @@
         <v>292</v>
       </c>
       <c r="B376" s="93" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C376" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D376" s="89"/>
       <c r="E376" s="89"/>
@@ -9100,23 +9097,23 @@
         <v>344</v>
       </c>
       <c r="B377" s="89" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C377" s="89" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D377" s="89" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E377" s="89"/>
       <c r="F377" s="89"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="89" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B378" s="89" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C378" s="89"/>
       <c r="D378" s="89"/>
@@ -9125,13 +9122,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="89" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B379" s="89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C379" s="89" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D379" s="89"/>
       <c r="E379" s="89"/>
@@ -9139,13 +9136,13 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B380" s="89" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C380" s="89" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D380" s="89"/>
       <c r="E380" s="89"/>
@@ -9153,10 +9150,10 @@
     </row>
     <row r="381" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="89" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B381" s="89" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C381" s="89"/>
       <c r="D381" s="89"/>
@@ -9165,10 +9162,10 @@
     </row>
     <row r="382" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="89" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B382" s="89" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C382" s="89"/>
       <c r="D382" s="89"/>
@@ -9177,10 +9174,10 @@
     </row>
     <row r="383" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="89" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B383" s="89" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C383" s="89"/>
       <c r="D383" s="89"/>
@@ -9189,13 +9186,13 @@
     </row>
     <row r="384" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="89" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B384" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C384" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D384" s="89"/>
       <c r="E384" s="89"/>
@@ -9203,13 +9200,13 @@
     </row>
     <row r="385" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="97" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B385" s="97" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C385" s="97" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D385" s="97"/>
       <c r="E385" s="97"/>
@@ -9217,7 +9214,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="89" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B386" s="89" t="s">
         <v>177</v>
@@ -9229,10 +9226,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="89" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B387" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C387" s="89"/>
       <c r="D387" s="89"/>
@@ -9241,13 +9238,13 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="89" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B388" s="89" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C388" s="89" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D388" s="89"/>
       <c r="E388" s="89"/>
@@ -9255,13 +9252,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="89" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B389" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C389" s="89" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D389" s="89"/>
       <c r="E389" s="89"/>
@@ -9269,13 +9266,13 @@
     </row>
     <row r="390" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="89" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B390" s="89" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C390" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D390" s="89"/>
       <c r="E390" s="89"/>
@@ -9283,13 +9280,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="89" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B391" s="89" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C391" s="89" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D391" s="89"/>
       <c r="E391" s="89"/>
@@ -9297,13 +9294,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B392" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C392" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D392" s="89"/>
       <c r="E392" s="89"/>
@@ -9311,10 +9308,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="89" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B393" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C393" s="89"/>
       <c r="D393" s="89"/>
@@ -9323,10 +9320,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B394" s="97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C394" s="89"/>
       <c r="D394" s="89"/>
@@ -9335,10 +9332,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B395" s="89" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C395" s="89"/>
       <c r="D395" s="89"/>
@@ -9347,10 +9344,10 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="89" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B396" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C396" s="89"/>
       <c r="D396" s="89"/>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="89" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B397" s="89" t="s">
         <v>252</v>
@@ -9371,10 +9368,10 @@
     </row>
     <row r="398" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="89" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B398" s="89" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C398" s="89"/>
       <c r="D398" s="89"/>
@@ -9383,13 +9380,13 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B399" s="89" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C399" s="89" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D399" s="89"/>
       <c r="E399" s="89"/>
@@ -9397,10 +9394,10 @@
     </row>
     <row r="400" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A400" s="89" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B400" s="89" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C400" s="89"/>
       <c r="D400" s="89"/>
@@ -9409,13 +9406,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="99" t="s">
+        <v>653</v>
+      </c>
+      <c r="B401" s="99" t="s">
         <v>654</v>
       </c>
-      <c r="B401" s="99" t="s">
-        <v>655</v>
-      </c>
       <c r="C401" s="99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D401" s="89"/>
       <c r="E401" s="89"/>
@@ -9423,10 +9420,10 @@
     </row>
     <row r="402" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A402" s="101" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B402" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C402" s="89"/>
       <c r="D402" s="89"/>
@@ -9438,7 +9435,7 @@
         <v>199</v>
       </c>
       <c r="B403" s="90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C403" s="89"/>
       <c r="D403" s="89"/>
@@ -9450,7 +9447,7 @@
         <v>200</v>
       </c>
       <c r="B404" s="90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C404" s="89"/>
       <c r="D404" s="89"/>
@@ -9459,10 +9456,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="89" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B405" s="90" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C405" s="90"/>
       <c r="D405" s="89"/>
@@ -9471,13 +9468,13 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="89" t="s">
+        <v>656</v>
+      </c>
+      <c r="B406" s="90" t="s">
+        <v>798</v>
+      </c>
+      <c r="C406" s="89" t="s">
         <v>657</v>
-      </c>
-      <c r="B406" s="90" t="s">
-        <v>799</v>
-      </c>
-      <c r="C406" s="89" t="s">
-        <v>658</v>
       </c>
       <c r="D406" s="89"/>
       <c r="E406" s="89"/>
@@ -9485,10 +9482,10 @@
     </row>
     <row r="407" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B407" s="90" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C407" s="89"/>
       <c r="D407" s="89"/>
@@ -9497,7 +9494,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="97" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B408" s="97" t="s">
         <v>255</v>
@@ -9509,7 +9506,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="97" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B409" s="97" t="s">
         <v>252</v>
@@ -9521,10 +9518,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="89" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B410" s="89" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C410" s="89"/>
       <c r="D410" s="89"/>
@@ -9533,10 +9530,10 @@
     </row>
     <row r="411" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="89" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B411" s="89" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C411" s="89"/>
       <c r="D411" s="89"/>
@@ -9545,13 +9542,13 @@
     </row>
     <row r="412" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="97" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B412" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C412" s="90" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D412" s="89"/>
       <c r="E412" s="89"/>
@@ -9559,10 +9556,10 @@
     </row>
     <row r="413" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B413" s="90" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C413" s="89"/>
       <c r="D413" s="89"/>
@@ -9571,13 +9568,13 @@
     </row>
     <row r="414" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="89" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B414" s="90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C414" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D414" s="89"/>
       <c r="E414" s="89"/>
@@ -9585,13 +9582,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="89" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B415" s="90" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C415" s="89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D415" s="89"/>
       <c r="E415" s="89"/>
@@ -9599,13 +9596,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="89" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B416" s="89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C416" s="89" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D416" s="89"/>
       <c r="E416" s="89"/>
@@ -9613,13 +9610,13 @@
     </row>
     <row r="417" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="89" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B417" s="90" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C417" s="90" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D417" s="89"/>
       <c r="E417" s="89"/>
@@ -9627,13 +9624,13 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="89" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B418" s="89" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C418" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D418" s="89"/>
       <c r="E418" s="89"/>
@@ -9641,7 +9638,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="89" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B419" s="89" t="s">
         <v>177</v>
@@ -9653,13 +9650,13 @@
     </row>
     <row r="420" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A420" s="89" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B420" s="89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C420" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D420" s="89"/>
       <c r="E420" s="89"/>
@@ -9667,10 +9664,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="89" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B421" s="89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C421" s="89"/>
       <c r="D421" s="89"/>
@@ -11425,10 +11422,10 @@
     </row>
     <row r="223" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="79" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B223" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C223" s="81">
         <v>45681</v>
@@ -11496,102 +11493,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="69" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="69" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -11616,30 +11613,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="82" customFormat="1" ht="378" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>488</v>
       </c>
-      <c r="C1" s="83" t="s">
-        <v>489</v>
-      </c>
       <c r="D1" s="83" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>491</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>492</v>
-      </c>
       <c r="D2" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
